--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="827">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -2549,6 +2549,9 @@
   </si>
   <si>
     <t>Anathema, ???</t>
+  </si>
+  <si>
+    <t>Capture an outsider or undead, can be summoned later. Destroys an illusion and refills Exorcists magic points.</t>
   </si>
 </sst>
 </file>
@@ -3313,7 +3316,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3435,7 @@
         <v>688</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,7 +3613,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3620,8 +3623,11 @@
       <c r="D17" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3631,8 +3637,11 @@
       <c r="D18" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3642,8 +3651,11 @@
       <c r="E19" s="3" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3653,8 +3665,11 @@
       <c r="D20" s="3" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3668,7 +3683,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="833">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -2551,7 +2551,25 @@
     <t>Anathema, ???</t>
   </si>
   <si>
-    <t>Capture an outsider or undead, can be summoned later. Destroys an illusion and refills Exorcists magic points.</t>
+    <t>Destroy all outsiders</t>
+  </si>
+  <si>
+    <t>Snipe 1</t>
+  </si>
+  <si>
+    <t>Hide, Snipe 3</t>
+  </si>
+  <si>
+    <t>Lock and Trap +2</t>
+  </si>
+  <si>
+    <t>Snipe 2</t>
+  </si>
+  <si>
+    <t>Steal +2</t>
+  </si>
+  <si>
+    <t>Lock and Trap +2, Missile Criticals +5</t>
   </si>
 </sst>
 </file>
@@ -3315,9 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3682,6 +3698,9 @@
       <c r="E21" t="s">
         <v>818</v>
       </c>
+      <c r="G21" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3700,20 +3719,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3730,133 +3749,154 @@
         <v>520</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>211</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H3" t="s">
         <v>212</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
         <v>214</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J5" t="s">
+      <c r="F5" t="s">
+        <v>723</v>
+      </c>
+      <c r="H5" t="s">
         <v>682</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>829</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" t="s">
+        <v>827</v>
+      </c>
+      <c r="F6" t="s">
+        <v>723</v>
+      </c>
+      <c r="H6" t="s">
         <v>678</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="J7" t="s">
+      <c r="F7" t="s">
+        <v>723</v>
+      </c>
+      <c r="H7" t="s">
         <v>667</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8" t="s">
         <v>672</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>683</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
         <v>302</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="D10" t="s">
+        <v>831</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="H10" t="s">
         <v>680</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I10" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3864,7 +3904,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3872,7 +3912,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3880,23 +3920,23 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3917,7 +3957,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3952,6 +3992,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="843">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -702,9 +702,6 @@
     <t>Can change equipment during the action selection phase</t>
   </si>
   <si>
-    <t>Firearm accuracy bonus</t>
-  </si>
-  <si>
     <t>Steal</t>
   </si>
   <si>
@@ -2121,12 +2118,6 @@
     <t>Deadeye N</t>
   </si>
   <si>
-    <t>Deadeye 1</t>
-  </si>
-  <si>
-    <t>Grand Invention, Deadeye 2</t>
-  </si>
-  <si>
     <t>Favoured Enemy: Outsider</t>
   </si>
   <si>
@@ -2569,7 +2560,46 @@
     <t>Steal +2</t>
   </si>
   <si>
-    <t>Lock and Trap +2, Missile Criticals +5</t>
+    <t>Ranged Crit +N</t>
+  </si>
+  <si>
+    <t>Deadeye +5%</t>
+  </si>
+  <si>
+    <t>Grand Invention, Deadeye +10%</t>
+  </si>
+  <si>
+    <t>Inventions</t>
+  </si>
+  <si>
+    <t>Ion Field Generator: Heal All</t>
+  </si>
+  <si>
+    <t>Mephit Portal: Mephit Army</t>
+  </si>
+  <si>
+    <t>Glass Cannon: Prismic Missile</t>
+  </si>
+  <si>
+    <t>Grand Inventions</t>
+  </si>
+  <si>
+    <t>The Motivator: Fervour</t>
+  </si>
+  <si>
+    <t>Steam Powered Gatling: Falling Stars</t>
+  </si>
+  <si>
+    <t>Clockwork Orrery: Anti-Magic</t>
+  </si>
+  <si>
+    <t>Fast Hands</t>
+  </si>
+  <si>
+    <t>Lock and Trap +2, Steal +2, Snipe +2</t>
+  </si>
+  <si>
+    <t>Urbanite</t>
   </si>
 </sst>
 </file>
@@ -2965,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -2988,7 +3018,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3008,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3028,7 +3058,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3048,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3068,7 +3098,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3088,7 +3118,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3108,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3125,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3165,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3185,7 +3215,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3205,13 +3235,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3225,13 +3255,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H15" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="I15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,7 +3286,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3284,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,7 +3328,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3312,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3374,7 +3404,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3408,16 +3438,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I4" t="s">
+        <v>662</v>
+      </c>
+      <c r="J4" t="s">
         <v>663</v>
-      </c>
-      <c r="J4" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3431,10 +3461,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J5" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3448,10 +3478,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J6" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3462,16 +3492,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="G7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="J7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3486,13 +3516,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J8" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3503,16 +3533,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I9" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="J9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3523,19 +3553,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I10" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="J10" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3546,16 +3576,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I11" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="J11" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3566,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3580,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,7 +3628,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3609,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3623,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3637,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E21" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,14 +3751,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3746,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3757,7 +3788,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3774,7 +3805,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3788,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>842</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3802,16 +3833,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3819,19 +3850,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H6" t="s">
+        <v>677</v>
+      </c>
+      <c r="I6" t="s">
         <v>678</v>
-      </c>
-      <c r="I6" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3839,16 +3870,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F7" t="s">
+        <v>720</v>
+      </c>
+      <c r="H7" t="s">
         <v>666</v>
       </c>
-      <c r="F7" t="s">
-        <v>723</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>667</v>
-      </c>
-      <c r="I7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3856,13 +3887,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="F8" t="s">
+        <v>720</v>
       </c>
       <c r="H8" t="s">
+        <v>671</v>
+      </c>
+      <c r="I8" t="s">
         <v>672</v>
-      </c>
-      <c r="I8" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3870,13 +3904,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>683</v>
+        <v>830</v>
+      </c>
+      <c r="F9" t="s">
+        <v>720</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3884,16 +3921,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>830</v>
+        <v>827</v>
+      </c>
+      <c r="F10" t="s">
+        <v>720</v>
       </c>
       <c r="H10" t="s">
+        <v>679</v>
+      </c>
+      <c r="I10" t="s">
         <v>680</v>
-      </c>
-      <c r="I10" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3901,7 +3941,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>671</v>
+        <v>670</v>
+      </c>
+      <c r="F11" t="s">
+        <v>720</v>
+      </c>
+      <c r="H11" t="s">
+        <v>840</v>
+      </c>
+      <c r="I11" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3909,7 +3958,13 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="F12" t="s">
+        <v>720</v>
+      </c>
+      <c r="H12" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3917,7 +3972,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="F13" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3925,7 +3983,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>828</v>
+        <v>825</v>
+      </c>
+      <c r="F14" t="s">
+        <v>720</v>
+      </c>
+      <c r="H14" t="s">
+        <v>832</v>
+      </c>
+      <c r="I14" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3933,7 +4000,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+      <c r="F15" t="s">
+        <v>720</v>
+      </c>
+      <c r="I15" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3941,50 +4014,80 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+      <c r="F16" t="s">
+        <v>720</v>
+      </c>
+      <c r="I16" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="H18" t="s">
+        <v>836</v>
+      </c>
+      <c r="I18" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="F19" t="s">
+        <v>720</v>
+      </c>
+      <c r="I19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="F20" t="s">
+        <v>720</v>
+      </c>
+      <c r="I20" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="F21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -4000,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,10 +4134,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>720</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4042,13 +4148,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" t="s">
         <v>220</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>221</v>
-      </c>
-      <c r="K3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4058,11 +4164,14 @@
       <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="G4" t="s">
+        <v>720</v>
+      </c>
       <c r="J4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" t="s">
         <v>223</v>
-      </c>
-      <c r="K4" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4070,13 +4179,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J5" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" t="s">
         <v>226</v>
-      </c>
-      <c r="K5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4084,13 +4193,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="G6" t="s">
+        <v>720</v>
       </c>
       <c r="J6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" t="s">
         <v>228</v>
-      </c>
-      <c r="K6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,13 +4210,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K7" t="s">
         <v>231</v>
-      </c>
-      <c r="K7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4112,13 +4224,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" t="s">
         <v>233</v>
-      </c>
-      <c r="K8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4128,11 +4240,14 @@
       <c r="D9" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="G9" t="s">
+        <v>720</v>
+      </c>
       <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="s">
         <v>235</v>
-      </c>
-      <c r="K9" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4140,13 +4255,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K10" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4154,13 +4269,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J11" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" t="s">
         <v>241</v>
-      </c>
-      <c r="K11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4168,13 +4283,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" t="s">
+        <v>604</v>
+      </c>
+      <c r="K12" t="s">
         <v>605</v>
-      </c>
-      <c r="K12" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4190,7 +4305,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>217</v>
+        <v>828</v>
+      </c>
+      <c r="G14" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4198,7 +4316,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4206,7 +4324,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,7 +4340,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4295,13 +4413,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" t="s">
         <v>278</v>
-      </c>
-      <c r="K2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4309,13 +4427,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" t="s">
         <v>280</v>
-      </c>
-      <c r="K3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4323,13 +4441,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" t="s">
         <v>282</v>
-      </c>
-      <c r="K4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4340,10 +4458,10 @@
         <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4351,13 +4469,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K6" t="s">
         <v>286</v>
-      </c>
-      <c r="K6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4365,13 +4483,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" t="s">
         <v>288</v>
-      </c>
-      <c r="K7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4379,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4395,7 +4513,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4403,7 +4521,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4411,7 +4529,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4419,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4435,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,7 +4562,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4460,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,7 +4586,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,7 +4602,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4540,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4557,13 +4675,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4577,10 +4695,10 @@
         <v>208</v>
       </c>
       <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="s">
         <v>303</v>
-      </c>
-      <c r="K4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4591,13 +4709,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" t="s">
         <v>305</v>
-      </c>
-      <c r="J5" t="s">
-        <v>305</v>
-      </c>
-      <c r="K5" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4608,13 +4726,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4631,7 +4749,7 @@
         <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4646,10 +4764,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K8" t="s">
         <v>310</v>
-      </c>
-      <c r="K8" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,10 +4781,10 @@
         <v>106</v>
       </c>
       <c r="J9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9" t="s">
         <v>312</v>
-      </c>
-      <c r="K9" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4677,13 +4795,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K10" t="s">
         <v>314</v>
-      </c>
-      <c r="K10" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4694,13 +4812,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" t="s">
         <v>316</v>
-      </c>
-      <c r="K11" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4711,13 +4829,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K12" t="s">
         <v>318</v>
-      </c>
-      <c r="K12" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4728,13 +4846,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J13" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" t="s">
         <v>320</v>
-      </c>
-      <c r="K13" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4749,10 +4867,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4766,10 +4884,10 @@
         <v>125</v>
       </c>
       <c r="J15" t="s">
+        <v>326</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4781,13 +4899,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="J16" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4798,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4842,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4903,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J2" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" t="s">
         <v>332</v>
-      </c>
-      <c r="K2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4920,13 +5038,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J3" t="s">
+        <v>333</v>
+      </c>
+      <c r="K3" t="s">
         <v>334</v>
-      </c>
-      <c r="K3" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4937,13 +5055,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" t="s">
         <v>336</v>
-      </c>
-      <c r="K4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4954,13 +5072,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J5" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" t="s">
         <v>339</v>
-      </c>
-      <c r="K5" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4971,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4988,13 +5106,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K7" t="s">
         <v>497</v>
-      </c>
-      <c r="K7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5008,10 +5126,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>502</v>
+      </c>
+      <c r="K8" t="s">
         <v>503</v>
-      </c>
-      <c r="K8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5022,13 +5140,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J9" t="s">
+        <v>568</v>
+      </c>
+      <c r="K9" t="s">
         <v>569</v>
-      </c>
-      <c r="K9" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5039,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5050,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5061,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5072,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5094,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5106,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5128,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5150,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5218,13 +5336,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I2" t="s">
+        <v>353</v>
+      </c>
+      <c r="J2" t="s">
         <v>354</v>
-      </c>
-      <c r="J2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5235,13 +5353,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>654</v>
+      </c>
+      <c r="I3" t="s">
         <v>655</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>656</v>
-      </c>
-      <c r="J3" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5255,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>662</v>
+      </c>
+      <c r="J4" t="s">
         <v>663</v>
-      </c>
-      <c r="J4" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5269,13 +5387,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J5" t="s">
         <v>356</v>
-      </c>
-      <c r="J5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5289,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5303,13 +5421,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I7" t="s">
+        <v>599</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5323,10 +5441,10 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
+        <v>602</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5334,16 +5452,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5354,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5365,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5373,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5387,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5398,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5406,7 +5524,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5420,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,7 +5557,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5464,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,13 +5590,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,7 +5641,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5537,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5548,13 +5666,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" t="s">
         <v>365</v>
-      </c>
-      <c r="K3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5565,13 +5683,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" t="s">
         <v>369</v>
-      </c>
-      <c r="K4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5582,13 +5700,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5599,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K6" t="s">
         <v>393</v>
-      </c>
-      <c r="K6" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5616,13 +5734,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="J7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K7" t="s">
         <v>506</v>
-      </c>
-      <c r="J7" t="s">
-        <v>506</v>
-      </c>
-      <c r="K7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5637,10 +5755,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
+        <v>389</v>
+      </c>
+      <c r="K8" t="s">
         <v>390</v>
-      </c>
-      <c r="K8" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5651,7 +5769,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5662,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5673,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5684,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5695,7 +5813,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5718,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5730,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5741,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5774,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5785,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5834,13 +5952,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5851,13 +5969,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K3" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" t="s">
         <v>374</v>
-      </c>
-      <c r="L3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5868,13 +5986,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -5888,10 +6006,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>377</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5902,13 +6020,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K6" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5919,13 +6037,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L7" t="s">
         <v>384</v>
-      </c>
-      <c r="L7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5933,7 +6051,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5943,7 +6061,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5965,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5976,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5987,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5998,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6006,7 +6124,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6021,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6033,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6044,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6077,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6144,13 +6262,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K2" t="s">
         <v>399</v>
-      </c>
-      <c r="K2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6161,13 +6279,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K3" t="s">
         <v>403</v>
-      </c>
-      <c r="K3" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6178,13 +6296,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6195,13 +6313,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J5" t="s">
+        <v>558</v>
+      </c>
+      <c r="K5" t="s">
         <v>559</v>
-      </c>
-      <c r="K5" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6212,13 +6330,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="K6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6229,13 +6347,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6250,10 +6368,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6264,13 +6382,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="K9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6281,13 +6399,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6298,13 +6416,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="K11" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6315,13 +6433,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K12" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6332,13 +6450,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="K13" t="s">
         <v>717</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="K13" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6353,10 +6471,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6379,13 +6497,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="K16" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6407,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6436,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,7 +6617,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -6519,7 +6637,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -6539,7 +6657,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -6559,7 +6677,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -6579,13 +6697,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6599,7 +6717,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -6619,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6633,7 +6751,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -6653,7 +6771,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -6673,7 +6791,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6687,13 +6805,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6707,7 +6825,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6721,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6735,7 +6853,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6749,7 +6867,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6763,13 +6881,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6783,7 +6901,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -6803,7 +6921,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -6823,7 +6941,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6837,13 +6955,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6890,10 +7008,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6907,13 +7025,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J2" t="s">
+        <v>547</v>
+      </c>
+      <c r="K2" t="s">
         <v>548</v>
-      </c>
-      <c r="K2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6924,13 +7042,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J3" t="s">
+        <v>549</v>
+      </c>
+      <c r="K3" t="s">
         <v>550</v>
-      </c>
-      <c r="K3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6944,10 +7062,10 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" t="s">
         <v>259</v>
-      </c>
-      <c r="K4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6958,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6969,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6980,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7025,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7036,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7047,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7069,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7081,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7136,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,7 +7299,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7196,16 +7314,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K2" t="s">
+        <v>406</v>
+      </c>
+      <c r="L2" t="s">
         <v>407</v>
-      </c>
-      <c r="L2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7216,13 +7334,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K3" t="s">
+        <v>408</v>
+      </c>
+      <c r="L3" t="s">
         <v>409</v>
-      </c>
-      <c r="L3" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7233,13 +7351,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K4" t="s">
+        <v>410</v>
+      </c>
+      <c r="L4" t="s">
         <v>411</v>
-      </c>
-      <c r="L4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7253,10 +7371,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>412</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7270,10 +7388,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
+        <v>596</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7284,13 +7402,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K7" t="s">
+        <v>644</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>645</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7305,10 +7423,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="K8" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7322,10 +7440,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7339,10 +7457,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7353,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7398,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7443,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7522,13 +7640,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2" t="s">
         <v>415</v>
-      </c>
-      <c r="H2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7539,13 +7657,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G3" t="s">
+        <v>416</v>
+      </c>
+      <c r="H3" t="s">
         <v>417</v>
-      </c>
-      <c r="H3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7556,10 +7674,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7570,13 +7688,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H5" t="s">
         <v>632</v>
-      </c>
-      <c r="G5" t="s">
-        <v>632</v>
-      </c>
-      <c r="H5" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7587,13 +7705,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G6" t="s">
+        <v>629</v>
+      </c>
+      <c r="H6" t="s">
         <v>630</v>
-      </c>
-      <c r="H6" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7604,13 +7722,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>635</v>
-      </c>
-      <c r="H7" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7625,10 +7743,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H8" t="s">
         <v>640</v>
-      </c>
-      <c r="H8" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7639,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7650,7 +7768,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7661,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7683,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7718,7 +7836,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7729,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7751,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7824,19 +7942,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J2" t="s">
+        <v>423</v>
+      </c>
+      <c r="K2" t="s">
         <v>424</v>
-      </c>
-      <c r="K2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7847,13 +7965,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" t="s">
         <v>270</v>
-      </c>
-      <c r="K3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7861,16 +7979,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" t="s">
         <v>272</v>
-      </c>
-      <c r="K4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7881,13 +7999,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J5" t="s">
+        <v>613</v>
+      </c>
+      <c r="K5" t="s">
         <v>614</v>
-      </c>
-      <c r="K5" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7895,7 +8013,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -7909,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7920,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7928,7 +8046,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7942,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7953,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7961,7 +8079,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -7994,7 +8112,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8008,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8027,7 +8145,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8060,13 +8178,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8113,10 +8231,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8130,16 +8248,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8151,13 +8269,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H3" t="s">
+        <v>433</v>
+      </c>
+      <c r="I3" t="s">
         <v>434</v>
-      </c>
-      <c r="I3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8168,13 +8286,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" t="s">
         <v>259</v>
-      </c>
-      <c r="I4" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8185,13 +8303,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H5" t="s">
+        <v>580</v>
+      </c>
+      <c r="I5" t="s">
         <v>581</v>
-      </c>
-      <c r="H5" t="s">
-        <v>581</v>
-      </c>
-      <c r="I5" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8205,10 +8323,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I6" t="s">
         <v>584</v>
-      </c>
-      <c r="I6" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8219,13 +8337,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8240,10 +8358,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8257,10 +8375,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8271,13 +8389,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H10" t="s">
+        <v>594</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8288,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8299,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8310,7 +8428,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8348,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8370,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8392,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8403,7 +8521,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8451,19 +8569,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J2" t="s">
         <v>436</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8474,13 +8592,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J3" t="s">
+        <v>438</v>
+      </c>
+      <c r="K3" t="s">
         <v>439</v>
-      </c>
-      <c r="K3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8491,13 +8609,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" t="s">
         <v>442</v>
-      </c>
-      <c r="K4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8508,13 +8626,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J5" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" t="s">
         <v>444</v>
-      </c>
-      <c r="K5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8525,13 +8643,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J6" t="s">
+        <v>445</v>
+      </c>
+      <c r="K6" t="s">
         <v>446</v>
-      </c>
-      <c r="K6" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8542,13 +8660,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K7" t="s">
         <v>448</v>
-      </c>
-      <c r="K7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8556,17 +8674,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
+        <v>449</v>
+      </c>
+      <c r="K8" t="s">
         <v>450</v>
-      </c>
-      <c r="K8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8577,13 +8695,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8594,13 +8712,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J10" t="s">
+        <v>452</v>
+      </c>
+      <c r="K10" t="s">
         <v>453</v>
-      </c>
-      <c r="K10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8611,13 +8729,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J11" t="s">
+        <v>454</v>
+      </c>
+      <c r="K11" t="s">
         <v>455</v>
-      </c>
-      <c r="K11" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8628,13 +8746,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J12" t="s">
+        <v>456</v>
+      </c>
+      <c r="K12" t="s">
         <v>457</v>
-      </c>
-      <c r="K12" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8645,13 +8763,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K13" t="s">
         <v>460</v>
-      </c>
-      <c r="K13" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8659,17 +8777,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="K14" t="s">
         <v>462</v>
-      </c>
-      <c r="K14" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8680,13 +8798,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="K15" t="s">
         <v>578</v>
-      </c>
-      <c r="K15" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8698,13 +8816,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="K16" t="s">
         <v>626</v>
-      </c>
-      <c r="K16" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8715,13 +8833,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K17" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8732,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8743,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8754,7 +8872,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8765,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8821,13 +8939,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I2" t="s">
         <v>572</v>
       </c>
-      <c r="I2" t="s">
-        <v>573</v>
-      </c>
       <c r="J2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8838,13 +8956,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" t="s">
         <v>465</v>
-      </c>
-      <c r="J3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8858,10 +8976,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>538</v>
+      </c>
+      <c r="J4" t="s">
         <v>539</v>
-      </c>
-      <c r="J4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8872,13 +8990,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8892,10 +9010,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -8906,13 +9024,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I7" t="s">
+        <v>575</v>
+      </c>
+      <c r="J7" t="s">
         <v>576</v>
-      </c>
-      <c r="J7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8923,13 +9041,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8937,7 +9055,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8951,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8970,7 +9088,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8995,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9003,7 +9121,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9036,7 +9154,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9050,7 +9168,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9069,13 +9187,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9125,19 +9243,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" t="s">
         <v>269</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>270</v>
-      </c>
-      <c r="L2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9149,10 +9267,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="K3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" t="s">
         <v>272</v>
-      </c>
-      <c r="L3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9177,7 +9295,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9225,7 +9343,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9271,7 +9389,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9681,13 +9799,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" t="s">
         <v>387</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>388</v>
-      </c>
-      <c r="J2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9712,10 +9830,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" t="s">
         <v>390</v>
-      </c>
-      <c r="J4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9723,13 +9841,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" t="s">
         <v>365</v>
-      </c>
-      <c r="J5" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9737,13 +9855,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J6" t="s">
         <v>393</v>
-      </c>
-      <c r="J6" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9757,7 +9875,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9765,7 +9883,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9781,7 +9899,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9797,7 +9915,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9805,7 +9923,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -9813,7 +9931,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9821,7 +9939,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9830,7 +9948,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9838,7 +9956,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9851,7 +9969,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9859,7 +9977,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9913,7 +10031,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -9924,7 +10042,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -9941,7 +10059,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -9958,7 +10076,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -9975,7 +10093,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -9992,7 +10110,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10009,7 +10127,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10026,13 +10144,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10043,7 +10161,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10060,13 +10178,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10077,7 +10195,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10088,7 +10206,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10099,7 +10217,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10107,10 +10225,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10121,7 +10239,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10132,7 +10250,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10143,7 +10261,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10162,7 +10280,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10173,7 +10291,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10181,10 +10299,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10231,19 +10349,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" t="s">
         <v>247</v>
-      </c>
-      <c r="K2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10255,10 +10373,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="J3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K3" t="s">
         <v>249</v>
-      </c>
-      <c r="K3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10270,10 +10388,10 @@
       </c>
       <c r="D4" s="3"/>
       <c r="J4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" t="s">
         <v>251</v>
-      </c>
-      <c r="K4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10285,10 +10403,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="J5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" t="s">
         <v>253</v>
-      </c>
-      <c r="K5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -10296,7 +10414,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10329,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10346,7 +10464,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10394,7 +10512,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -10409,7 +10527,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10497,13 +10615,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" t="s">
         <v>261</v>
-      </c>
-      <c r="K2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10514,10 +10632,10 @@
         <v>104</v>
       </c>
       <c r="J3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" t="s">
         <v>263</v>
-      </c>
-      <c r="K3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10525,13 +10643,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" t="s">
         <v>266</v>
-      </c>
-      <c r="K4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10539,7 +10657,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10555,7 +10673,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10624,7 +10742,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10694,13 +10812,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10716,7 +10834,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10730,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10738,7 +10856,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10760,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10768,7 +10886,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10795,7 +10913,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10809,7 +10927,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -10825,7 +10943,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -10847,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10855,7 +10973,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -10882,13 +11000,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -10934,7 +11052,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10948,13 +11066,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -10965,16 +11083,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H3" t="s">
         <v>561</v>
-      </c>
-      <c r="F3" t="s">
-        <v>723</v>
-      </c>
-      <c r="G3" t="s">
-        <v>563</v>
-      </c>
-      <c r="H3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10988,7 +11106,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11008,13 +11126,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11028,7 +11146,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11048,13 +11166,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H7" t="s">
         <v>567</v>
-      </c>
-      <c r="H7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11068,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11088,7 +11206,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11105,10 +11223,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11145,13 +11263,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11165,13 +11283,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11185,10 +11303,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G14" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11205,7 +11323,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11225,13 +11343,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11242,10 +11360,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11270,7 +11388,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11284,7 +11402,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11295,10 +11413,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11344,7 +11462,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11355,10 +11473,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11366,10 +11484,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11383,13 +11501,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11401,10 +11519,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -11421,7 +11539,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -11435,16 +11553,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J7" t="s">
         <v>259</v>
-      </c>
-      <c r="J7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11452,16 +11570,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" t="s">
         <v>266</v>
-      </c>
-      <c r="J8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11470,16 +11588,16 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" t="s">
         <v>263</v>
-      </c>
-      <c r="J9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11487,16 +11605,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I10" t="s">
+        <v>617</v>
+      </c>
+      <c r="J10" t="s">
         <v>618</v>
-      </c>
-      <c r="J10" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11504,16 +11622,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I11" t="s">
+        <v>619</v>
+      </c>
+      <c r="J11" t="s">
         <v>620</v>
-      </c>
-      <c r="J11" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11521,16 +11639,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="G12" t="s">
+        <v>720</v>
+      </c>
+      <c r="I12" t="s">
         <v>622</v>
       </c>
-      <c r="G12" t="s">
-        <v>723</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>623</v>
-      </c>
-      <c r="J12" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11538,16 +11656,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>739</v>
+      </c>
+      <c r="G13" t="s">
+        <v>720</v>
+      </c>
+      <c r="I13" t="s">
         <v>742</v>
       </c>
-      <c r="G13" t="s">
-        <v>723</v>
-      </c>
-      <c r="I13" t="s">
-        <v>745</v>
-      </c>
       <c r="J13" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11555,13 +11673,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E14" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11569,10 +11687,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11580,10 +11698,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11591,10 +11709,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11602,10 +11720,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11614,10 +11732,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11625,7 +11743,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11633,10 +11751,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11693,16 +11811,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11713,16 +11831,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" t="s">
         <v>257</v>
-      </c>
-      <c r="H3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11733,16 +11851,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="H4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11753,16 +11871,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" t="s">
         <v>259</v>
-      </c>
-      <c r="H5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11773,16 +11891,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G6" t="s">
+        <v>483</v>
+      </c>
+      <c r="H6" t="s">
         <v>484</v>
-      </c>
-      <c r="H6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11793,16 +11911,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H7" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11817,13 +11935,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H8" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11834,16 +11952,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H9" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11854,16 +11972,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11874,16 +11992,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H11" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11894,16 +12012,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11914,16 +12032,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11938,13 +12056,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G14" t="s">
+        <v>478</v>
+      </c>
+      <c r="H14" t="s">
         <v>479</v>
-      </c>
-      <c r="H14" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11955,16 +12073,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G15" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H15" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11976,16 +12094,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G16" t="s">
+        <v>483</v>
+      </c>
+      <c r="H16" t="s">
         <v>484</v>
-      </c>
-      <c r="H16" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11996,16 +12114,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17" t="s">
+        <v>720</v>
+      </c>
+      <c r="G17" t="s">
+        <v>485</v>
+      </c>
+      <c r="H17" t="s">
         <v>486</v>
-      </c>
-      <c r="E17" t="s">
-        <v>723</v>
-      </c>
-      <c r="G17" t="s">
-        <v>486</v>
-      </c>
-      <c r="H17" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12016,16 +12134,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G18" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H18" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12036,16 +12154,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G19" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12056,16 +12174,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G20" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H20" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12076,16 +12194,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H21" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12145,7 +12263,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12165,7 +12283,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12185,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12202,16 +12320,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="K5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12226,13 +12344,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K6" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12246,13 +12364,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="K7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12263,16 +12381,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" t="s">
+        <v>720</v>
+      </c>
+      <c r="J8" t="s">
+        <v>782</v>
+      </c>
+      <c r="K8" t="s">
         <v>783</v>
-      </c>
-      <c r="E8" t="s">
-        <v>723</v>
-      </c>
-      <c r="J8" t="s">
-        <v>785</v>
-      </c>
-      <c r="K8" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12287,13 +12405,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J9" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="K9" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12307,7 +12425,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12321,7 +12439,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12335,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12349,7 +12467,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12375,7 +12493,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12397,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12415,7 +12533,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12426,10 +12544,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12440,10 +12558,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12457,10 +12575,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12517,16 +12635,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G2" t="s">
+        <v>720</v>
+      </c>
+      <c r="J2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" t="s">
         <v>491</v>
-      </c>
-      <c r="G2" t="s">
-        <v>723</v>
-      </c>
-      <c r="J2" t="s">
-        <v>490</v>
-      </c>
-      <c r="K2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12537,16 +12655,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K3" t="s">
         <v>493</v>
-      </c>
-      <c r="K3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12560,13 +12678,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J4" t="s">
+        <v>609</v>
+      </c>
+      <c r="K4" t="s">
         <v>610</v>
-      </c>
-      <c r="K4" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12577,16 +12695,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="K5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12601,13 +12719,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J6" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="K6" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12618,16 +12736,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K7" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12638,16 +12756,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="K8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12662,13 +12780,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K9" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12679,16 +12797,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="K10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12699,16 +12817,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="K11" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12722,13 +12840,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="K12" t="s">
         <v>796</v>
-      </c>
-      <c r="K12" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12739,10 +12857,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12753,16 +12871,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J14" t="s">
+        <v>607</v>
+      </c>
+      <c r="K14" t="s">
         <v>608</v>
-      </c>
-      <c r="K14" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12777,7 +12895,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12788,10 +12906,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G16" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12802,10 +12920,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G17" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12820,7 +12938,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12831,10 +12949,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G19" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12845,10 +12963,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12862,10 +12980,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12925,7 +13043,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -12945,7 +13063,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -12965,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -12985,7 +13103,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13006,13 +13124,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J6" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="K6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13023,16 +13141,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K7" t="s">
         <v>612</v>
-      </c>
-      <c r="K7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13043,16 +13161,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J8" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K8" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13067,13 +13185,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J9" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="K9" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13084,16 +13202,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K10" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13107,13 +13225,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J11" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K11" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13127,13 +13245,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="K12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13144,16 +13262,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G13" t="s">
+        <v>720</v>
+      </c>
+      <c r="J13" t="s">
+        <v>809</v>
+      </c>
+      <c r="K13" t="s">
         <v>810</v>
-      </c>
-      <c r="G13" t="s">
-        <v>723</v>
-      </c>
-      <c r="J13" t="s">
-        <v>812</v>
-      </c>
-      <c r="K13" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13167,7 +13285,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13182,7 +13300,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13193,16 +13311,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="G16" t="s">
+        <v>720</v>
+      </c>
+      <c r="J16" t="s">
         <v>803</v>
       </c>
-      <c r="G16" t="s">
-        <v>723</v>
-      </c>
-      <c r="J16" t="s">
-        <v>806</v>
-      </c>
       <c r="K16" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13228,7 +13346,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13250,10 +13368,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13267,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="844">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -711,24 +711,15 @@
     <t>Cheat Death</t>
   </si>
   <si>
-    <t>Favoured Enemy: Vermin</t>
-  </si>
-  <si>
     <t>Melee Cleave</t>
   </si>
   <si>
-    <t>mass melee attack/berserk?</t>
-  </si>
-  <si>
     <t>Melee Master</t>
   </si>
   <si>
     <t>bonus attack based on number of foes present</t>
   </si>
   <si>
-    <t>Favoured Enemy: Magical Beast</t>
-  </si>
-  <si>
     <t>Second Wind</t>
   </si>
   <si>
@@ -741,9 +732,6 @@
     <t>better physical resistance</t>
   </si>
   <si>
-    <t>Favoured Enemy: Aberration</t>
-  </si>
-  <si>
     <t>Provisions</t>
   </si>
   <si>
@@ -762,16 +750,10 @@
     <t>Better resting for the party</t>
   </si>
   <si>
-    <t>Favoured Enemy: Giant</t>
-  </si>
-  <si>
     <t>Weapon Training</t>
   </si>
   <si>
     <t>ignore Kendo, Chivalry, Dual Weapons and Martial Arts requirements on weapons</t>
-  </si>
-  <si>
-    <t>Favoured Enemy: Dragon</t>
   </si>
   <si>
     <t>Last Stand</t>
@@ -2600,6 +2582,27 @@
   </si>
   <si>
     <t>Urbanite</t>
+  </si>
+  <si>
+    <t>Journeyman: Favoured Enemy: Vermin</t>
+  </si>
+  <si>
+    <t>Champion: Favoured Enemy: Giant</t>
+  </si>
+  <si>
+    <t>Legend: Favoured Enemy: Dragon</t>
+  </si>
+  <si>
+    <t>Veteran: Favoured Enemy: Magical Beast</t>
+  </si>
+  <si>
+    <t>Master: Favoured Enemy: Aberration</t>
+  </si>
+  <si>
+    <t>on a killing blow, make another attack</t>
+  </si>
+  <si>
+    <t>bonuses in cities</t>
   </si>
 </sst>
 </file>
@@ -2995,10 +2998,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3018,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3038,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3058,7 +3061,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3078,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3098,7 +3101,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3118,7 +3121,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3138,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3155,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3195,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3215,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3235,13 +3238,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3255,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H15" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="I15" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3286,7 +3289,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,7 +3317,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3328,7 +3331,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3404,7 +3407,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3438,16 +3441,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="J4" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3461,10 +3464,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J5" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,10 +3481,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="J6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3492,16 +3495,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="J7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3516,13 +3519,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I8" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="J8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3533,16 +3536,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I9" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="J9" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3553,19 +3556,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I10" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="J10" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3576,16 +3579,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I11" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="J11" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3596,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3628,7 +3631,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3639,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3653,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3667,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3681,10 +3684,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3695,10 +3698,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3723,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E21" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3752,7 +3755,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,7 +3780,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,7 +3791,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3805,7 +3808,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3819,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3833,16 +3836,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="I5" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3850,19 +3853,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H6" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="I6" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3870,16 +3873,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="I7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3887,16 +3890,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H8" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="I8" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,16 +3907,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="F9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3921,19 +3924,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H10" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I10" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3941,16 +3944,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H11" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="I11" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3961,10 +3964,13 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H12" t="s">
-        <v>842</v>
+        <v>836</v>
+      </c>
+      <c r="I12" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3972,10 +3978,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,16 +3989,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H14" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="I14" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4000,13 +4006,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I15" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4014,13 +4020,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I16" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,7 +4037,7 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4039,13 +4045,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="H18" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="I18" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,13 +4059,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I19" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4067,13 +4073,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I20" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4081,10 +4087,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4104,7 +4110,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,6 +4118,7 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4137,7 +4144,7 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J2" t="s">
         <v>218</v>
@@ -4148,13 +4155,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="G3" t="s">
+        <v>714</v>
+      </c>
+      <c r="J3" t="s">
         <v>219</v>
       </c>
-      <c r="J3" t="s">
-        <v>220</v>
-      </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4165,13 +4175,13 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,13 +4189,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="G5" t="s">
+        <v>714</v>
       </c>
       <c r="J5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4193,16 +4206,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4210,13 +4223,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>224</v>
+        <v>840</v>
+      </c>
+      <c r="G7" t="s">
+        <v>714</v>
       </c>
       <c r="J7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4224,13 +4240,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="G8" t="s">
+        <v>714</v>
       </c>
       <c r="J8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4241,13 +4260,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4255,13 +4274,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>714</v>
       </c>
       <c r="J10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4269,13 +4291,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>229</v>
+        <v>841</v>
+      </c>
+      <c r="G11" t="s">
+        <v>714</v>
       </c>
       <c r="J11" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4283,13 +4308,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>714</v>
       </c>
       <c r="J12" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="K12" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4297,7 +4325,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="G13" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4305,10 +4336,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4316,7 +4347,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4324,26 +4355,29 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+      <c r="G16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4351,23 +4385,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="G20" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -4413,13 +4450,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4427,13 +4464,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4441,13 +4478,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4458,10 +4495,10 @@
         <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4469,13 +4506,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,13 +4520,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4497,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4513,7 +4550,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4521,7 +4558,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4529,7 +4566,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4537,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4553,7 +4590,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4562,7 +4599,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,7 +4615,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4586,7 +4623,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,7 +4639,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4658,13 +4695,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4675,13 +4712,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4695,10 +4732,10 @@
         <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4709,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4726,13 +4763,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4749,7 +4786,7 @@
         <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4764,10 +4801,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K8" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4781,10 +4818,10 @@
         <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,13 +4832,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="K10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4815,10 +4852,10 @@
         <v>216</v>
       </c>
       <c r="J11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K11" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4829,13 +4866,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" t="s">
         <v>311</v>
       </c>
-      <c r="J12" t="s">
-        <v>317</v>
-      </c>
       <c r="K12" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4846,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" t="s">
         <v>313</v>
       </c>
-      <c r="J13" t="s">
-        <v>319</v>
-      </c>
       <c r="K13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4867,10 +4904,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K14" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4884,10 +4921,10 @@
         <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4899,13 +4936,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="J16" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,7 +5044,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5021,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5038,13 +5075,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5055,13 +5092,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5072,13 +5109,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="J5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5089,13 +5126,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="J6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5106,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="J7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5126,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5140,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5157,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5168,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5179,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5212,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5224,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5246,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5268,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5279,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,13 +5373,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="I2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5353,13 +5390,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="I3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="J3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5373,10 +5410,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="J4" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5387,13 +5424,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="I5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5407,10 +5444,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5421,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="I7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5441,10 +5478,10 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5452,16 +5489,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5472,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5483,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5491,7 +5528,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5505,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5516,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5524,7 +5561,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5538,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,7 +5594,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5582,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,13 +5627,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,7 +5678,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5655,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5666,13 +5703,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5683,13 +5720,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5700,13 +5737,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5717,13 +5754,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K6" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5734,13 +5771,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="J7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5755,10 +5792,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5769,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5780,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5791,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5813,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5836,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5848,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5859,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5892,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5903,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5952,13 +5989,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -5969,13 +6006,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="K3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -5986,13 +6023,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L4" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6006,10 +6043,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6020,13 +6057,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6037,13 +6074,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6051,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6061,7 +6098,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6083,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6094,7 +6131,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6105,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6116,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6124,7 +6161,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6139,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6151,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6262,13 +6299,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6279,13 +6316,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6296,13 +6333,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="J4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6313,13 +6350,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="J5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6330,13 +6367,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J6" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="K6" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6347,13 +6384,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="K7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,10 +6405,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="K8" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6382,13 +6419,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="K9" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6399,13 +6436,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="K10" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6416,13 +6453,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="K11" t="s">
         <v>707</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="K11" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6433,13 +6470,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="K12" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6450,13 +6487,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="K13" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6471,10 +6508,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6485,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6497,13 +6534,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="K16" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6617,7 +6654,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -6637,7 +6674,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -6657,7 +6694,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -6677,7 +6714,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -6697,13 +6734,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6717,7 +6754,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -6737,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6751,7 +6788,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -6771,7 +6808,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -6791,7 +6828,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6805,13 +6842,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6825,7 +6862,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6839,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6853,7 +6890,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6867,7 +6904,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6881,13 +6918,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6901,7 +6938,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -6921,7 +6958,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -6941,7 +6978,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6955,13 +6992,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7008,10 +7045,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7025,13 +7062,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="J2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7042,13 +7079,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7062,10 +7099,10 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7076,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7087,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7098,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7143,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7154,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7165,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7187,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7199,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7232,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,7 +7336,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7314,16 +7351,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7334,13 +7371,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7351,13 +7388,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7371,10 +7408,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7388,10 +7425,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7402,13 +7439,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="K7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7423,10 +7460,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7440,10 +7477,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7457,10 +7494,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7471,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7516,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7561,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7583,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7640,13 +7677,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7657,13 +7694,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7674,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7688,13 +7725,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="G5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7705,13 +7742,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7743,10 +7780,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7757,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7768,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7779,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7790,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7801,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7836,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7847,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7869,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7891,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7942,19 +7979,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7965,13 +8002,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7979,16 +8016,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7999,13 +8036,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="K5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8013,7 +8050,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8027,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8038,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,7 +8083,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8060,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8071,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8079,7 +8116,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8112,7 +8149,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8126,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8145,7 +8182,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8178,13 +8215,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8231,10 +8268,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8248,16 +8285,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8269,13 +8306,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="I3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8286,13 +8323,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8303,13 +8340,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H5" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="I5" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8323,10 +8360,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8337,13 +8374,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>588</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8358,10 +8395,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8375,10 +8412,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8389,13 +8426,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H10" t="s">
         <v>588</v>
       </c>
-      <c r="H10" t="s">
-        <v>594</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8406,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8417,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8428,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8466,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8488,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8510,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8521,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8569,19 +8606,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="J2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8592,13 +8629,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8609,13 +8646,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8626,13 +8663,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8643,13 +8680,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="J6" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K6" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8660,13 +8697,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="J7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8674,17 +8711,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K8" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8695,13 +8732,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="J9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K9" t="s">
         <v>445</v>
-      </c>
-      <c r="J9" t="s">
-        <v>458</v>
-      </c>
-      <c r="K9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8712,13 +8749,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J10" t="s">
+        <v>446</v>
+      </c>
+      <c r="K10" t="s">
         <v>447</v>
-      </c>
-      <c r="J10" t="s">
-        <v>452</v>
-      </c>
-      <c r="K10" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8729,13 +8766,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="J11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K11" t="s">
         <v>449</v>
-      </c>
-      <c r="J11" t="s">
-        <v>454</v>
-      </c>
-      <c r="K11" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8746,13 +8783,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8763,13 +8800,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8777,17 +8814,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K14" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8798,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8816,13 +8853,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="K16" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8833,13 +8870,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="K17" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8850,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8861,7 +8898,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8872,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8883,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8939,13 +8976,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="I2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="J2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8956,13 +8993,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="I3" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -8976,10 +9013,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -8990,13 +9027,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J5" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9010,10 +9047,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="J6" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9024,13 +9061,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="I7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="J7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9041,13 +9078,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I8" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="J8" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9055,7 +9092,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9069,7 +9106,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9088,7 +9125,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9113,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9121,7 +9158,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9154,7 +9191,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9168,7 +9205,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,13 +9224,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,19 +9280,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9267,10 +9304,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="K3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9295,7 +9332,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9343,7 +9380,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9389,7 +9426,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9799,13 +9836,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9830,10 +9867,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9841,13 +9878,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="I5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="J5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9855,13 +9892,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="I6" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J6" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9875,7 +9912,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9883,7 +9920,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9899,7 +9936,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9915,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9931,7 +9968,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9939,7 +9976,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9948,7 +9985,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9956,7 +9993,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9969,7 +10006,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9977,7 +10014,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10031,7 +10068,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10042,7 +10079,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -10059,7 +10096,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -10076,7 +10113,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -10093,7 +10130,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -10110,7 +10147,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10127,7 +10164,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10144,13 +10181,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10161,7 +10198,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10178,13 +10215,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
+        <v>714</v>
+      </c>
+      <c r="G10" t="s">
         <v>720</v>
       </c>
-      <c r="G10" t="s">
-        <v>726</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10195,7 +10232,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10206,7 +10243,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10217,7 +10254,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10225,10 +10262,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10239,7 +10276,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10250,7 +10287,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10261,7 +10298,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10280,7 +10317,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10291,7 +10328,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10299,10 +10336,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10349,19 +10386,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10373,10 +10410,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10388,10 +10425,10 @@
       </c>
       <c r="D4" s="3"/>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10403,10 +10440,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="J5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -10414,7 +10451,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10447,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10464,7 +10501,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10512,7 +10549,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -10527,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10615,13 +10652,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10632,10 +10669,10 @@
         <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10646,10 +10683,10 @@
         <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10657,7 +10694,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10673,7 +10710,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10742,7 +10779,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10812,13 +10849,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10834,7 +10871,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10848,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10856,7 +10893,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10878,7 +10915,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10886,7 +10923,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10913,7 +10950,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10927,7 +10964,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -10943,7 +10980,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -10965,7 +11002,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10973,7 +11010,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11000,13 +11037,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>523</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>529</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11052,7 +11089,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11066,13 +11103,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11083,16 +11120,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11106,7 +11143,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11126,13 +11163,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11146,7 +11183,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11166,13 +11203,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11186,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11206,7 +11243,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11223,10 +11260,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11263,13 +11300,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11283,13 +11320,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11303,10 +11340,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G14" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11323,7 +11360,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11343,13 +11380,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G16" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11360,10 +11397,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11388,7 +11425,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11402,7 +11439,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11413,10 +11450,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11462,7 +11499,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11473,10 +11510,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11484,10 +11521,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11501,13 +11538,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I4" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11519,10 +11556,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -11539,7 +11576,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -11553,16 +11590,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11570,16 +11607,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11588,16 +11625,16 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11605,16 +11642,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I10" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="J10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11622,16 +11659,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I11" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="J11" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11639,16 +11676,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I12" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J12" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11656,16 +11693,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I13" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="J13" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11673,13 +11710,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11687,10 +11724,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="G15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11698,10 +11735,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11709,10 +11746,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11720,10 +11757,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11732,10 +11769,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11743,7 +11780,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11751,10 +11788,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11811,16 +11848,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11831,16 +11868,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11851,16 +11888,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H4" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11871,16 +11908,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11891,16 +11928,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11911,16 +11948,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11935,13 +11972,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11952,16 +11989,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="H9" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11972,16 +12009,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11992,16 +12029,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G11" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H11" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12012,16 +12049,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G12" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12032,16 +12069,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H13" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12056,13 +12093,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G14" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H14" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12073,16 +12110,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G15" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H15" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12094,16 +12131,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" t="s">
+        <v>714</v>
+      </c>
+      <c r="G16" t="s">
+        <v>477</v>
+      </c>
+      <c r="H16" t="s">
         <v>478</v>
-      </c>
-      <c r="E16" t="s">
-        <v>720</v>
-      </c>
-      <c r="G16" t="s">
-        <v>483</v>
-      </c>
-      <c r="H16" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12114,16 +12151,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H17" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12134,16 +12171,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G18" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H18" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12154,16 +12191,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G19" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="H19" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12174,16 +12211,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G20" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H20" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12194,16 +12231,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G21" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H21" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12263,7 +12300,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12283,7 +12320,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12303,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12320,16 +12357,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J5" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="K5" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12344,13 +12381,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J6" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="K6" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12364,13 +12401,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="K7" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12381,16 +12418,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J8" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="K8" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12405,13 +12442,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J9" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="K9" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12425,7 +12462,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12439,7 +12476,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12453,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12467,7 +12504,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12493,7 +12530,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12515,10 +12552,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12533,7 +12570,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12544,10 +12581,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12558,10 +12595,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12575,10 +12612,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12601,7 +12638,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12635,16 +12672,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12655,16 +12692,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12678,13 +12715,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K4" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12695,16 +12732,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J5" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="K5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12719,13 +12756,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J6" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="K6" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12736,16 +12773,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="K7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12756,16 +12793,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J8" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="K8" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12780,13 +12817,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="K9" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12797,16 +12834,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="K10" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12817,16 +12854,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="K11" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12840,13 +12877,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="K12" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12857,10 +12894,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12871,16 +12908,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J14" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K14" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12895,7 +12932,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12906,10 +12943,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12920,10 +12957,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G17" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12938,7 +12975,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12949,10 +12986,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="G19" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12963,10 +13000,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12980,10 +13017,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13043,7 +13080,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -13063,7 +13100,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -13083,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -13103,7 +13140,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13124,13 +13161,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J6" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="K6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13141,16 +13178,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="K7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13161,16 +13198,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J8" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K8" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13185,13 +13222,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J9" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="K9" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13202,16 +13239,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J10" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="K10" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13225,13 +13262,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J11" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="K11" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13245,13 +13282,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J12" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="K12" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13262,16 +13299,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J13" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="K13" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13285,7 +13322,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13300,7 +13337,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13311,16 +13348,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G16" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="J16" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="K16" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13346,7 +13383,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13368,10 +13405,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G20" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13385,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="846">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -747,12 +747,6 @@
     <t>Campfire Tales</t>
   </si>
   <si>
-    <t>Better resting for the party</t>
-  </si>
-  <si>
-    <t>Weapon Training</t>
-  </si>
-  <si>
     <t>ignore Kendo, Chivalry, Dual Weapons and Martial Arts requirements on weapons</t>
   </si>
   <si>
@@ -1602,12 +1596,6 @@
     <t>Lighing Strike: Axe N</t>
   </si>
   <si>
-    <t>Entertainer +1, Taunt</t>
-  </si>
-  <si>
-    <t>Entertainer, Tumble</t>
-  </si>
-  <si>
     <t>Steal, Hide</t>
   </si>
   <si>
@@ -2599,10 +2587,28 @@
     <t>Master: Favoured Enemy: Aberration</t>
   </si>
   <si>
-    <t>on a killing blow, make another attack</t>
-  </si>
-  <si>
     <t>bonuses in cities</t>
+  </si>
+  <si>
+    <t>Entertainer 25%, Tumble</t>
+  </si>
+  <si>
+    <t>Entertainer 25%, Taunt</t>
+  </si>
+  <si>
+    <t>Better resting for the party (Entertainer 15%)</t>
+  </si>
+  <si>
+    <t>Weapon Master</t>
+  </si>
+  <si>
+    <t>on a killing blow, make another attack (once)</t>
+  </si>
+  <si>
+    <t>Greater Cleave</t>
+  </si>
+  <si>
+    <t>same as Melee Cleave but unlimited extra attacks</t>
   </si>
 </sst>
 </file>
@@ -2998,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3021,7 +3027,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3041,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3061,7 +3067,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3081,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3101,7 +3107,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3121,7 +3127,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3141,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3158,10 +3164,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3198,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3218,7 +3224,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3238,13 +3244,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3258,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H15" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I15" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3289,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3303,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3317,7 +3323,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,7 +3337,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3345,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3390,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3407,7 +3413,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3441,16 +3447,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,10 +3470,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3481,10 +3487,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3519,13 +3525,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J8" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3536,16 +3542,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I9" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J9" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3556,19 +3562,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I10" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="J10" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3579,16 +3585,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="J11" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3599,10 +3605,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3613,10 +3619,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3631,7 +3637,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3642,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3656,10 +3662,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3670,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3684,10 +3690,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3698,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3712,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,13 +3732,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E21" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3780,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,7 +3797,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3808,7 +3814,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3822,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3836,16 +3842,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="I5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3853,19 +3859,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="I6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3873,16 +3879,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="I7" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3890,16 +3896,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I8" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3907,16 +3913,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I9" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3924,19 +3930,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H10" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="I10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3944,16 +3950,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H11" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="I11" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3964,13 +3970,13 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H12" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="I12" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3978,10 +3984,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,16 +3995,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H14" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I14" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4006,13 +4012,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I15" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4020,13 +4026,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I16" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,7 +4043,7 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4045,13 +4051,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="H18" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I18" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4059,13 +4065,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I19" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4073,13 +4079,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I20" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4087,10 +4093,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="F21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4110,7 +4116,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,7 +4150,7 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J2" t="s">
         <v>218</v>
@@ -4155,16 +4161,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="G3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4175,7 +4181,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J4" t="s">
         <v>220</v>
@@ -4192,7 +4198,7 @@
         <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J5" t="s">
         <v>222</v>
@@ -4209,7 +4215,7 @@
         <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J6" t="s">
         <v>224</v>
@@ -4223,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="G7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J7" t="s">
         <v>226</v>
@@ -4243,7 +4249,7 @@
         <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J8" t="s">
         <v>228</v>
@@ -4260,13 +4266,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J9" t="s">
         <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4277,13 +4283,13 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J10" t="s">
-        <v>232</v>
+        <v>842</v>
       </c>
       <c r="K10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4291,16 +4297,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4311,13 +4317,13 @@
         <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J12" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="K12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4328,7 +4334,13 @@
         <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>714</v>
+        <v>710</v>
+      </c>
+      <c r="J13" t="s">
+        <v>844</v>
+      </c>
+      <c r="K13" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4336,10 +4348,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,16 +4361,19 @@
       <c r="D15" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="G15" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="G16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4366,7 +4381,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>232</v>
+        <v>842</v>
+      </c>
+      <c r="G17" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,7 +4392,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
+      </c>
+      <c r="G18" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4382,7 +4403,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>844</v>
+      </c>
+      <c r="G19" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4390,10 +4414,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="G20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4401,7 +4425,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="G21" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4450,13 +4477,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4464,13 +4491,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4478,13 +4505,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4495,10 +4522,10 @@
         <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,13 +4533,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4520,13 +4547,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4534,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4550,7 +4577,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4558,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4566,7 +4593,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4574,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4590,7 +4617,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4599,7 +4626,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,7 +4650,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,13 +4722,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4712,13 +4739,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4732,10 +4759,10 @@
         <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4746,13 +4773,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4763,13 +4790,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4786,7 +4813,7 @@
         <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4801,10 +4828,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,10 +4845,10 @@
         <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4832,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4852,10 +4879,10 @@
         <v>216</v>
       </c>
       <c r="J11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4866,13 +4893,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4883,13 +4910,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4904,10 +4931,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4921,10 +4948,10 @@
         <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4936,13 +4963,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J16" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4953,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4964,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4975,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4997,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,7 +5071,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5058,13 +5085,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" t="s">
         <v>323</v>
       </c>
-      <c r="J2" t="s">
-        <v>325</v>
-      </c>
       <c r="K2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5075,13 +5102,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5092,13 +5119,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5109,13 +5136,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5126,13 +5153,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5143,13 +5170,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5163,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5177,13 +5204,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K9" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5194,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5205,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5216,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5227,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5249,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5261,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5272,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5316,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5373,13 +5400,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5390,13 +5417,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5410,10 +5437,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5424,13 +5451,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5444,10 +5471,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5458,13 +5485,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5478,10 +5505,10 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5489,16 +5516,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5509,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5520,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5528,7 +5555,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5542,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5553,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5561,7 +5588,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5575,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5594,7 +5621,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5619,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,13 +5654,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5692,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5703,13 +5730,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5720,13 +5747,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5737,13 +5764,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5754,13 +5781,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5771,13 +5798,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5792,10 +5819,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5806,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5817,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5828,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5850,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5873,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5885,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5896,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5929,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5940,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5989,13 +6016,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6006,13 +6033,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6023,13 +6050,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6043,10 +6070,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6057,13 +6084,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6074,13 +6101,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6088,7 +6115,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6098,7 +6125,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6120,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6131,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6142,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6153,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6161,7 +6188,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6176,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6188,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,13 +6326,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6316,13 +6343,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6333,13 +6360,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6350,13 +6377,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6367,13 +6394,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6384,13 +6411,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="K7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6405,10 +6432,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K8" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6419,13 +6446,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K9" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6436,13 +6463,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="K10" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6453,13 +6480,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K11" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,13 +6497,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K12" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6487,13 +6514,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="K13" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6508,10 +6535,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6522,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6534,13 +6561,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K16" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,7 +6681,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -6674,7 +6701,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -6694,7 +6721,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -6714,7 +6741,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -6734,13 +6761,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6754,7 +6781,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -6774,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6788,7 +6815,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -6808,7 +6835,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -6828,7 +6855,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6842,13 +6869,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6862,7 +6889,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6876,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6890,7 +6917,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6904,7 +6931,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6918,13 +6945,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6938,7 +6965,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -6958,7 +6985,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -6978,7 +7005,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6992,13 +7019,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7045,10 +7072,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7062,13 +7089,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7079,13 +7106,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7099,10 +7126,10 @@
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7113,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7124,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7135,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7180,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7191,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7202,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7224,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7236,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7291,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7312,7 +7339,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7336,7 +7363,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7351,16 +7378,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>510</v>
+        <v>840</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7371,13 +7398,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="K3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7388,13 +7415,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
         <v>402</v>
       </c>
-      <c r="K4" t="s">
-        <v>404</v>
-      </c>
       <c r="L4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7408,10 +7435,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7425,10 +7452,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7439,13 +7466,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="K7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7460,10 +7487,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7477,10 +7504,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7494,10 +7521,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7508,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7553,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7598,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7620,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7677,13 +7704,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7694,13 +7721,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3" t="s">
         <v>408</v>
       </c>
-      <c r="G3" t="s">
-        <v>410</v>
-      </c>
       <c r="H3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7711,10 +7738,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7725,13 +7752,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7742,13 +7769,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G6" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7759,13 +7786,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7780,10 +7807,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="H8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7794,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7805,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7816,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7827,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7838,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7873,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7884,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7906,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7928,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7979,19 +8006,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8002,13 +8029,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8016,16 +8043,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8036,13 +8063,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8050,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8064,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8075,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8083,7 +8110,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8097,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8108,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8116,7 +8143,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8149,7 +8176,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8163,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8182,7 +8209,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8215,13 +8242,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8242,7 +8269,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8268,10 +8295,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8285,16 +8312,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>511</v>
+        <v>839</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8306,13 +8333,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8323,13 +8350,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8340,13 +8367,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="I5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8360,10 +8387,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="I6" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8374,13 +8401,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8395,10 +8422,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8412,10 +8439,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8426,13 +8453,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8443,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8454,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8465,7 +8492,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8503,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8525,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8547,7 +8574,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8558,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8606,19 +8633,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="J2" t="s">
-        <v>430</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8629,13 +8656,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J3" t="s">
         <v>430</v>
       </c>
-      <c r="J3" t="s">
-        <v>432</v>
-      </c>
       <c r="K3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8646,13 +8673,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8663,13 +8690,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8680,13 +8707,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8697,13 +8724,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8711,17 +8738,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8732,13 +8759,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8749,13 +8776,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8766,13 +8793,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8783,13 +8810,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8800,13 +8827,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8814,17 +8841,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8835,13 +8862,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K15" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8853,13 +8880,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K16" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8870,13 +8897,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="K17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8887,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8898,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8909,7 +8936,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8920,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8976,13 +9003,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -8993,13 +9020,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9013,10 +9040,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="J4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9027,13 +9054,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="I5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9047,10 +9074,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9061,13 +9088,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9078,13 +9105,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I8" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9092,7 +9119,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9106,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9125,7 +9152,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9150,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9158,7 +9185,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9191,7 +9218,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9205,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9224,13 +9251,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9280,19 +9307,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L2" t="s">
         <v>262</v>
-      </c>
-      <c r="K2" t="s">
-        <v>263</v>
-      </c>
-      <c r="L2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9304,10 +9331,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9332,7 +9359,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9380,7 +9407,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -9426,7 +9453,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -9836,13 +9863,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" t="s">
         <v>380</v>
-      </c>
-      <c r="I2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9867,10 +9894,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9878,13 +9905,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9892,13 +9919,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9912,7 +9939,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9920,7 +9947,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9936,7 +9963,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9952,7 +9979,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9968,7 +9995,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9976,7 +10003,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -9985,7 +10012,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9993,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10006,7 +10033,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10014,7 +10041,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10068,7 +10095,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10079,7 +10106,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -10096,7 +10123,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -10113,7 +10140,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -10130,7 +10157,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -10147,7 +10174,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10164,7 +10191,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10181,13 +10208,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10198,7 +10225,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10215,13 +10242,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10232,7 +10259,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10243,7 +10270,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10254,7 +10281,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10262,10 +10289,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10276,7 +10303,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10287,7 +10314,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10298,7 +10325,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10317,7 +10344,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10328,7 +10355,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10336,10 +10363,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10386,19 +10413,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10410,10 +10437,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10425,10 +10452,10 @@
       </c>
       <c r="D4" s="3"/>
       <c r="J4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10440,10 +10467,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="J5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -10451,7 +10478,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10484,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10501,7 +10528,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -10549,7 +10576,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -10564,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10652,13 +10679,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10669,10 +10696,10 @@
         <v>104</v>
       </c>
       <c r="J3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -10683,10 +10710,10 @@
         <v>216</v>
       </c>
       <c r="J4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10694,7 +10721,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10710,7 +10737,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10779,7 +10806,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10849,13 +10876,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10871,7 +10898,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10885,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10893,7 +10920,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10915,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10923,7 +10950,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10950,7 +10977,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10964,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -10980,7 +11007,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11002,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11010,7 +11037,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11037,13 +11064,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11089,7 +11116,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11103,13 +11130,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11120,16 +11147,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11143,7 +11170,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11163,13 +11190,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11183,7 +11210,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11203,13 +11230,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11223,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11243,7 +11270,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11260,10 +11287,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11300,13 +11327,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11320,13 +11347,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11340,10 +11367,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11360,7 +11387,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11380,13 +11407,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11397,10 +11424,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11425,7 +11452,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11439,7 +11466,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11450,10 +11477,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11499,7 +11526,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11510,10 +11537,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11521,10 +11548,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11538,13 +11565,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11556,10 +11583,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -11576,7 +11603,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -11590,16 +11617,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11607,16 +11634,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11625,16 +11652,16 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11642,16 +11669,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11659,16 +11686,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I11" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11676,16 +11703,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11693,16 +11720,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>729</v>
+      </c>
+      <c r="G13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I13" t="s">
+        <v>732</v>
+      </c>
+      <c r="J13" t="s">
         <v>733</v>
-      </c>
-      <c r="G13" t="s">
-        <v>714</v>
-      </c>
-      <c r="I13" t="s">
-        <v>736</v>
-      </c>
-      <c r="J13" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11710,13 +11737,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11724,10 +11751,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11735,10 +11762,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11746,10 +11773,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11757,10 +11784,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11769,10 +11796,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11780,7 +11807,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11788,10 +11815,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11848,16 +11875,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11868,16 +11895,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11888,16 +11915,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11908,16 +11935,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11928,16 +11955,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11948,16 +11975,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11972,13 +11999,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H8" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11989,16 +12016,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H9" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12009,16 +12036,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12029,16 +12056,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12049,16 +12076,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12069,16 +12096,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E13" t="s">
+        <v>710</v>
+      </c>
+      <c r="G13" t="s">
         <v>469</v>
       </c>
-      <c r="E13" t="s">
-        <v>714</v>
-      </c>
-      <c r="G13" t="s">
-        <v>471</v>
-      </c>
       <c r="H13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12093,13 +12120,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12110,16 +12137,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G15" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H15" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12131,16 +12158,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12151,16 +12178,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12171,16 +12198,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G18" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H18" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12191,16 +12218,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G19" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H19" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12211,16 +12238,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G20" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H20" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12231,16 +12258,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="E21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H21" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12300,7 +12327,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12320,7 +12347,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12340,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12357,16 +12384,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="K5" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12381,13 +12408,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J6" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="K6" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12401,13 +12428,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K7" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12418,16 +12445,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J8" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="K8" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12442,13 +12469,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J9" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K9" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12462,7 +12489,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12476,7 +12503,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12490,7 +12517,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12504,7 +12531,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12530,7 +12557,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12552,10 +12579,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12570,7 +12597,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12581,10 +12608,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12595,10 +12622,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12612,10 +12639,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12672,16 +12699,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K2" t="s">
         <v>483</v>
-      </c>
-      <c r="K2" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12692,16 +12719,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12715,13 +12742,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12732,16 +12759,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="K5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12756,13 +12783,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K6" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12773,16 +12800,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J7" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12793,16 +12820,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K8" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12817,13 +12844,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K9" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12834,16 +12861,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K10" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12854,16 +12881,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="K11" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12877,13 +12904,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="K12" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12894,10 +12921,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12908,16 +12935,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J14" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="K14" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12932,7 +12959,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12943,10 +12970,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12957,10 +12984,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G17" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12975,7 +13002,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12986,10 +13013,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13000,10 +13027,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13017,10 +13044,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G21" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13080,7 +13107,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -13100,7 +13127,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -13120,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -13140,7 +13167,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13161,13 +13188,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J6" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="K6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13178,16 +13205,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13198,16 +13225,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="K8" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13222,13 +13249,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J9" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K9" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13239,16 +13266,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J10" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13262,13 +13289,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J11" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13282,13 +13309,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J12" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="K12" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13299,16 +13326,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="G13" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J13" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="K13" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13322,7 +13349,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13337,7 +13364,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13348,16 +13375,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G16" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J16" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K16" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13383,7 +13410,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13405,10 +13432,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G20" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13422,7 +13449,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="14" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="855">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -875,18 +875,9 @@
     <t>Resist Mental +30%</t>
   </si>
   <si>
-    <t>Monk Immunities</t>
-  </si>
-  <si>
     <t>Immune to Disease, Immune to Irritation</t>
   </si>
   <si>
-    <t>Monk Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blind Fighting +1, Lightning Strike/Unarmed +1, Dodge 1%, Arrow Cutting 1% </t>
-  </si>
-  <si>
     <t>afflictions names and types are always identified on the character</t>
   </si>
   <si>
@@ -899,25 +890,10 @@
     <t>afflictions names, types and strengths are always identified on the character</t>
   </si>
   <si>
-    <t>Relfexion</t>
-  </si>
-  <si>
-    <t>increased defence while mobile</t>
-  </si>
-  <si>
     <t>Resist Mental +50%</t>
   </si>
   <si>
-    <t>Resist Mental +30%, Immune to Irritation</t>
-  </si>
-  <si>
     <t>Blind Fighting</t>
-  </si>
-  <si>
-    <t>Lightning Strike/Unarmed 1</t>
-  </si>
-  <si>
-    <t>Lightning Strike/Unarmed 2</t>
   </si>
   <si>
     <t>Lightning Strike/Unarmed 3</t>
@@ -2139,9 +2115,6 @@
     <t>Channel elements 2</t>
   </si>
   <si>
-    <t>Resist Mental +80%, Arrow Cutting 20%, ???</t>
-  </si>
-  <si>
     <t>Elemental Manifestation</t>
   </si>
   <si>
@@ -2609,6 +2582,60 @@
   </si>
   <si>
     <t>same as Melee Cleave but unlimited extra attacks</t>
+  </si>
+  <si>
+    <t>Resist Mental +30%, Monk Immunities</t>
+  </si>
+  <si>
+    <t>Stealth abilities</t>
+  </si>
+  <si>
+    <t>Dodge 10%</t>
+  </si>
+  <si>
+    <t>Dodge 20%</t>
+  </si>
+  <si>
+    <t>Reflexion</t>
+  </si>
+  <si>
+    <t>Plyze Touch 5%</t>
+  </si>
+  <si>
+    <t>Lightning Strike/Unarmed 7</t>
+  </si>
+  <si>
+    <t>Lightning Strike/Unarmed 8</t>
+  </si>
+  <si>
+    <t>Monk Immunities 1</t>
+  </si>
+  <si>
+    <t>Monk Immunities 2</t>
+  </si>
+  <si>
+    <t>Stunning Blow</t>
+  </si>
+  <si>
+    <t>Resist Mental +80%, Arrow Cutting 20%, Monk Immunities 2</t>
+  </si>
+  <si>
+    <t>Immune to Disease, Irritation, Hex, Web, Possess, Poison</t>
+  </si>
+  <si>
+    <t>Self Awareness 1, Monk Resistances +5%</t>
+  </si>
+  <si>
+    <t>Monk Resistances N</t>
+  </si>
+  <si>
+    <t>all resistances +N%</t>
+  </si>
+  <si>
+    <t>Self Awareness 2, Monk Resistenaces +10%</t>
+  </si>
+  <si>
+    <t>self-buff that adds to initiative, defence, and adds BLINK</t>
   </si>
 </sst>
 </file>
@@ -3004,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3027,7 +3054,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3047,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3067,7 +3094,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3087,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3107,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3127,7 +3154,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3147,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3164,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="E10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3204,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3224,7 +3251,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3244,13 +3271,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3264,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H15" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="I15" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3295,7 +3322,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3309,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,7 +3350,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,7 +3364,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3351,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3396,7 +3423,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3413,7 +3440,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3447,16 +3474,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="J4" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3470,10 +3497,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="J5" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3487,10 +3514,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="J6" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3501,16 +3528,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="J7" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3525,13 +3552,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I8" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="J8" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3542,16 +3569,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I9" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="J9" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3562,19 +3589,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I10" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3585,16 +3612,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I11" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="J11" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3605,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3619,10 +3646,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3637,7 +3664,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3648,10 +3675,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3662,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="G16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3676,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,10 +3717,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3704,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3718,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,13 +3759,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="E21" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="G21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3786,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3797,7 +3824,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3814,7 +3841,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3828,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3842,16 +3869,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="I5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3859,19 +3886,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H6" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="I6" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3879,16 +3906,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="I7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,16 +3923,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H8" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="I8" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3913,16 +3940,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,19 +3957,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H10" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="I10" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,16 +3977,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="F11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H11" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="I11" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3970,13 +3997,13 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H12" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="I12" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3984,10 +4011,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="F13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3995,16 +4022,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="H14" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="I14" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4012,13 +4039,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I15" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4026,13 +4053,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I16" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,7 +4070,7 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4051,13 +4078,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="H18" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="I18" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4065,13 +4092,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I19" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4079,13 +4106,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="F20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I20" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4093,10 +4120,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4115,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -4150,7 +4177,7 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J2" t="s">
         <v>218</v>
@@ -4161,16 +4188,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="G3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4181,7 +4208,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J4" t="s">
         <v>220</v>
@@ -4198,7 +4225,7 @@
         <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J5" t="s">
         <v>222</v>
@@ -4215,7 +4242,7 @@
         <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J6" t="s">
         <v>224</v>
@@ -4229,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J7" t="s">
         <v>226</v>
@@ -4249,7 +4276,7 @@
         <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J8" t="s">
         <v>228</v>
@@ -4266,13 +4293,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J9" t="s">
         <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4283,10 +4310,10 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J10" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="K10" t="s">
         <v>231</v>
@@ -4297,10 +4324,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J11" t="s">
         <v>232</v>
@@ -4317,13 +4344,13 @@
         <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J12" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="K12" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4334,13 +4361,13 @@
         <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J13" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="K13" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4348,10 +4375,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4362,7 +4389,7 @@
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4370,10 +4397,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4381,10 +4408,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4392,10 +4419,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4403,10 +4430,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4414,10 +4441,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="G20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4428,7 +4455,7 @@
         <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4444,21 +4471,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4471,205 +4502,285 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H2" t="s">
         <v>269</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H3" t="s">
+        <v>845</v>
+      </c>
+      <c r="I3" t="s">
         <v>271</v>
       </c>
-      <c r="K3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="J4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F4" t="s">
+        <v>701</v>
+      </c>
+      <c r="H4" t="s">
+        <v>846</v>
+      </c>
+      <c r="I4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F5" t="s">
+        <v>701</v>
+      </c>
+      <c r="H5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="J6" t="s">
-        <v>277</v>
-      </c>
-      <c r="K6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F6" t="s">
+        <v>701</v>
+      </c>
+      <c r="H6" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J7" t="s">
         <v>279</v>
       </c>
-      <c r="K7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>701</v>
+      </c>
+      <c r="H7" t="s">
+        <v>841</v>
+      </c>
+      <c r="I7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="F8" t="s">
+        <v>701</v>
+      </c>
+      <c r="H8" t="s">
+        <v>847</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" t="s">
+        <v>701</v>
+      </c>
+      <c r="H9" t="s">
+        <v>851</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="F11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F12" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="F13" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F14" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="F15" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+      <c r="F16" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>841</v>
+      </c>
+      <c r="F17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F18" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+      <c r="F19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+      <c r="F20" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="E21" t="s">
+        <v>840</v>
+      </c>
+      <c r="F21" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -4722,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4739,13 +4850,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K3" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4759,10 +4870,10 @@
         <v>208</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4773,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4790,13 +4901,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="J6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4813,7 +4924,7 @@
         <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4828,10 +4939,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K8" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4845,10 +4956,10 @@
         <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K9" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4859,13 +4970,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="J10" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4879,10 +4990,10 @@
         <v>216</v>
       </c>
       <c r="J11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K11" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4893,13 +5004,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4910,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="J13" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K13" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4931,10 +5042,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K14" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4948,10 +5059,10 @@
         <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4963,13 +5074,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="J16" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4980,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5002,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,7 +5182,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5085,13 +5196,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5102,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5119,13 +5230,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5136,13 +5247,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="K5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5153,13 +5264,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5170,13 +5281,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="J7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5190,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K8" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5204,13 +5315,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="J9" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K9" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5221,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5232,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5243,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5254,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5276,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5288,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5310,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5332,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5343,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5400,13 +5511,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="J2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5417,13 +5528,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="I3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="J3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5437,10 +5548,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="J4" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5451,13 +5562,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="I5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5471,10 +5582,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5485,13 +5596,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="I7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5505,10 +5616,10 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5516,7 +5627,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5525,7 +5636,7 @@
         <v>242</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5536,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5547,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5555,7 +5666,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5569,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5580,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5588,7 +5699,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5613,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,7 +5732,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5646,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,13 +5765,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,7 +5816,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5719,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5730,13 +5841,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5747,13 +5858,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K4" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5764,13 +5875,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5781,13 +5892,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5798,13 +5909,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="J7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5819,10 +5930,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K8" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5833,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5844,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5855,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5877,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5900,7 +6011,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5912,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5923,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5967,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6016,13 +6127,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6033,13 +6144,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6050,13 +6161,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="L4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6070,10 +6181,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6084,13 +6195,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="K6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6101,13 +6212,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6115,7 +6226,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6125,7 +6236,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6147,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6158,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6169,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6180,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6188,7 +6299,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6203,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6215,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6226,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6259,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,13 +6437,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6343,13 +6454,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="J3" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="K3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6360,13 +6471,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6377,13 +6488,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K5" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6394,13 +6505,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="J6" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="K6" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6411,13 +6522,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="K7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6432,10 +6543,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="K8" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6446,13 +6557,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="K9" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6463,13 +6574,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="K10" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6480,13 +6591,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="K11" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6497,13 +6608,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K12" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6514,13 +6625,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="K13" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6535,10 +6646,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6549,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6561,13 +6672,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="K16" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6578,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6589,7 +6700,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6618,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6681,7 +6792,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -6701,7 +6812,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -6721,7 +6832,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -6741,7 +6852,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -6761,13 +6872,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6781,7 +6892,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -6801,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6815,7 +6926,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -6835,7 +6946,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -6855,7 +6966,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6869,13 +6980,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6889,7 +7000,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6903,7 +7014,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6917,7 +7028,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -6931,7 +7042,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6945,13 +7056,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6965,7 +7076,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -6985,7 +7096,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -7005,7 +7116,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7019,13 +7130,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7072,10 +7183,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7089,13 +7200,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J2" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="K2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7106,13 +7217,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="J3" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7140,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7151,7 +7262,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7162,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7207,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7218,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7229,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7263,7 +7374,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7296,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7318,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7363,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7378,16 +7489,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7398,13 +7509,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="K3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7415,13 +7526,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7435,10 +7546,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7452,10 +7563,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7466,13 +7577,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="K7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7487,10 +7598,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7504,10 +7615,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7521,10 +7632,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7535,7 +7646,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7580,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7625,7 +7736,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7704,13 +7815,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="G2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7721,13 +7832,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7738,10 +7849,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7752,13 +7863,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7769,13 +7880,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7786,13 +7897,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7807,10 +7918,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H8" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7821,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7832,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7843,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7854,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7865,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7900,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7911,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7933,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,7 +8066,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8006,19 +8117,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="J2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8029,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="J3" t="s">
         <v>261</v>
@@ -8043,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8063,13 +8174,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="K5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8077,7 +8188,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8102,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8110,7 +8221,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8124,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8143,7 +8254,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8176,7 +8287,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8190,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,7 +8320,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8242,13 +8353,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8295,10 +8406,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8312,16 +8423,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8333,13 +8444,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="I3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8350,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H4" t="s">
         <v>250</v>
@@ -8367,13 +8478,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8387,10 +8498,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I6" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8401,13 +8512,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8422,10 +8533,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8439,10 +8550,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8453,13 +8564,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H10" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8481,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8492,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8530,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8552,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8574,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8585,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8633,19 +8744,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="J2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8656,13 +8767,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="J3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8673,13 +8784,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="J4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K4" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8690,13 +8801,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8707,13 +8818,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8724,13 +8835,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="J7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8738,17 +8849,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K8" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8759,13 +8870,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="J9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K9" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8776,13 +8887,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J10" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K10" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8793,13 +8904,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="J11" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K11" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8810,13 +8921,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J12" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K12" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8827,13 +8938,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K13" t="s">
         <v>444</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K13" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8841,17 +8952,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K14" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8862,13 +8973,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K15" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8880,13 +8991,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="K16" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -8897,13 +9008,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="K17" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8914,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -8925,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8936,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -8947,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9003,13 +9114,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="I2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9020,13 +9131,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="J3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9040,10 +9151,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="J4" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9054,13 +9165,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="I5" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="J5" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9074,10 +9185,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="J6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9088,13 +9199,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9105,13 +9216,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="I8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="J8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9119,7 +9230,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9133,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9152,7 +9263,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9177,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9185,7 +9296,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9218,7 +9329,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9232,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9251,13 +9362,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9863,13 +9974,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="J2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9894,10 +10005,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="J4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9905,13 +10016,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="J5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9919,13 +10030,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I6" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="J6" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9939,7 +10050,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9947,7 +10058,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9963,7 +10074,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9979,7 +10090,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -9995,7 +10106,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10003,7 +10114,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10012,7 +10123,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10020,7 +10131,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10033,7 +10144,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10041,7 +10152,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10095,7 +10206,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10106,7 +10217,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -10123,7 +10234,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -10140,7 +10251,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -10157,7 +10268,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -10174,7 +10285,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10191,7 +10302,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10208,13 +10319,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10225,7 +10336,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10242,13 +10353,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G10" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10259,7 +10370,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10270,7 +10381,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10281,7 +10392,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10289,10 +10400,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="F14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10303,7 +10414,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10314,7 +10425,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10325,7 +10436,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10344,7 +10455,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10355,7 +10466,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10363,10 +10474,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10876,13 +10987,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10898,7 +11009,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -10912,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -10920,7 +11031,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -10942,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10950,7 +11061,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -10977,7 +11088,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10991,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11007,7 +11118,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11029,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11037,7 +11148,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11064,13 +11175,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11116,7 +11227,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11130,13 +11241,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11147,16 +11258,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="F3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11170,7 +11281,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11190,13 +11301,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11210,7 +11321,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11230,13 +11341,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="H7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11250,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11270,7 +11381,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11287,10 +11398,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="F10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11327,13 +11438,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11347,13 +11458,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11367,10 +11478,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G14" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11387,7 +11498,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11407,13 +11518,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G16" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11424,10 +11535,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11452,7 +11563,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11466,7 +11577,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11477,10 +11588,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11526,7 +11637,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11537,10 +11648,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="G2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11551,7 +11662,7 @@
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11568,10 +11679,10 @@
         <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11583,10 +11694,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -11603,7 +11714,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -11620,7 +11731,7 @@
         <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I7" t="s">
         <v>250</v>
@@ -11634,10 +11745,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I8" t="s">
         <v>257</v>
@@ -11652,10 +11763,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I9" t="s">
         <v>254</v>
@@ -11669,16 +11780,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="G10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I10" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="J10" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11686,16 +11797,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I11" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="J11" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11703,16 +11814,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I12" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="J12" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11720,16 +11831,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="G13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I13" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="J13" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11737,13 +11848,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11751,10 +11862,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="G15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11762,10 +11873,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11773,10 +11884,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11784,10 +11895,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11796,10 +11907,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11807,7 +11918,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11815,10 +11926,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="G21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11875,13 +11986,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H2" t="s">
         <v>247</v>
@@ -11895,10 +12006,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G3" t="s">
         <v>248</v>
@@ -11915,16 +12026,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="H4" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11935,10 +12046,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="E5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G5" t="s">
         <v>250</v>
@@ -11955,16 +12066,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G6" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H6" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11975,16 +12086,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="E7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H7" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11999,13 +12110,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G8" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="H8" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12016,16 +12127,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="H9" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12036,16 +12147,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="E10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12056,16 +12167,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H11" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12076,16 +12187,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G12" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12096,16 +12207,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G13" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H13" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12120,13 +12231,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G14" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="H14" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12137,16 +12248,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="E15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G15" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="H15" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12158,16 +12269,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G16" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H16" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12178,16 +12289,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12198,16 +12309,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G18" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="H18" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12221,13 +12332,13 @@
         <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G19" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="H19" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12238,16 +12349,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G20" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="H20" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12258,16 +12369,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="E21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G21" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="H21" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12327,7 +12438,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12347,7 +12458,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12367,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12384,16 +12495,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="E5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="K5" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12408,13 +12519,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J6" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="K6" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12428,13 +12539,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J7" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="K7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12445,16 +12556,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="E8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="K8" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12469,13 +12580,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J9" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="K9" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12489,7 +12600,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12503,7 +12614,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12517,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12531,7 +12642,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12557,7 +12668,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12579,10 +12690,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="E17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12597,7 +12708,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12608,10 +12719,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12622,10 +12733,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12639,10 +12750,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12699,16 +12810,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12719,16 +12830,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12742,13 +12853,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J4" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="K4" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12759,16 +12870,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J5" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="K5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12783,13 +12894,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J6" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="K6" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12800,16 +12911,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J7" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="K7" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12820,16 +12931,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J8" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="K8" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12844,13 +12955,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="K9" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12861,16 +12972,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="K10" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12881,16 +12992,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="K11" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12904,13 +13015,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="K12" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12921,10 +13032,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12935,16 +13046,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="G14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J14" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="K14" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -12959,7 +13070,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12970,10 +13081,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12984,10 +13095,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G17" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13002,7 +13113,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13013,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="G19" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13027,10 +13138,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="G20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13044,10 +13155,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="G21" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13107,7 +13218,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -13127,7 +13238,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -13147,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -13167,7 +13278,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13188,13 +13299,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J6" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="K6" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13205,16 +13316,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13225,16 +13336,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J8" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="K8" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13249,13 +13360,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J9" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="K9" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13266,16 +13377,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="G10" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J10" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="K10" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13289,13 +13400,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J11" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="K11" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13309,13 +13420,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J12" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="K12" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13326,16 +13437,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="G13" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J13" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="K13" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13349,7 +13460,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13364,7 +13475,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13375,16 +13486,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G16" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="J16" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="K16" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13410,7 +13521,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13432,10 +13543,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="G20" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13449,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="14" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="863">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -929,9 +929,6 @@
     <t>Inner Force Blow</t>
   </si>
   <si>
-    <t>spend action points to deliver damaging attack</t>
-  </si>
-  <si>
     <t>spend action points to deliver ranged poisoning attack</t>
   </si>
   <si>
@@ -944,9 +941,6 @@
     <t>Taijutsu</t>
   </si>
   <si>
-    <t>gain Parry while fighting unarmed</t>
-  </si>
-  <si>
     <t>Snakespeed</t>
   </si>
   <si>
@@ -972,9 +966,6 @@
   </si>
   <si>
     <t>Shin-ren</t>
-  </si>
-  <si>
-    <t>Heart Training: resist psychic +30, resist energy +30</t>
   </si>
   <si>
     <t>Grandmaster</t>
@@ -990,9 +981,6 @@
     <t>Ninja Grandmaster</t>
   </si>
   <si>
-    <t>Ninja Initiate, Snipe, Backstab</t>
-  </si>
-  <si>
     <t>Ninja Master</t>
   </si>
   <si>
@@ -1536,9 +1524,6 @@
     <t>Catching a blow on the shield restores fatigue to paladin</t>
   </si>
   <si>
-    <t>Favoured Enemy: Outsider, ???</t>
-  </si>
-  <si>
     <t>Dual Wielder</t>
   </si>
   <si>
@@ -2317,12 +2302,6 @@
     <t>Ranged dart attack applies deadly poison and confusion</t>
   </si>
   <si>
-    <t>Killing Blow</t>
-  </si>
-  <si>
-    <t>Automatic backstab attack against foes that are KO or asleep</t>
-  </si>
-  <si>
     <t>No Survivors</t>
   </si>
   <si>
@@ -2636,6 +2615,51 @@
   </si>
   <si>
     <t>self-buff that adds to initiative, defence, and adds BLINK</t>
+  </si>
+  <si>
+    <t>Snipe 1, Backstab 1</t>
+  </si>
+  <si>
+    <t>Snipe 2, Backstab 2</t>
+  </si>
+  <si>
+    <t>Bribe +4, Snipe 3, Backstab 3</t>
+  </si>
+  <si>
+    <t>Heart Training: resist psychic +40, resist energy +40</t>
+  </si>
+  <si>
+    <t>spend action points to deliver damaging melee attack</t>
+  </si>
+  <si>
+    <t>gain Parry 12% while fighting unarmed</t>
+  </si>
+  <si>
+    <t>2 spellpicks</t>
+  </si>
+  <si>
+    <t>Kotodama Kata</t>
+  </si>
+  <si>
+    <t>Holy Champion</t>
+  </si>
+  <si>
+    <t>Bonus damage resistance</t>
+  </si>
+  <si>
+    <t>Consecrate</t>
+  </si>
+  <si>
+    <t>All enemy groups AOE depending on white magic present, also enchants tile</t>
+  </si>
+  <si>
+    <t>Favoured Enemy: Outsider, Holy Champion, Lead the Charge</t>
+  </si>
+  <si>
+    <t>Lead the Charge</t>
+  </si>
+  <si>
+    <t>Protect all allies</t>
   </si>
 </sst>
 </file>
@@ -3031,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3054,7 +3078,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3074,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3094,7 +3118,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3114,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3134,7 +3158,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3154,7 +3178,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3174,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3191,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3231,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3251,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3271,13 +3295,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3291,13 +3315,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H15" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="I15" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3322,7 +3346,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3336,7 +3360,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3350,7 +3374,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3364,7 +3388,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,7 +3447,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3440,7 +3464,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3474,16 +3498,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3497,10 +3521,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="J5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,10 +3538,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="J6" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3528,16 +3552,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="J7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3552,13 +3576,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="J8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3569,16 +3593,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I9" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="J9" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3589,19 +3613,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I10" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="J10" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3612,16 +3636,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I11" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="J11" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3632,10 +3656,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,10 +3670,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="G13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3664,7 +3688,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3675,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3689,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3703,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3717,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3731,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="G19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3759,13 +3783,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="E21" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3813,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3824,7 +3848,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3841,7 +3865,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3855,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3872,13 +3896,13 @@
         <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H5" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3886,19 +3910,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3906,16 +3930,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,16 +3947,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I8" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3940,16 +3964,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H9" t="s">
         <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3957,19 +3981,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H10" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="I10" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3977,16 +4001,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H11" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="I11" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3997,13 +4021,13 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H12" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="I12" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4011,10 +4035,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4022,16 +4046,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F14" t="s">
+        <v>696</v>
+      </c>
+      <c r="H14" t="s">
         <v>806</v>
       </c>
-      <c r="F14" t="s">
-        <v>701</v>
-      </c>
-      <c r="H14" t="s">
-        <v>813</v>
-      </c>
       <c r="I14" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4039,13 +4063,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I15" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,13 +4077,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I16" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4070,7 +4094,7 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4078,13 +4102,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="H18" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="I18" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4092,13 +4116,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I19" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4106,13 +4130,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4120,10 +4144,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,7 +4201,7 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J2" t="s">
         <v>218</v>
@@ -4188,16 +4212,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4208,7 +4232,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>220</v>
@@ -4225,7 +4249,7 @@
         <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J5" t="s">
         <v>222</v>
@@ -4242,7 +4266,7 @@
         <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J6" t="s">
         <v>224</v>
@@ -4256,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
         <v>226</v>
@@ -4276,7 +4300,7 @@
         <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J8" t="s">
         <v>228</v>
@@ -4293,13 +4317,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J9" t="s">
         <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4310,10 +4334,10 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J10" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="K10" t="s">
         <v>231</v>
@@ -4324,10 +4348,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J11" t="s">
         <v>232</v>
@@ -4344,13 +4368,13 @@
         <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="K12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4361,13 +4385,13 @@
         <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J13" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="K13" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4375,10 +4399,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="G14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4389,7 +4413,7 @@
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4397,10 +4421,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4408,10 +4432,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="G17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4419,10 +4443,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4430,10 +4454,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="G19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4441,10 +4465,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4455,7 +4479,7 @@
         <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,7 +4497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4503,7 +4527,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4511,10 +4535,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H2" t="s">
         <v>269</v>
@@ -4531,10 +4555,10 @@
         <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H3" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="I3" t="s">
         <v>271</v>
@@ -4548,13 +4572,13 @@
         <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H4" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="I4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4562,10 +4586,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H5" t="s">
         <v>273</v>
@@ -4582,7 +4606,7 @@
         <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H6" t="s">
         <v>274</v>
@@ -4599,13 +4623,13 @@
         <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="I7" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,16 +4637,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H8" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4634,13 +4658,13 @@
         <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H9" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4651,7 +4675,7 @@
         <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,7 +4686,7 @@
         <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4673,7 +4697,7 @@
         <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4684,7 +4708,7 @@
         <v>281</v>
       </c>
       <c r="F13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4693,10 +4717,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4704,10 +4728,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4716,10 +4740,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4727,10 +4751,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4741,7 +4765,7 @@
         <v>284</v>
       </c>
       <c r="F18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,10 +4773,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4760,10 +4784,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4771,13 +4795,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E21" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4796,8 +4820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4805,6 +4829,7 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4833,13 +4858,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>848</v>
+      </c>
+      <c r="H2" t="s">
+        <v>696</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4852,11 +4883,14 @@
       <c r="D3" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="H3" t="s">
+        <v>696</v>
+      </c>
       <c r="J3" t="s">
         <v>285</v>
       </c>
       <c r="K3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4866,8 +4900,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>208</v>
+      </c>
+      <c r="H4" t="s">
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>286</v>
@@ -4886,11 +4923,14 @@
       <c r="D5" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="H5" t="s">
+        <v>696</v>
+      </c>
       <c r="J5" t="s">
         <v>288</v>
       </c>
       <c r="K5" t="s">
-        <v>289</v>
+        <v>852</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4901,13 +4941,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="H6" t="s">
+        <v>696</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4917,14 +4960,17 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
+      <c r="E7" t="s">
+        <v>832</v>
+      </c>
+      <c r="H7" t="s">
+        <v>696</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4938,11 +4984,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H8" t="s">
+        <v>696</v>
+      </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K8" t="s">
-        <v>294</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4955,11 +5007,14 @@
       <c r="D9" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="H9" t="s">
+        <v>696</v>
+      </c>
       <c r="J9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4970,13 +5025,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="H10" t="s">
+        <v>696</v>
       </c>
       <c r="J10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4987,13 +5045,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>216</v>
+        <v>306</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H11" t="s">
+        <v>696</v>
       </c>
       <c r="J11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5004,13 +5068,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="H12" t="s">
+        <v>696</v>
       </c>
       <c r="J12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5021,13 +5088,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
+      </c>
+      <c r="H13" t="s">
+        <v>696</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K13" t="s">
-        <v>304</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5041,11 +5111,14 @@
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
+      <c r="H14" t="s">
+        <v>696</v>
+      </c>
       <c r="J14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5055,14 +5128,17 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>125</v>
+      <c r="E15" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="H15" t="s">
+        <v>696</v>
       </c>
       <c r="J15" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5073,17 +5149,20 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>748</v>
+      <c r="D16" t="s">
+        <v>855</v>
+      </c>
+      <c r="H16" t="s">
+        <v>696</v>
       </c>
       <c r="J16" t="s">
-        <v>748</v>
+        <v>855</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5091,10 +5170,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="H17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5102,10 +5184,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="H18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5115,8 +5200,11 @@
       <c r="D19" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5124,10 +5212,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="H20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5135,10 +5226,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="H21" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5156,15 +5250,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5182,7 +5276,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5196,13 +5290,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
+      </c>
+      <c r="F2" t="s">
+        <v>696</v>
       </c>
       <c r="J2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5213,13 +5310,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
+      </c>
+      <c r="F3" t="s">
+        <v>696</v>
       </c>
       <c r="J3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5230,13 +5330,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5247,13 +5347,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5264,13 +5364,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>696</v>
       </c>
       <c r="J6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5281,13 +5384,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
+      </c>
+      <c r="F7" t="s">
+        <v>696</v>
       </c>
       <c r="J7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5300,11 +5406,14 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="F8" t="s">
+        <v>696</v>
+      </c>
       <c r="J8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K8" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5315,13 +5424,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5332,7 +5441,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="J10" t="s">
+        <v>856</v>
+      </c>
+      <c r="K10" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5343,7 +5458,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="J11" t="s">
+        <v>858</v>
+      </c>
+      <c r="K11" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5354,7 +5475,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
+      </c>
+      <c r="F12" t="s">
+        <v>696</v>
+      </c>
+      <c r="J12" t="s">
+        <v>861</v>
+      </c>
+      <c r="K12" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5365,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5378,6 +5508,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="F14" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5387,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5399,10 +5532,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="F16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5410,10 +5546,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5421,10 +5557,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5432,10 +5568,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5443,10 +5579,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="F20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5454,10 +5593,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5511,13 +5650,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5528,13 +5667,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="I3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5548,10 +5687,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5562,13 +5701,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5582,10 +5721,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5596,13 +5735,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5616,10 +5755,10 @@
         <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5627,7 +5766,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5636,7 +5775,7 @@
         <v>242</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5647,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5658,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5666,7 +5805,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5680,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5691,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5699,7 +5838,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5724,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5732,7 +5871,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5757,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5765,13 +5904,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,7 +5955,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5830,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5841,13 +5980,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" t="s">
         <v>345</v>
-      </c>
-      <c r="J3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5858,13 +5997,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5875,13 +6014,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5892,13 +6031,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5909,13 +6048,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="J7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5930,10 +6069,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5944,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5955,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5966,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5988,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6011,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6023,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6034,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6067,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6078,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6127,13 +6266,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6144,13 +6283,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6164,10 +6303,10 @@
         <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6181,10 +6320,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6195,13 +6334,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="K6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="K6" t="s">
-        <v>363</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6212,13 +6351,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6226,7 +6365,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6236,7 +6375,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6258,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6269,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6280,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6299,7 +6438,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6314,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6326,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6370,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6381,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,13 +6576,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6454,13 +6593,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6471,13 +6610,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J4" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6488,13 +6627,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K5" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6505,13 +6644,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="J6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="K6" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6522,13 +6661,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="K7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6543,10 +6682,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="K8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6557,13 +6696,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="K9" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6574,13 +6713,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K10" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6591,13 +6730,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>693</v>
-      </c>
       <c r="K11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6608,13 +6747,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="K12" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6625,13 +6764,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="K13" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6646,10 +6785,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6660,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6672,13 +6811,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="K16" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6689,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,7 +6839,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6729,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6792,7 +6931,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -6812,7 +6951,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -6832,7 +6971,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -6852,7 +6991,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -6872,13 +7011,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6892,7 +7031,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -6912,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6926,7 +7065,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -6946,7 +7085,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -6966,7 +7105,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -6980,13 +7119,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7000,7 +7139,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7014,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7028,7 +7167,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7042,7 +7181,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7056,13 +7195,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7076,7 +7215,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -7096,7 +7235,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -7116,7 +7255,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7130,13 +7269,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7183,10 +7322,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7200,13 +7339,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="K2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7217,13 +7356,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7251,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7262,7 +7401,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7273,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7318,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7329,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7340,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7374,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7407,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7429,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7474,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7489,16 +7628,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7509,13 +7648,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="K3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7526,13 +7665,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7546,10 +7685,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7563,10 +7702,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7577,13 +7716,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="K7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7598,10 +7737,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7615,10 +7754,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7632,10 +7771,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7646,7 +7785,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7691,7 +7830,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7736,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7758,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7815,13 +7954,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7832,13 +7971,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7849,10 +7988,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7863,13 +8002,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G5" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7883,10 +8022,10 @@
         <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,13 +8036,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7918,10 +8057,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7932,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7943,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7965,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7976,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8011,7 +8150,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8022,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8044,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8066,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8117,19 +8256,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8140,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J3" t="s">
         <v>261</v>
@@ -8154,7 +8293,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8174,13 +8313,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8188,7 +8327,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8213,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8221,7 +8360,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8235,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8254,7 +8393,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8287,7 +8426,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8301,7 +8440,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8320,7 +8459,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8353,13 +8492,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8406,10 +8545,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8423,16 +8562,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8444,13 +8583,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8461,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H4" t="s">
         <v>250</v>
@@ -8478,13 +8617,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8498,10 +8637,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I6" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8512,13 +8651,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8533,10 +8672,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8550,10 +8689,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8564,13 +8703,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H10" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8592,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8603,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8641,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8663,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8685,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8696,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,19 +8883,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8767,13 +8906,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8784,13 +8923,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" t="s">
         <v>422</v>
-      </c>
-      <c r="J4" t="s">
-        <v>425</v>
-      </c>
-      <c r="K4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8801,13 +8940,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" t="s">
+        <v>423</v>
+      </c>
+      <c r="K5" t="s">
         <v>424</v>
-      </c>
-      <c r="J5" t="s">
-        <v>427</v>
-      </c>
-      <c r="K5" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8818,13 +8957,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J6" t="s">
         <v>425</v>
       </c>
-      <c r="J6" t="s">
-        <v>429</v>
-      </c>
       <c r="K6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8835,13 +8974,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J7" t="s">
         <v>427</v>
       </c>
-      <c r="J7" t="s">
-        <v>431</v>
-      </c>
       <c r="K7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8849,17 +8988,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8870,13 +9009,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J9" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8887,13 +9026,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K10" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8904,13 +9043,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8921,13 +9060,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8938,13 +9077,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8952,17 +9091,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8973,13 +9112,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="K15" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8991,13 +9130,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K16" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9008,13 +9147,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="K17" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9025,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9036,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9047,7 +9186,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9058,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9114,13 +9253,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9131,13 +9270,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="I3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9151,10 +9290,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J4" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9165,13 +9304,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="I5" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="J5" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9185,10 +9324,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="J6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9199,13 +9338,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9216,13 +9355,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="I8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="J8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9230,7 +9369,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9244,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9263,7 +9402,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9288,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9296,7 +9435,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9329,7 +9468,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9343,7 +9482,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9362,13 +9501,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9974,13 +10113,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10005,10 +10144,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10016,13 +10155,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10030,13 +10169,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10050,7 +10189,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10058,7 +10197,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10074,7 +10213,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10090,7 +10229,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10106,7 +10245,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10114,7 +10253,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10123,7 +10262,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10131,7 +10270,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10144,7 +10283,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10152,7 +10291,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10206,7 +10345,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10217,7 +10356,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -10234,7 +10373,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -10251,7 +10390,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -10268,7 +10407,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -10285,7 +10424,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10302,7 +10441,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10319,13 +10458,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10336,7 +10475,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10353,13 +10492,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G10" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10370,7 +10509,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10381,7 +10520,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10392,7 +10531,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10400,10 +10539,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10414,7 +10553,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10425,7 +10564,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10436,7 +10575,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10455,7 +10594,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10466,7 +10605,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10474,10 +10613,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10987,13 +11126,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11009,7 +11148,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11023,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11031,7 +11170,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11053,7 +11192,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11061,7 +11200,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11088,7 +11227,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11102,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11118,7 +11257,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11140,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11148,7 +11287,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11175,13 +11314,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11227,7 +11366,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11241,13 +11380,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11258,16 +11397,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11281,7 +11420,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11301,13 +11440,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11321,7 +11460,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11341,13 +11480,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11361,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11381,7 +11520,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11398,10 +11537,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11438,13 +11577,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11458,13 +11597,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11478,10 +11617,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G14" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11498,7 +11637,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11518,13 +11657,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G16" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11535,10 +11674,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11563,7 +11702,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11577,7 +11716,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11588,10 +11727,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11637,7 +11776,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11648,10 +11787,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11662,7 +11801,7 @@
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11679,10 +11818,10 @@
         <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I4" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11694,10 +11833,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -11714,7 +11853,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -11731,7 +11870,7 @@
         <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I7" t="s">
         <v>250</v>
@@ -11745,10 +11884,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I8" t="s">
         <v>257</v>
@@ -11763,10 +11902,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I9" t="s">
         <v>254</v>
@@ -11780,16 +11919,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I10" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J10" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11797,16 +11936,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I11" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="J11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11814,16 +11953,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I12" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J12" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11831,16 +11970,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="I13" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="J13" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11851,10 +11990,10 @@
         <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11862,10 +12001,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11873,10 +12012,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11884,10 +12023,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11895,10 +12034,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11907,10 +12046,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -11918,7 +12057,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11926,10 +12065,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11986,13 +12125,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H2" t="s">
         <v>247</v>
@@ -12006,10 +12145,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G3" t="s">
         <v>248</v>
@@ -12026,16 +12165,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12046,10 +12185,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G5" t="s">
         <v>250</v>
@@ -12066,16 +12205,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12086,16 +12225,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12110,13 +12249,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G8" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="H8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12127,16 +12266,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G9" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H9" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12147,16 +12286,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12167,16 +12306,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H11" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12187,16 +12326,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12207,16 +12346,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12231,13 +12370,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G14" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H14" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12248,16 +12387,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G15" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="H15" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12269,16 +12408,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H16" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12289,16 +12428,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12309,16 +12448,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H18" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12332,13 +12471,13 @@
         <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G19" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="H19" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12349,16 +12488,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G20" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H20" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12369,16 +12508,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="E21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G21" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="H21" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12438,7 +12577,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12458,7 +12597,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12478,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12495,16 +12634,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J5" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="K5" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12519,13 +12658,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J6" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="K6" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12539,13 +12678,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="K7" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12556,16 +12695,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="E8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J8" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="K8" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12580,13 +12719,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J9" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="K9" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12600,7 +12739,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12614,7 +12753,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12628,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12642,7 +12781,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12668,7 +12807,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12690,10 +12829,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12708,7 +12847,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12719,10 +12858,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12733,10 +12872,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12750,10 +12889,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="E21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12810,16 +12949,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12830,16 +12969,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -12853,13 +12992,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -12870,16 +13009,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J5" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="K5" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12894,13 +13033,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J6" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="K6" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12911,16 +13050,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="K7" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12931,16 +13070,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J8" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="K8" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12955,13 +13094,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="K9" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12972,16 +13111,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="K10" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12992,16 +13131,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="K11" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13015,13 +13154,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="K12" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13032,10 +13171,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13046,16 +13185,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J14" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="K14" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13070,7 +13209,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13081,10 +13220,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13095,10 +13234,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="G17" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13113,7 +13252,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13124,10 +13263,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13138,10 +13277,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13155,10 +13294,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G21" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13218,7 +13357,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -13238,7 +13377,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -13258,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -13278,7 +13417,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13299,13 +13438,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J6" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="K6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13316,16 +13455,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="G7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13336,16 +13475,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="K8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13360,13 +13499,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J9" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="K9" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13377,16 +13516,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G10" t="s">
+        <v>696</v>
+      </c>
+      <c r="J10" t="s">
         <v>778</v>
       </c>
-      <c r="G10" t="s">
-        <v>701</v>
-      </c>
-      <c r="J10" t="s">
-        <v>785</v>
-      </c>
       <c r="K10" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13400,13 +13539,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J11" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="K11" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13420,13 +13559,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J12" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="K12" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13437,16 +13576,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J13" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="K13" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13460,7 +13599,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13475,7 +13614,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13486,16 +13625,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G16" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J16" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="K16" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13521,7 +13660,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13543,10 +13682,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13560,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="863">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -5251,7 +5251,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,6 +5259,7 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5332,6 +5333,9 @@
       <c r="D4" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="F4" t="s">
+        <v>696</v>
+      </c>
       <c r="J4" t="s">
         <v>315</v>
       </c>
@@ -5349,6 +5353,9 @@
       <c r="D5" s="3" t="s">
         <v>545</v>
       </c>
+      <c r="F5" t="s">
+        <v>696</v>
+      </c>
       <c r="J5" t="s">
         <v>318</v>
       </c>
@@ -5426,6 +5433,9 @@
       <c r="D9" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="F9" t="s">
+        <v>696</v>
+      </c>
       <c r="J9" t="s">
         <v>545</v>
       </c>
@@ -5497,6 +5507,9 @@
       <c r="D13" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="F13" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5547,6 +5560,9 @@
       </c>
       <c r="D17" s="3" t="s">
         <v>327</v>
+      </c>
+      <c r="F17" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="877">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -1027,16 +1027,7 @@
     <t>cause another character to execute an attack, X strikes, bonus to attack</t>
   </si>
   <si>
-    <t>Melee Command X</t>
-  </si>
-  <si>
-    <t>Melee Command 3</t>
-  </si>
-  <si>
     <t>Favoured Enemy: Undead</t>
-  </si>
-  <si>
-    <t>Melee Command 5</t>
   </si>
   <si>
     <t xml:space="preserve">Shield Bash 20%
@@ -1078,9 +1069,6 @@
     <t>can go last in a combat round</t>
   </si>
   <si>
-    <t>Martyr</t>
-  </si>
-  <si>
     <t xml:space="preserve">heal and resurrect all party members. Priest is removed from party (and guild?) and cannot be resurrected.
 </t>
   </si>
@@ -2644,22 +2632,76 @@
     <t>Holy Champion</t>
   </si>
   <si>
-    <t>Bonus damage resistance</t>
-  </si>
-  <si>
     <t>Consecrate</t>
   </si>
   <si>
     <t>All enemy groups AOE depending on white magic present, also enchants tile</t>
   </si>
   <si>
-    <t>Favoured Enemy: Outsider, Holy Champion, Lead the Charge</t>
-  </si>
-  <si>
     <t>Lead the Charge</t>
   </si>
   <si>
     <t>Protect all allies</t>
+  </si>
+  <si>
+    <t>Combat Command 3</t>
+  </si>
+  <si>
+    <t>Combat Command X</t>
+  </si>
+  <si>
+    <t>Combat Command 5</t>
+  </si>
+  <si>
+    <t>TODO: add WILD MAGIC abilities</t>
+  </si>
+  <si>
+    <t>Shield Block 1</t>
+  </si>
+  <si>
+    <t>Holy Champion, Lead the Charge, Shield Block 2</t>
+  </si>
+  <si>
+    <t>Bonus damage resistance, Favoured Enemy: Outsider</t>
+  </si>
+  <si>
+    <t>The Priest can remove cursed items from party members</t>
+  </si>
+  <si>
+    <t>At the end of each turn the Priest has a chance to remove afflictions</t>
+  </si>
+  <si>
+    <t>Shed Blights 1</t>
+  </si>
+  <si>
+    <t>Pray for Miracle, Shed Blights 2</t>
+  </si>
+  <si>
+    <t>Shed Blights 2</t>
+  </si>
+  <si>
+    <t>bigger chance to remove afflictions</t>
+  </si>
+  <si>
+    <t>Shed Blights 3</t>
+  </si>
+  <si>
+    <t>Afflictions and other debuffs</t>
+  </si>
+  <si>
+    <t>Shed Blights 4</t>
+  </si>
+  <si>
+    <t>bigger chance to remove</t>
+  </si>
+  <si>
+    <t>Martyr, Shed Blights 4</t>
+  </si>
+  <si>
+    <t>Sanctify, Shed Blights 1</t>
+  </si>
+  <si>
+    <t>Sanctify</t>
   </si>
 </sst>
 </file>
@@ -3055,10 +3097,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3078,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3098,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3118,7 +3160,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3138,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3158,7 +3200,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3178,7 +3220,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3198,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3215,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3255,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3275,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3295,13 +3337,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3315,13 +3357,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H15" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="I15" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3346,7 +3388,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3360,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3374,7 +3416,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3388,7 +3430,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,7 +3489,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3464,7 +3506,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3498,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3521,10 +3563,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3538,10 +3580,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J6" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3552,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="J7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3576,13 +3618,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I8" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="J8" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3593,16 +3635,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I9" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="J9" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3613,19 +3655,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="J10" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3636,16 +3678,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I11" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="J11" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3656,10 +3698,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3670,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3688,7 +3730,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3699,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="G15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3713,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3727,10 +3769,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3741,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,10 +3811,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3783,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E21" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="G21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,7 +3879,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3848,7 +3890,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3865,7 +3907,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3879,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3896,13 +3938,13 @@
         <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3910,19 +3952,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,16 +3972,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H7" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="I7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3947,16 +3989,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I8" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3964,16 +4006,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H9" t="s">
         <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3981,19 +4023,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I10" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4001,16 +4043,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H11" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="I11" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4021,13 +4063,13 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H12" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="I12" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4035,10 +4077,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,16 +4088,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H14" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="I14" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,13 +4105,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4077,13 +4119,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I16" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4094,7 +4136,7 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4102,13 +4144,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="H18" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I18" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4116,13 +4158,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I19" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4130,13 +4172,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I20" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,10 +4186,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4201,7 +4243,7 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J2" t="s">
         <v>218</v>
@@ -4212,16 +4254,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4232,7 +4274,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
         <v>220</v>
@@ -4249,7 +4291,7 @@
         <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
         <v>222</v>
@@ -4266,7 +4308,7 @@
         <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J6" t="s">
         <v>224</v>
@@ -4280,10 +4322,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
         <v>226</v>
@@ -4300,7 +4342,7 @@
         <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J8" t="s">
         <v>228</v>
@@ -4317,13 +4359,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" t="s">
         <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4334,10 +4376,10 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J10" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="K10" t="s">
         <v>231</v>
@@ -4348,10 +4390,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J11" t="s">
         <v>232</v>
@@ -4368,13 +4410,13 @@
         <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K12" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4385,13 +4427,13 @@
         <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J13" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="K13" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4399,10 +4441,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4413,7 +4455,7 @@
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4421,10 +4463,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4432,10 +4474,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4443,10 +4485,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4454,10 +4496,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4465,10 +4507,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,7 +4521,7 @@
         <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4535,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H2" t="s">
         <v>269</v>
@@ -4555,10 +4597,10 @@
         <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H3" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="I3" t="s">
         <v>271</v>
@@ -4572,13 +4614,13 @@
         <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="I4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4586,10 +4628,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H5" t="s">
         <v>273</v>
@@ -4606,7 +4648,7 @@
         <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H6" t="s">
         <v>274</v>
@@ -4623,13 +4665,13 @@
         <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H7" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="I7" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4637,16 +4679,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H8" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4658,13 +4700,13 @@
         <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H9" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4675,7 +4717,7 @@
         <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4686,7 +4728,7 @@
         <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4697,7 +4739,7 @@
         <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4708,7 +4750,7 @@
         <v>281</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4717,10 +4759,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4728,10 +4770,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4740,10 +4782,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4751,10 +4793,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,7 +4807,7 @@
         <v>284</v>
       </c>
       <c r="F18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4773,10 +4815,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="F19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4784,10 +4826,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4795,13 +4837,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E21" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4861,10 +4903,10 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J2" t="s">
         <v>303</v>
@@ -4884,13 +4926,13 @@
         <v>285</v>
       </c>
       <c r="H3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J3" t="s">
         <v>285</v>
       </c>
       <c r="K3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4904,7 +4946,7 @@
         <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
         <v>286</v>
@@ -4924,13 +4966,13 @@
         <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
         <v>288</v>
       </c>
       <c r="K5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4944,7 +4986,7 @@
         <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J6" t="s">
         <v>290</v>
@@ -4961,10 +5003,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="H7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -4985,16 +5027,16 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J8" t="s">
         <v>292</v>
       </c>
       <c r="K8" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5008,7 +5050,7 @@
         <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" t="s">
         <v>293</v>
@@ -5028,7 +5070,7 @@
         <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J10" t="s">
         <v>295</v>
@@ -5048,10 +5090,10 @@
         <v>306</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="H11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J11" t="s">
         <v>297</v>
@@ -5071,7 +5113,7 @@
         <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J12" t="s">
         <v>299</v>
@@ -5091,13 +5133,13 @@
         <v>295</v>
       </c>
       <c r="H13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J13" t="s">
         <v>301</v>
       </c>
       <c r="K13" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5112,7 +5154,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="H14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J14" t="s">
         <v>302</v>
@@ -5129,10 +5171,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J15" t="s">
         <v>306</v>
@@ -5150,16 +5192,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="H16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J16" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5173,7 +5215,7 @@
         <v>297</v>
       </c>
       <c r="H17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5187,7 +5229,7 @@
         <v>299</v>
       </c>
       <c r="H18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5201,7 +5243,7 @@
         <v>286</v>
       </c>
       <c r="H19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,7 +5257,7 @@
         <v>301</v>
       </c>
       <c r="H20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5229,7 +5271,7 @@
         <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5250,8 +5292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,7 +5302,7 @@
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5277,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5294,7 +5336,7 @@
         <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J2" t="s">
         <v>311</v>
@@ -5311,10 +5353,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J3" t="s">
         <v>313</v>
@@ -5334,7 +5376,7 @@
         <v>317</v>
       </c>
       <c r="F4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
         <v>315</v>
@@ -5351,10 +5393,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
         <v>318</v>
@@ -5374,10 +5416,10 @@
         <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>858</v>
       </c>
       <c r="K6" t="s">
         <v>320</v>
@@ -5391,16 +5433,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5414,13 +5456,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K8" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5431,16 +5473,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5451,13 +5493,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>322</v>
+        <v>857</v>
+      </c>
+      <c r="F10" t="s">
+        <v>692</v>
       </c>
       <c r="J10" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="K10" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5468,13 +5513,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="F11" t="s">
+        <v>692</v>
       </c>
       <c r="J11" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="K11" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5485,16 +5533,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J12" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="K12" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5505,10 +5553,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5522,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5533,7 +5581,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>482</v>
+        <v>861</v>
+      </c>
+      <c r="F15" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5545,10 +5596,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5559,10 +5610,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5573,7 +5624,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>324</v>
+        <v>859</v>
+      </c>
+      <c r="F18" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,7 +5638,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>858</v>
+        <v>853</v>
+      </c>
+      <c r="F19" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5595,21 +5652,24 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>860</v>
+      <c r="D21" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="F21" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5627,20 +5687,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5653,9 +5714,8 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5666,16 +5726,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>574</v>
+      </c>
+      <c r="E2" t="s">
+        <v>692</v>
+      </c>
+      <c r="H2" t="s">
+        <v>330</v>
       </c>
       <c r="I2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5683,16 +5746,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>627</v>
+      </c>
+      <c r="E3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H3" t="s">
+        <v>628</v>
       </c>
       <c r="I3" t="s">
-        <v>632</v>
-      </c>
-      <c r="J3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5702,14 +5768,17 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H4" t="s">
+        <v>635</v>
+      </c>
       <c r="I4" t="s">
-        <v>639</v>
-      </c>
-      <c r="J4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5717,16 +5786,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>635</v>
+      </c>
+      <c r="E5" t="s">
+        <v>692</v>
+      </c>
+      <c r="H5" t="s">
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5736,14 +5808,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>339</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>692</v>
+      </c>
+      <c r="H6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5751,16 +5826,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>634</v>
-      </c>
-      <c r="I7" t="s">
-        <v>576</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="E7" t="s">
+        <v>692</v>
+      </c>
+      <c r="H7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5768,33 +5846,36 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>579</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+      <c r="H8" t="s">
+        <v>575</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="E9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H9" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5802,10 +5883,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="H10" t="s">
+        <v>876</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5813,21 +5900,39 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="E11" t="s">
+        <v>692</v>
+      </c>
+      <c r="H11" t="s">
+        <v>866</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>692</v>
+      </c>
+      <c r="H12" t="s">
+        <v>868</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5835,10 +5940,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="H13" t="s">
+        <v>870</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5846,21 +5957,33 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="E14" t="s">
+        <v>692</v>
+      </c>
+      <c r="H14" t="s">
+        <v>872</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5870,8 +5993,11 @@
       <c r="D16" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5879,21 +6005,27 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="E17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5901,10 +6033,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5912,24 +6044,27 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="E20" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -5971,7 +6106,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5985,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5996,13 +6131,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K3" t="s">
         <v>341</v>
-      </c>
-      <c r="J3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6013,13 +6148,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6030,13 +6165,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
         <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6047,13 +6182,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6064,13 +6199,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6085,10 +6220,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6099,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6110,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6121,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6143,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6166,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6178,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6189,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6222,7 +6357,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6233,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6282,13 +6417,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6299,13 +6434,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6322,7 +6457,7 @@
         <v>315</v>
       </c>
       <c r="L4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -6336,10 +6471,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6350,13 +6485,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="K6" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -6367,13 +6502,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -6381,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6391,7 +6526,7 @@
         <v>53</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6413,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6424,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6435,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6454,7 +6589,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6469,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6481,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6492,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6536,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6592,13 +6727,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6609,13 +6744,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6626,13 +6761,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6643,13 +6778,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="J5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6660,13 +6795,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6677,13 +6812,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K7" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6698,10 +6833,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K8" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6712,13 +6847,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K9" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6729,13 +6864,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="K10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6746,13 +6881,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="K11" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6763,13 +6898,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6780,13 +6915,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K13" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6801,10 +6936,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6815,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6827,13 +6962,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="K16" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6884,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,7 +7082,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -6967,7 +7102,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -6987,7 +7122,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -7007,7 +7142,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -7027,13 +7162,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7047,7 +7182,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -7067,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7081,7 +7216,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -7101,7 +7236,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -7121,7 +7256,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7135,13 +7270,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7155,7 +7290,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7169,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7183,7 +7318,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7197,7 +7332,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7211,13 +7346,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7231,7 +7366,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -7251,7 +7386,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -7271,7 +7406,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7285,13 +7420,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7338,10 +7473,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7355,13 +7490,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7372,13 +7507,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J3" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7406,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7417,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7428,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7473,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7484,7 +7619,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7495,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7562,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,7 +7719,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7629,7 +7764,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -7644,16 +7779,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E2" t="s">
         <v>310</v>
       </c>
       <c r="K2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7664,13 +7799,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7681,13 +7816,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7701,10 +7836,10 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7718,10 +7853,10 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7732,13 +7867,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7753,10 +7888,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7770,10 +7905,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7787,10 +7922,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7801,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7846,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7891,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7913,7 +8048,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7970,13 +8105,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7987,13 +8122,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8004,10 +8139,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8018,13 +8153,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8038,10 +8173,10 @@
         <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H6" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8052,13 +8187,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8073,10 +8208,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8087,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8098,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8120,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8131,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8166,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8177,7 +8312,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8199,7 +8334,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8272,19 +8407,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8295,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J3" t="s">
         <v>261</v>
@@ -8309,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8329,13 +8464,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8343,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8368,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8376,7 +8511,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8390,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8409,7 +8544,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8442,7 +8577,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8456,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8475,7 +8610,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8508,13 +8643,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8535,7 +8670,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8561,10 +8696,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8578,16 +8713,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E2" t="s">
         <v>310</v>
       </c>
       <c r="H2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8599,13 +8734,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8616,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H4" t="s">
         <v>250</v>
@@ -8633,13 +8768,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8653,10 +8788,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8667,13 +8802,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8688,10 +8823,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8705,10 +8840,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8719,13 +8854,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8747,7 +8882,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
+      </c>
+      <c r="H12" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8758,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8796,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8818,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8840,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8899,19 +9037,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8922,13 +9060,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8939,13 +9077,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" t="s">
         <v>418</v>
-      </c>
-      <c r="J4" t="s">
-        <v>421</v>
-      </c>
-      <c r="K4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8956,13 +9094,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K5" t="s">
         <v>420</v>
-      </c>
-      <c r="J5" t="s">
-        <v>423</v>
-      </c>
-      <c r="K5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8973,13 +9111,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" t="s">
         <v>421</v>
       </c>
-      <c r="J6" t="s">
-        <v>425</v>
-      </c>
       <c r="K6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8990,13 +9128,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" t="s">
         <v>423</v>
       </c>
-      <c r="J7" t="s">
-        <v>427</v>
-      </c>
       <c r="K7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9004,17 +9142,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9025,13 +9163,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K9" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9042,13 +9180,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J10" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K10" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9059,13 +9197,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9076,13 +9214,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9093,13 +9231,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="K13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9107,17 +9245,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K14" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9128,13 +9266,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K15" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9146,13 +9284,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="K16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9163,13 +9301,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K17" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9180,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9191,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9202,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9213,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9269,13 +9407,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9286,13 +9424,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="I3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9306,10 +9444,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9320,13 +9458,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9340,10 +9478,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9354,13 +9492,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="J7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9371,13 +9509,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="I8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9385,7 +9523,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9399,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9418,7 +9556,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9443,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9451,7 +9589,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9484,7 +9622,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9498,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9517,13 +9655,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -10129,13 +10267,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10160,10 +10298,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10171,13 +10309,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10185,13 +10323,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10205,7 +10343,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10213,7 +10351,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10229,7 +10367,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10245,7 +10383,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10261,7 +10399,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10269,7 +10407,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10278,7 +10416,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10286,7 +10424,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10299,7 +10437,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10307,7 +10445,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10361,7 +10499,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10372,7 +10510,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -10389,7 +10527,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -10406,7 +10544,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -10423,7 +10561,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -10440,7 +10578,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10457,7 +10595,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10474,13 +10612,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10491,7 +10629,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10508,13 +10646,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G10" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10525,7 +10663,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10536,7 +10674,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10547,7 +10685,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10555,10 +10693,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10569,7 +10707,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10580,7 +10718,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10591,7 +10729,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10610,7 +10748,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10621,7 +10759,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10629,10 +10767,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11142,13 +11280,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11164,7 +11302,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11178,7 +11316,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11186,7 +11324,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11208,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11216,7 +11354,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11243,7 +11381,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11257,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11273,7 +11411,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11295,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11303,7 +11441,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11330,13 +11468,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11382,7 +11520,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11396,13 +11534,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11413,16 +11551,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11436,7 +11574,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11456,13 +11594,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11476,7 +11614,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11496,13 +11634,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11516,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11536,7 +11674,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11553,10 +11691,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11593,13 +11731,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11613,13 +11751,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11633,10 +11771,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11653,7 +11791,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11673,13 +11811,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G16" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11690,10 +11828,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11718,7 +11856,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11732,7 +11870,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11743,10 +11881,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11792,7 +11930,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11803,10 +11941,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11817,7 +11955,7 @@
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11834,10 +11972,10 @@
         <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11849,10 +11987,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -11869,7 +12007,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -11886,7 +12024,7 @@
         <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I7" t="s">
         <v>250</v>
@@ -11900,10 +12038,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I8" t="s">
         <v>257</v>
@@ -11918,10 +12056,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I9" t="s">
         <v>254</v>
@@ -11935,16 +12073,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11952,16 +12090,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J11" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11969,16 +12107,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="I12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J12" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11986,16 +12124,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>711</v>
+      </c>
+      <c r="G13" t="s">
+        <v>692</v>
+      </c>
+      <c r="I13" t="s">
+        <v>714</v>
+      </c>
+      <c r="J13" t="s">
         <v>715</v>
-      </c>
-      <c r="G13" t="s">
-        <v>696</v>
-      </c>
-      <c r="I13" t="s">
-        <v>718</v>
-      </c>
-      <c r="J13" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12006,10 +12144,10 @@
         <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12017,10 +12155,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12028,10 +12166,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12039,10 +12177,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12050,10 +12188,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12062,10 +12200,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12073,7 +12211,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12081,10 +12219,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12141,13 +12279,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H2" t="s">
         <v>247</v>
@@ -12161,10 +12299,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G3" t="s">
         <v>248</v>
@@ -12181,16 +12319,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="H4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12201,10 +12339,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G5" t="s">
         <v>250</v>
@@ -12221,16 +12359,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12241,16 +12379,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12265,13 +12403,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="H8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12282,16 +12420,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G9" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12302,16 +12440,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12322,16 +12460,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12342,16 +12480,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12362,16 +12500,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G13" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12386,13 +12524,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12403,16 +12541,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G15" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H15" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12424,16 +12562,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H16" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12444,16 +12582,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12464,16 +12602,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G18" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H18" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12487,13 +12625,13 @@
         <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G19" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H19" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12504,16 +12642,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G20" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H20" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12524,16 +12662,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G21" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H21" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12593,7 +12731,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12613,7 +12751,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12633,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12650,16 +12788,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12674,13 +12812,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J6" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K6" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12694,13 +12832,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12711,16 +12849,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J8" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="K8" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12735,13 +12873,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="K9" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12755,7 +12893,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12769,7 +12907,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12783,7 +12921,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12797,7 +12935,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12823,7 +12961,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12845,10 +12983,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12863,7 +13001,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12874,10 +13012,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12888,10 +13026,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12905,10 +13043,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12965,16 +13103,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12985,16 +13123,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -13008,13 +13146,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K4" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13025,16 +13163,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="K5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -13049,13 +13187,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K6" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13066,16 +13204,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="K7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13086,16 +13224,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J8" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K8" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13110,13 +13248,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="K9" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13127,16 +13265,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="K10" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13147,16 +13285,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13170,13 +13308,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="K12" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13187,10 +13325,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13201,16 +13339,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J14" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K14" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13225,7 +13363,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13236,10 +13374,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13250,10 +13388,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G17" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13268,7 +13406,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13279,10 +13417,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G19" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13293,10 +13431,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13310,10 +13448,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G21" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13373,7 +13511,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -13393,7 +13531,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -13413,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -13433,7 +13571,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13454,13 +13592,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J6" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="K6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13471,16 +13609,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G7" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13491,16 +13629,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13515,13 +13653,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J9" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="K9" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13532,16 +13670,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13555,13 +13693,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J11" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="K11" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13575,13 +13713,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J12" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="K12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13592,16 +13730,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G13" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="K13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13615,7 +13753,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13630,7 +13768,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13641,16 +13779,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G16" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J16" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="K16" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13676,7 +13814,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13698,10 +13836,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13715,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="913">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -1076,12 +1076,6 @@
     <t>Matyr</t>
   </si>
   <si>
-    <t>Ranged Criticals +5, Snipe</t>
-  </si>
-  <si>
-    <t>Ambusher +10</t>
-  </si>
-  <si>
     <t>Select Favoured Enemy</t>
   </si>
   <si>
@@ -1095,10 +1089,6 @@
   </si>
   <si>
     <t>Forager 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master Archer +1
-</t>
   </si>
   <si>
     <t>Eagle Eye</t>
@@ -1138,9 +1128,6 @@
     <t>Iron Will</t>
   </si>
   <si>
-    <t>RESIST MENTAL +30%</t>
-  </si>
-  <si>
     <t>Iajutsu 2</t>
   </si>
   <si>
@@ -1199,9 +1186,6 @@
   </si>
   <si>
     <t>Tribesman, Channelling +1</t>
-  </si>
-  <si>
-    <t>Spear Mastery??</t>
   </si>
   <si>
     <t>Forager N</t>
@@ -1446,9 +1430,6 @@
     <t>Favoured Enemy: Creatures of the Maze</t>
   </si>
   <si>
-    <t>Power Cast +20, Ambition</t>
-  </si>
-  <si>
     <t>Surprise Parry</t>
   </si>
   <si>
@@ -1512,15 +1493,6 @@
     <t>Catching a blow on the shield restores fatigue to paladin</t>
   </si>
   <si>
-    <t>Dual Wielder</t>
-  </si>
-  <si>
-    <t>Bonus to 2h fighting</t>
-  </si>
-  <si>
-    <t>Tireless With Swords +1, Dual Wielder, Code of Honour</t>
-  </si>
-  <si>
     <t>Lightning Strike: Swords 2</t>
   </si>
   <si>
@@ -1536,12 +1508,6 @@
     <t>Iajutsu 4, Lightning Strike: Swords 10</t>
   </si>
   <si>
-    <t>Lightning Strike: Axe 3</t>
-  </si>
-  <si>
-    <t>Lightning Strike: Axe 7</t>
-  </si>
-  <si>
     <t>Lighing Strike: Axe N</t>
   </si>
   <si>
@@ -1599,12 +1565,6 @@
     <t>Unique final ability, Signature 6</t>
   </si>
   <si>
-    <t>Hide, Snipe</t>
-  </si>
-  <si>
-    <t>Hail of Arrows, ???</t>
-  </si>
-  <si>
     <t>Faerie Fire</t>
   </si>
   <si>
@@ -1651,18 +1611,6 @@
   </si>
   <si>
     <t>Magic Absorbtion +9</t>
-  </si>
-  <si>
-    <t>Parry 8%</t>
-  </si>
-  <si>
-    <t>Parry 11%</t>
-  </si>
-  <si>
-    <t>Parry 14%</t>
-  </si>
-  <si>
-    <t>Magic Absorbtion +11, ???</t>
   </si>
   <si>
     <t>Chanelling</t>
@@ -2260,9 +2208,6 @@
     <t>Deadly Throw 2</t>
   </si>
   <si>
-    <t>Deadl Throw N</t>
-  </si>
-  <si>
     <t>10X bonus to thrown attack accuracy</t>
   </si>
   <si>
@@ -2668,40 +2613,202 @@
     <t>The Priest can remove cursed items from party members</t>
   </si>
   <si>
-    <t>At the end of each turn the Priest has a chance to remove afflictions</t>
-  </si>
-  <si>
-    <t>Shed Blights 1</t>
-  </si>
-  <si>
-    <t>Pray for Miracle, Shed Blights 2</t>
-  </si>
-  <si>
-    <t>Shed Blights 2</t>
-  </si>
-  <si>
-    <t>bigger chance to remove afflictions</t>
-  </si>
-  <si>
-    <t>Shed Blights 3</t>
-  </si>
-  <si>
-    <t>Afflictions and other debuffs</t>
-  </si>
-  <si>
-    <t>Shed Blights 4</t>
-  </si>
-  <si>
-    <t>bigger chance to remove</t>
-  </si>
-  <si>
-    <t>Martyr, Shed Blights 4</t>
-  </si>
-  <si>
-    <t>Sanctify, Shed Blights 1</t>
-  </si>
-  <si>
     <t>Sanctify</t>
+  </si>
+  <si>
+    <t>Shed Blights X</t>
+  </si>
+  <si>
+    <t>At the end of each turn the Priest has a X% chance to remove afflictions</t>
+  </si>
+  <si>
+    <t>Sanctify, Shed Blights 20%</t>
+  </si>
+  <si>
+    <t>Pray for Miracle, Shed Blights 30%</t>
+  </si>
+  <si>
+    <t>Shed Blights 40%</t>
+  </si>
+  <si>
+    <t>Martyr, Shed Blights 50%</t>
+  </si>
+  <si>
+    <t>Ranged Criticals +5, Wilderness Lore +5</t>
+  </si>
+  <si>
+    <t>Snipe 3</t>
+  </si>
+  <si>
+    <t>Combat Veteran 1</t>
+  </si>
+  <si>
+    <t>Combat Veteran 2</t>
+  </si>
+  <si>
+    <t>Combat Veteran 3</t>
+  </si>
+  <si>
+    <t>Forager 2, Combat Veteran 4</t>
+  </si>
+  <si>
+    <t>Combat Veteran 4</t>
+  </si>
+  <si>
+    <t>Combat Veteran 5</t>
+  </si>
+  <si>
+    <t>Martial Arts +5, Polearm Parry 10%</t>
+  </si>
+  <si>
+    <t>Dual Wield +X, Tireless with Axes</t>
+  </si>
+  <si>
+    <t>Master Archer +1, Shield Bash 5%</t>
+  </si>
+  <si>
+    <t>Thrown Criticals +3, Sword 1H Wield</t>
+  </si>
+  <si>
+    <t>Ambusher +5, Bash +1</t>
+  </si>
+  <si>
+    <t>Hail of Arrows, Select Favoured Enemy, Guardian Spirit</t>
+  </si>
+  <si>
+    <t>Guardian Spirit</t>
+  </si>
+  <si>
+    <t>Self buff, depending on terrain</t>
+  </si>
+  <si>
+    <t>Arrow Cutting 5%, Sword Parry 5%</t>
+  </si>
+  <si>
+    <t>Dual Wield +3, Tireless with Swords</t>
+  </si>
+  <si>
+    <t>RESIST MENTAL +30%, Immune to Fear</t>
+  </si>
+  <si>
+    <t>Nito Ichi 2</t>
+  </si>
+  <si>
+    <t>Nito Ichi 1</t>
+  </si>
+  <si>
+    <t>Nito Ichi 3</t>
+  </si>
+  <si>
+    <t>Nito Ichi 4</t>
+  </si>
+  <si>
+    <t>Dual Wield +3, Arrow Cutting +5%</t>
+  </si>
+  <si>
+    <t>Sword Parry +15%, Sword 1H Wield</t>
+  </si>
+  <si>
+    <t>Nito Ichi 1, Samurai Code</t>
+  </si>
+  <si>
+    <t>Samurai Code</t>
+  </si>
+  <si>
+    <t>Blue Magic 1</t>
+  </si>
+  <si>
+    <t>Blue Magic 2</t>
+  </si>
+  <si>
+    <t>Blue Magic 3</t>
+  </si>
+  <si>
+    <t>Axe Parry 10%</t>
+  </si>
+  <si>
+    <t>Lightning Strike: Spear 3</t>
+  </si>
+  <si>
+    <t>Lightning Strike: Spear 7</t>
+  </si>
+  <si>
+    <t>Axe Parry 20%</t>
+  </si>
+  <si>
+    <t>Summon Animal Spirit</t>
+  </si>
+  <si>
+    <t>Summons a powerful animal spirit to fight for the shaman</t>
+  </si>
+  <si>
+    <t>Deadly Throw N</t>
+  </si>
+  <si>
+    <t>Elemental Manifestation, Battle Master</t>
+  </si>
+  <si>
+    <t>Battle Master</t>
+  </si>
+  <si>
+    <t>Gain action points every time wounded</t>
+  </si>
+  <si>
+    <t>Blend In</t>
+  </si>
+  <si>
+    <t>Self buff: chameleon</t>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t>Poison Touch 15%</t>
+  </si>
+  <si>
+    <t>Acrobatics +1</t>
+  </si>
+  <si>
+    <t>Magic Absorbtion +11, Great Resilience</t>
+  </si>
+  <si>
+    <t>Great Resilience</t>
+  </si>
+  <si>
+    <t>HP regen +5</t>
+  </si>
+  <si>
+    <t>Air Manifestation, Axe Parry 15%</t>
+  </si>
+  <si>
+    <t>Parry 15%</t>
+  </si>
+  <si>
+    <t>Parry 20%</t>
+  </si>
+  <si>
+    <t>Earth Manifestation, Lightning String: Spear 5</t>
+  </si>
+  <si>
+    <t>Arrow Catching 10%</t>
+  </si>
+  <si>
+    <t>Arrow Catching</t>
+  </si>
+  <si>
+    <t>chance to catch a projectile</t>
+  </si>
+  <si>
+    <t>Arcane Strike 1x</t>
+  </si>
+  <si>
+    <t>Arcane Strike 2x</t>
+  </si>
+  <si>
+    <t>Arcane Strike 3x</t>
+  </si>
+  <si>
+    <t>Power Cast +20, Ambition, ???</t>
   </si>
 </sst>
 </file>
@@ -3097,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3120,7 +3227,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3140,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3160,7 +3267,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3180,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3200,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3220,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3240,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3257,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="E10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3297,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3317,7 +3424,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3337,13 +3444,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3357,13 +3464,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H15" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="I15" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3388,7 +3495,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3416,7 +3523,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3430,7 +3537,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3444,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3489,7 +3596,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3506,7 +3613,7 @@
         <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I2" t="s">
         <v>203</v>
@@ -3540,16 +3647,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I4" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="J4" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3563,10 +3670,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="J5" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3580,10 +3687,10 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="J6" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3594,16 +3701,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="G7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I7" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="J7" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3618,13 +3725,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I8" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="J8" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3635,16 +3742,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I9" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="J9" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3655,19 +3762,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I10" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="J10" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3678,16 +3785,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I11" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="J11" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3698,10 +3805,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3712,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3730,7 +3837,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3741,10 +3848,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="G15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3755,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="G16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3769,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3786,7 +3893,7 @@
         <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3797,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="G20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3825,13 +3932,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="E21" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="G21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,7 +3986,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3890,7 +3997,7 @@
         <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
         <v>209</v>
@@ -3907,7 +4014,7 @@
         <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H3" t="s">
         <v>212</v>
@@ -3921,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="H4" t="s">
         <v>214</v>
@@ -3938,13 +4045,13 @@
         <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H5" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="I5" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3952,19 +4059,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H6" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="I6" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3972,16 +4079,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H7" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="I7" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3989,16 +4096,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H8" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="I8" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4006,16 +4113,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H9" t="s">
         <v>285</v>
       </c>
       <c r="I9" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,19 +4130,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H10" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="I10" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,16 +4150,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H11" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="I11" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4063,13 +4170,13 @@
         <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H12" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="I12" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4077,10 +4184,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4088,16 +4195,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H14" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="I14" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4105,13 +4212,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I15" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4119,13 +4226,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I16" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4136,7 +4243,7 @@
         <v>214</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="H18" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="I18" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4158,13 +4265,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I19" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4172,13 +4279,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I20" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4186,10 +4293,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4243,7 +4350,7 @@
         <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J2" t="s">
         <v>218</v>
@@ -4254,16 +4361,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="G3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
         <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4274,7 +4381,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J4" t="s">
         <v>220</v>
@@ -4291,7 +4398,7 @@
         <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J5" t="s">
         <v>222</v>
@@ -4308,7 +4415,7 @@
         <v>220</v>
       </c>
       <c r="G6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
         <v>224</v>
@@ -4322,10 +4429,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="G7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J7" t="s">
         <v>226</v>
@@ -4342,7 +4449,7 @@
         <v>222</v>
       </c>
       <c r="G8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J8" t="s">
         <v>228</v>
@@ -4359,13 +4466,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J9" t="s">
         <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4376,10 +4483,10 @@
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J10" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="K10" t="s">
         <v>231</v>
@@ -4390,10 +4497,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J11" t="s">
         <v>232</v>
@@ -4410,13 +4517,13 @@
         <v>226</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J12" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="K12" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4427,13 +4534,13 @@
         <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J13" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="K13" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4441,10 +4548,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="G14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4455,7 +4562,7 @@
         <v>230</v>
       </c>
       <c r="G15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4463,10 +4570,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="G16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,10 +4581,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="G17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,10 +4592,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="G18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4496,10 +4603,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="G19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4507,10 +4614,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="G20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4521,7 +4628,7 @@
         <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4569,7 +4676,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4577,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
         <v>269</v>
@@ -4597,10 +4704,10 @@
         <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H3" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="I3" t="s">
         <v>271</v>
@@ -4614,13 +4721,13 @@
         <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H4" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="I4" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,10 +4735,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H5" t="s">
         <v>273</v>
@@ -4648,7 +4755,7 @@
         <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H6" t="s">
         <v>274</v>
@@ -4665,13 +4772,13 @@
         <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H7" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="I7" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4679,16 +4786,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H8" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4700,13 +4807,13 @@
         <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H9" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4717,7 +4824,7 @@
         <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4728,7 +4835,7 @@
         <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4739,7 +4846,7 @@
         <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4750,7 +4857,7 @@
         <v>281</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4759,10 +4866,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4770,10 +4877,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4782,10 +4889,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4793,10 +4900,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4807,7 +4914,7 @@
         <v>284</v>
       </c>
       <c r="F18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4815,10 +4922,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,10 +4933,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,13 +4944,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="E21" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4903,10 +5010,10 @@
         <v>303</v>
       </c>
       <c r="E2" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="H2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J2" t="s">
         <v>303</v>
@@ -4926,13 +5033,13 @@
         <v>285</v>
       </c>
       <c r="H3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
         <v>285</v>
       </c>
       <c r="K3" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4946,7 +5053,7 @@
         <v>208</v>
       </c>
       <c r="H4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J4" t="s">
         <v>286</v>
@@ -4966,13 +5073,13 @@
         <v>288</v>
       </c>
       <c r="H5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J5" t="s">
         <v>288</v>
       </c>
       <c r="K5" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4986,7 +5093,7 @@
         <v>290</v>
       </c>
       <c r="H6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
         <v>290</v>
@@ -5003,10 +5110,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="H7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -5027,16 +5134,16 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="H8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J8" t="s">
         <v>292</v>
       </c>
       <c r="K8" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5050,7 +5157,7 @@
         <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J9" t="s">
         <v>293</v>
@@ -5070,7 +5177,7 @@
         <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J10" t="s">
         <v>295</v>
@@ -5090,10 +5197,10 @@
         <v>306</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="H11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J11" t="s">
         <v>297</v>
@@ -5113,7 +5220,7 @@
         <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J12" t="s">
         <v>299</v>
@@ -5133,13 +5240,13 @@
         <v>295</v>
       </c>
       <c r="H13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J13" t="s">
         <v>301</v>
       </c>
       <c r="K13" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5154,7 +5261,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="H14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J14" t="s">
         <v>302</v>
@@ -5171,10 +5278,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="H15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J15" t="s">
         <v>306</v>
@@ -5192,16 +5299,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="H16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J16" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,7 +5322,7 @@
         <v>297</v>
       </c>
       <c r="H17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5229,7 +5336,7 @@
         <v>299</v>
       </c>
       <c r="H18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5243,7 +5350,7 @@
         <v>286</v>
       </c>
       <c r="H19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5257,7 +5364,7 @@
         <v>301</v>
       </c>
       <c r="H20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5271,7 +5378,7 @@
         <v>305</v>
       </c>
       <c r="H21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5292,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5319,7 +5426,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5336,7 +5443,7 @@
         <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J2" t="s">
         <v>311</v>
@@ -5353,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
         <v>313</v>
@@ -5376,7 +5483,7 @@
         <v>317</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J4" t="s">
         <v>315</v>
@@ -5393,10 +5500,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J5" t="s">
         <v>318</v>
@@ -5416,10 +5523,10 @@
         <v>310</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="K6" t="s">
         <v>320</v>
@@ -5433,16 +5540,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5456,13 +5563,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K8" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5476,13 +5583,13 @@
         <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J9" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="K9" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5493,16 +5600,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J10" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="K10" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5516,13 +5623,13 @@
         <v>321</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J11" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="K11" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5533,16 +5640,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J12" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="K12" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5556,7 +5663,7 @@
         <v>323</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5570,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5581,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5596,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5613,7 +5720,7 @@
         <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5624,10 +5731,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="F18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5638,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5652,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5666,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5689,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5726,10 +5833,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="E2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
         <v>330</v>
@@ -5746,16 +5853,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="I3" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5769,13 +5876,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H4" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="I4" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5786,10 +5893,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="E5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H5" t="s">
         <v>332</v>
@@ -5809,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H6" t="s">
         <v>335</v>
@@ -5826,16 +5933,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="E7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5846,13 +5953,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>875</v>
+        <v>850</v>
+      </c>
+      <c r="E8" t="s">
+        <v>675</v>
       </c>
       <c r="H8" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5866,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H9" t="s">
         <v>242</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5885,11 +5995,14 @@
       <c r="D10" t="s">
         <v>321</v>
       </c>
+      <c r="E10" t="s">
+        <v>675</v>
+      </c>
       <c r="H10" t="s">
-        <v>876</v>
+        <v>847</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5900,16 +6013,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="E11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="H11" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5923,14 +6036,9 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>692</v>
-      </c>
-      <c r="H12" t="s">
-        <v>868</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>869</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5940,14 +6048,12 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>867</v>
-      </c>
-      <c r="H13" t="s">
-        <v>870</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>871</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="E13" t="s">
+        <v>675</v>
+      </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5957,17 +6063,12 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>692</v>
-      </c>
-      <c r="H14" t="s">
-        <v>872</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>873</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5980,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5994,7 +6095,7 @@
         <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6005,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6022,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6033,7 +6134,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>870</v>
+        <v>852</v>
+      </c>
+      <c r="E19" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6044,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="E20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6061,7 +6165,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>874</v>
+        <v>853</v>
+      </c>
+      <c r="E21" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,7 +6186,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -6089,10 +6196,13 @@
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6106,10 +6216,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6120,10 +6230,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="E2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6131,16 +6247,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="F3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6148,16 +6267,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="F4" t="s">
+        <v>675</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6165,16 +6287,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="J5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" t="s">
+        <v>675</v>
+      </c>
+      <c r="H5" t="s">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6182,16 +6307,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J6" t="s">
-        <v>368</v>
-      </c>
-      <c r="K6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="F6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6199,16 +6327,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="J7" t="s">
-        <v>480</v>
-      </c>
-      <c r="K7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="F7" t="s">
+        <v>675</v>
+      </c>
+      <c r="H7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6219,14 +6350,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="J8" t="s">
-        <v>365</v>
-      </c>
-      <c r="K8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>779</v>
+      </c>
+      <c r="F8" t="s">
+        <v>675</v>
+      </c>
+      <c r="H8" t="s">
+        <v>856</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6234,10 +6371,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="F9" t="s">
+        <v>675</v>
+      </c>
+      <c r="H9" t="s">
+        <v>857</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6245,10 +6391,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>675</v>
+      </c>
+      <c r="H10" t="s">
+        <v>858</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6256,10 +6411,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="F11" t="s">
+        <v>675</v>
+      </c>
+      <c r="H11" t="s">
+        <v>860</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6267,10 +6431,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="F12" t="s">
+        <v>675</v>
+      </c>
+      <c r="H12" t="s">
+        <v>861</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6278,10 +6451,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+      <c r="F13" t="s">
+        <v>675</v>
+      </c>
+      <c r="H13" t="s">
+        <v>868</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6292,8 +6474,11 @@
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6301,10 +6486,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="E15" t="s">
+        <v>855</v>
+      </c>
+      <c r="F15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6313,10 +6504,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="F16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6324,10 +6518,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+      <c r="F17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6335,21 +6532,27 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+      <c r="F18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>861</v>
+      </c>
+      <c r="F19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6357,10 +6560,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6368,10 +6574,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="F21" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -6387,20 +6596,21 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6412,21 +6622,24 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+      <c r="E2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6434,33 +6647,39 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K3" t="s">
-        <v>349</v>
-      </c>
-      <c r="L3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="E3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E4" t="s">
+        <v>675</v>
+      </c>
+      <c r="G4" t="s">
+        <v>880</v>
+      </c>
+      <c r="H4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6468,16 +6687,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>353</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="E5" t="s">
+        <v>675</v>
+      </c>
+      <c r="G5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6485,16 +6707,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" t="s">
+        <v>675</v>
+      </c>
+      <c r="G6" t="s">
         <v>352</v>
       </c>
-      <c r="K6" t="s">
-        <v>355</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6502,34 +6727,40 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="K7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="E7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6539,8 +6770,17 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>675</v>
+      </c>
+      <c r="G9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6548,10 +6788,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>675</v>
+      </c>
+      <c r="G10" t="s">
+        <v>874</v>
+      </c>
+      <c r="H10" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6559,10 +6808,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="E11" t="s">
+        <v>675</v>
+      </c>
+      <c r="G11" t="s">
+        <v>873</v>
+      </c>
+      <c r="H11" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6570,33 +6828,54 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="E12" t="s">
+        <v>675</v>
+      </c>
+      <c r="G12" t="s">
+        <v>875</v>
+      </c>
+      <c r="H12" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>875</v>
+      </c>
+      <c r="E13" t="s">
+        <v>675</v>
+      </c>
+      <c r="G13" t="s">
+        <v>876</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6604,10 +6883,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6616,10 +6898,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="E16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6627,10 +6912,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="E17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6638,10 +6926,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+      <c r="E18" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6649,10 +6940,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="E19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6660,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6671,10 +6965,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="E21" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -6690,21 +6987,21 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6716,27 +7013,30 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>881</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="J2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="E2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6744,16 +7044,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="J3" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="E3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6761,16 +7064,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+      <c r="G4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6778,16 +7081,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="J5" t="s">
-        <v>531</v>
-      </c>
-      <c r="K5" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="G5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6795,16 +7098,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="J6" t="s">
-        <v>683</v>
-      </c>
-      <c r="K6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+      <c r="G6" t="s">
+        <v>666</v>
+      </c>
+      <c r="H6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6812,34 +7115,37 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="K7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="E7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>882</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="K8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6847,16 +7153,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="K9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6864,16 +7170,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="K10" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6881,16 +7187,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="K11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="H11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6898,16 +7204,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="K12" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="H12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6915,34 +7221,34 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="K13" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>883</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6950,10 +7256,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6962,16 +7274,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="K16" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="H16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6979,10 +7291,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="H17" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6990,28 +7308,32 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7019,10 +7341,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -7040,7 +7362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
@@ -7082,7 +7404,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
@@ -7102,7 +7424,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -7122,7 +7444,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -7142,7 +7464,7 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -7162,13 +7484,13 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I6" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7182,7 +7504,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
@@ -7202,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7216,7 +7538,7 @@
         <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
@@ -7236,7 +7558,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I10" t="s">
         <v>57</v>
@@ -7256,7 +7578,7 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7270,13 +7592,13 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7290,7 +7612,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7304,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7318,7 +7640,7 @@
         <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7332,7 +7654,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7346,13 +7668,13 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7366,7 +7688,7 @@
         <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
@@ -7386,7 +7708,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -7406,7 +7728,7 @@
         <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7420,13 +7742,13 @@
         <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I21" t="s">
         <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7447,7 +7769,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7455,7 +7777,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7473,10 +7795,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7484,19 +7806,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>881</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="K2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7507,13 +7829,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="K3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7524,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>894</v>
       </c>
       <c r="J4" t="s">
         <v>250</v>
@@ -7541,7 +7863,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>518</v>
+        <v>505</v>
+      </c>
+      <c r="J5" t="s">
+        <v>894</v>
+      </c>
+      <c r="K5" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7552,7 +7880,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>524</v>
+        <v>511</v>
+      </c>
+      <c r="J6" t="s">
+        <v>896</v>
+      </c>
+      <c r="K6" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7563,7 +7897,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>527</v>
+        <v>571</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -7571,10 +7911,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>882</v>
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>900</v>
+      </c>
+      <c r="K8" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7585,9 +7931,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>896</v>
       </c>
       <c r="F9" s="3"/>
+      <c r="J9" t="s">
+        <v>907</v>
+      </c>
+      <c r="K9" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7608,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7619,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7630,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>528</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7638,7 +7990,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>883</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -7664,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7675,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7686,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>898</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7697,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>529</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7708,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7719,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>530</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7737,20 +8089,21 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7764,11 +8117,11 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7779,19 +8132,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="E2" t="s">
         <v>310</v>
       </c>
-      <c r="K2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7799,16 +8152,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
-      </c>
-      <c r="K3" t="s">
-        <v>384</v>
-      </c>
-      <c r="L3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="H3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7816,16 +8169,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="K4" t="s">
-        <v>386</v>
-      </c>
-      <c r="L4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="H4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7835,14 +8188,14 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
-        <v>388</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7852,14 +8205,14 @@
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
-        <v>569</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>552</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7867,16 +8220,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="K7" t="s">
-        <v>617</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="H7" t="s">
+        <v>600</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7887,14 +8240,14 @@
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7904,14 +8257,14 @@
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7921,14 +8274,14 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7936,10 +8289,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7950,7 +8303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7961,7 +8314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7973,7 +8326,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7981,10 +8334,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8026,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8048,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8105,13 +8458,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8122,13 +8475,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8139,10 +8492,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G4" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8153,13 +8506,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="G5" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="H5" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8173,10 +8526,10 @@
         <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8187,13 +8540,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="H7" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,10 +8561,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="H8" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8222,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8233,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8255,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8266,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8301,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8312,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8334,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8356,7 +8709,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8377,8 +8730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,19 +8760,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8430,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J3" t="s">
         <v>261</v>
@@ -8444,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8464,13 +8817,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J5" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="K5" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8478,7 +8831,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -8503,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>586</v>
+        <v>909</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8511,7 +8864,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -8525,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8544,7 +8897,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -8569,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>910</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8577,7 +8930,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -8591,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8610,7 +8963,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -8635,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8643,13 +8996,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>458</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8696,10 +9049,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8713,16 +9066,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="E2" t="s">
         <v>310</v>
       </c>
       <c r="H2" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8734,13 +9087,13 @@
       </c>
       <c r="D3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8751,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="H4" t="s">
         <v>250</v>
@@ -8768,13 +9121,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="H5" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="I5" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8788,10 +9141,10 @@
         <v>125</v>
       </c>
       <c r="H6" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="I6" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8802,13 +9155,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8823,10 +9176,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8840,10 +9193,10 @@
         <v>131</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8854,13 +9207,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="H10" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8882,10 +9235,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="H12" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8896,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>130</v>
@@ -8934,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8978,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8989,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9037,19 +9390,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -9060,13 +9413,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9077,13 +9430,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9094,13 +9447,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K5" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9111,13 +9464,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J6" t="s">
+        <v>416</v>
+      </c>
+      <c r="K6" t="s">
         <v>417</v>
-      </c>
-      <c r="J6" t="s">
-        <v>421</v>
-      </c>
-      <c r="K6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9128,13 +9481,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K7" t="s">
         <v>419</v>
-      </c>
-      <c r="J7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9142,17 +9495,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="J8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9163,13 +9516,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J9" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9180,13 +9533,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J10" t="s">
         <v>423</v>
       </c>
-      <c r="J10" t="s">
-        <v>428</v>
-      </c>
       <c r="K10" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9197,13 +9550,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J11" t="s">
         <v>425</v>
       </c>
-      <c r="J11" t="s">
-        <v>430</v>
-      </c>
       <c r="K11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9214,13 +9567,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="J12" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K12" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9231,13 +9584,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9245,17 +9598,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K14" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9266,13 +9619,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="K15" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9284,13 +9637,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="K16" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9301,13 +9654,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="K17" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9318,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9329,7 +9682,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9340,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9351,7 +9704,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9407,13 +9760,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="I2" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="J2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9424,13 +9777,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9444,10 +9797,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="J4" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -9458,13 +9811,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="I5" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9478,10 +9831,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="J6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -9492,13 +9845,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I7" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="J7" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -9509,13 +9862,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="I8" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="J8" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -9523,7 +9876,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9537,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -9556,7 +9909,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9581,7 +9934,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -9589,7 +9942,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9622,7 +9975,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9636,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9655,13 +10008,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -10267,13 +10620,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10298,10 +10651,10 @@
         <v>208</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -10309,13 +10662,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10323,13 +10676,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -10343,7 +10696,7 @@
         <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10351,7 +10704,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10367,7 +10720,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10383,7 +10736,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10399,7 +10752,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10407,7 +10760,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10416,7 +10769,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10424,7 +10777,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10437,7 +10790,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10445,7 +10798,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10499,7 +10852,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10510,7 +10863,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -10527,7 +10880,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -10544,7 +10897,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -10561,7 +10914,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -10578,7 +10931,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -10595,7 +10948,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -10612,13 +10965,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10629,7 +10982,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -10646,13 +10999,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G10" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10663,7 +11016,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10674,7 +11027,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10685,7 +11038,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10693,10 +11046,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10707,7 +11060,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -10718,7 +11071,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10729,7 +11082,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10748,7 +11101,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10759,7 +11112,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -10767,10 +11120,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11280,13 +11633,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11302,7 +11655,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11316,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11324,7 +11677,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11346,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11354,7 +11707,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11381,7 +11734,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11395,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11411,7 +11764,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11433,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -11441,7 +11794,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11468,13 +11821,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11495,7 +11848,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11520,7 +11873,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11534,13 +11887,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11551,16 +11904,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="H3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11574,7 +11927,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -11594,13 +11947,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11614,7 +11967,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -11634,13 +11987,13 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G7" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="H7" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11654,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -11674,7 +12027,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -11691,10 +12044,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -11731,13 +12084,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11751,13 +12104,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11771,10 +12124,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G14" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -11791,7 +12144,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -11811,13 +12164,13 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G16" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11828,10 +12181,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11856,7 +12209,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11870,7 +12223,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11881,10 +12234,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11930,7 +12283,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11941,10 +12294,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11955,7 +12308,7 @@
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -11972,10 +12325,10 @@
         <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I4" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -11987,10 +12340,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="G5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -12007,7 +12360,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I6" t="s">
         <v>132</v>
@@ -12024,7 +12377,7 @@
         <v>254</v>
       </c>
       <c r="G7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I7" t="s">
         <v>250</v>
@@ -12038,10 +12391,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="G8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I8" t="s">
         <v>257</v>
@@ -12056,10 +12409,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I9" t="s">
         <v>254</v>
@@ -12073,16 +12426,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="G10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I10" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="J10" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -12090,16 +12443,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I11" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="J11" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -12107,16 +12460,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I12" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="J12" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -12124,16 +12477,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="I13" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="J13" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12144,10 +12497,10 @@
         <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="G14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12155,10 +12508,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="G15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12166,10 +12519,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="G16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12177,10 +12530,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="G17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12188,10 +12541,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="G18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12200,10 +12553,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="G19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12211,7 +12564,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12219,10 +12572,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="G21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12279,13 +12632,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H2" t="s">
         <v>247</v>
@@ -12299,10 +12652,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G3" t="s">
         <v>248</v>
@@ -12319,16 +12672,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="H4" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12339,10 +12692,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="E5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G5" t="s">
         <v>250</v>
@@ -12359,16 +12712,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12379,16 +12732,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="E7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H7" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12403,13 +12756,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G8" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="H8" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12420,16 +12773,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H9" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12440,16 +12793,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="E10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12460,16 +12813,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="E11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H11" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12480,16 +12833,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="E12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G12" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H12" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12500,16 +12853,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G13" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -12524,13 +12877,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G14" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -12541,16 +12894,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="E15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G15" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="H15" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -12562,16 +12915,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G16" t="s">
+        <v>453</v>
+      </c>
+      <c r="H16" t="s">
         <v>454</v>
-      </c>
-      <c r="E16" t="s">
-        <v>692</v>
-      </c>
-      <c r="G16" t="s">
-        <v>459</v>
-      </c>
-      <c r="H16" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -12582,16 +12935,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H17" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -12602,16 +12955,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G18" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="H18" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12625,13 +12978,13 @@
         <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G19" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="H19" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -12642,16 +12995,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="E20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G20" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="H20" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -12662,16 +13015,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="E21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G21" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="H21" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12731,7 +13084,7 @@
         <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J2" t="s">
         <v>163</v>
@@ -12751,7 +13104,7 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
         <v>168</v>
@@ -12771,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
@@ -12788,16 +13141,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="E5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J5" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="K5" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -12812,13 +13165,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="K6" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12832,13 +13185,13 @@
         <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J7" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="K7" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -12849,16 +13202,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="E8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J8" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="K8" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -12873,13 +13226,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J9" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="K9" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -12893,7 +13246,7 @@
         <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -12907,7 +13260,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -12921,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -12935,7 +13288,7 @@
         <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12961,7 +13314,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -12983,10 +13336,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -13001,7 +13354,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -13012,10 +13365,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="E19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -13026,10 +13379,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="E20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13043,10 +13396,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="E21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13103,16 +13456,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -13123,16 +13476,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="G3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="K3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -13146,13 +13499,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J4" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="K4" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -13163,16 +13516,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J5" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="K5" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -13187,13 +13540,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="K6" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13204,16 +13557,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="G7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J7" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="K7" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13224,16 +13577,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="G8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J8" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="K8" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13248,13 +13601,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="K9" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13265,16 +13618,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="G10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="K10" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13285,16 +13638,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="K11" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13308,13 +13661,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="K12" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13325,10 +13678,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13339,16 +13692,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J14" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="K14" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13363,7 +13716,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13374,10 +13727,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="G16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13388,10 +13741,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="G17" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13406,7 +13759,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13417,10 +13770,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="G19" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13431,10 +13784,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="G20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13448,10 +13801,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="G21" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13511,7 +13864,7 @@
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -13531,7 +13884,7 @@
         <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J3" t="s">
         <v>191</v>
@@ -13551,7 +13904,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J4" t="s">
         <v>195</v>
@@ -13571,7 +13924,7 @@
         <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J5" t="s">
         <v>197</v>
@@ -13592,13 +13945,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J6" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="K6" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -13609,16 +13962,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="G7" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="K7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13629,16 +13982,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G8" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J8" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="K8" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13653,13 +14006,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J9" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K9" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -13670,16 +14023,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="G10" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J10" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="K10" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -13693,13 +14046,13 @@
         <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J11" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="K11" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -13713,13 +14066,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J12" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="K12" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -13730,16 +14083,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="G13" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J13" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="K13" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -13753,7 +14106,7 @@
         <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -13768,7 +14121,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -13779,16 +14132,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="G16" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="J16" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="K16" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13814,7 +14167,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13836,10 +14189,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="G20" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13853,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="999">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -1589,9 +1589,6 @@
     <t>Curse 2</t>
   </si>
   <si>
-    <t>Curse 4</t>
-  </si>
-  <si>
     <t>Power of the Circle</t>
   </si>
   <si>
@@ -2841,9 +2838,6 @@
     <t>group buff, protection</t>
   </si>
   <si>
-    <t>Curse 4, Moonlight Blessings</t>
-  </si>
-  <si>
     <t>Moonlight Blessings</t>
   </si>
   <si>
@@ -3064,6 +3058,15 @@
   </si>
   <si>
     <t>Shadow Kata</t>
+  </si>
+  <si>
+    <t>Curse 3</t>
+  </si>
+  <si>
+    <t>Curse 4, Moonlight Blessings, Power of the Circle +20</t>
+  </si>
+  <si>
+    <t>Power of the Circle +10</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3465,7 @@
         <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3482,7 +3485,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -3502,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -3522,7 +3525,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -3542,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -3562,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -3582,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3602,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
@@ -3619,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -3659,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H12" t="s">
         <v>24</v>
@@ -3679,7 +3682,7 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -3699,13 +3702,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,13 +3722,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H15" t="s">
+        <v>633</v>
+      </c>
+      <c r="I15" t="s">
         <v>634</v>
-      </c>
-      <c r="I15" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3756,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H17" t="s">
         <v>150</v>
@@ -3776,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3790,7 +3793,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3804,7 +3807,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3882,7 +3885,7 @@
         <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I2" t="s">
         <v>202</v>
@@ -3899,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I3" t="s">
         <v>205</v>
@@ -3916,16 +3919,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I4" t="s">
+        <v>580</v>
+      </c>
+      <c r="J4" t="s">
         <v>581</v>
-      </c>
-      <c r="J4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3936,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I5" t="s">
+        <v>601</v>
+      </c>
+      <c r="J5" t="s">
         <v>602</v>
-      </c>
-      <c r="J5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3953,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3970,16 +3973,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I7" t="s">
+        <v>604</v>
+      </c>
+      <c r="J7" t="s">
         <v>605</v>
-      </c>
-      <c r="J7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3994,13 +3997,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I8" t="s">
+        <v>606</v>
+      </c>
+      <c r="J8" t="s">
         <v>607</v>
-      </c>
-      <c r="J8" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4011,16 +4014,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>728</v>
+      </c>
+      <c r="G9" t="s">
+        <v>635</v>
+      </c>
+      <c r="I9" t="s">
+        <v>728</v>
+      </c>
+      <c r="J9" t="s">
         <v>729</v>
-      </c>
-      <c r="G9" t="s">
-        <v>636</v>
-      </c>
-      <c r="I9" t="s">
-        <v>729</v>
-      </c>
-      <c r="J9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4031,19 +4034,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I10" t="s">
+        <v>730</v>
+      </c>
+      <c r="J10" t="s">
         <v>731</v>
-      </c>
-      <c r="J10" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4054,13 +4057,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4071,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4091,13 +4094,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>276</v>
@@ -4115,13 +4118,13 @@
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4132,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4146,10 +4149,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4160,10 +4163,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4177,7 +4180,7 @@
         <v>320</v>
       </c>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4188,10 +4191,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4202,10 +4205,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4216,13 +4219,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4281,7 +4284,7 @@
         <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
         <v>208</v>
@@ -4298,7 +4301,7 @@
         <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
         <v>211</v>
@@ -4312,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H4" t="s">
         <v>213</v>
@@ -4329,13 +4332,13 @@
         <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,19 +4346,19 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I6" t="s">
         <v>596</v>
-      </c>
-      <c r="I6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4363,16 +4366,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H7" t="s">
         <v>584</v>
       </c>
-      <c r="F7" t="s">
-        <v>636</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>585</v>
-      </c>
-      <c r="I7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4380,16 +4383,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
+        <v>589</v>
+      </c>
+      <c r="I8" t="s">
         <v>590</v>
-      </c>
-      <c r="I8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4397,16 +4400,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" t="s">
         <v>284</v>
       </c>
       <c r="I9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4414,19 +4417,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H10" t="s">
+        <v>597</v>
+      </c>
+      <c r="I10" t="s">
         <v>598</v>
-      </c>
-      <c r="I10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,16 +4437,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H11" t="s">
+        <v>750</v>
+      </c>
+      <c r="I11" t="s">
         <v>751</v>
-      </c>
-      <c r="I11" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4454,13 +4457,13 @@
         <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I12" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,10 +4471,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4479,16 +4482,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H14" t="s">
+        <v>742</v>
+      </c>
+      <c r="I14" t="s">
         <v>743</v>
-      </c>
-      <c r="I14" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4496,13 +4499,13 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4510,13 +4513,13 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,7 +4530,7 @@
         <v>213</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4535,13 +4538,13 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H18" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4549,13 +4552,13 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4563,13 +4566,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4577,10 +4580,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4634,7 +4637,7 @@
         <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>217</v>
@@ -4645,16 +4648,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>218</v>
       </c>
       <c r="K3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4665,7 +4668,7 @@
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>219</v>
@@ -4682,7 +4685,7 @@
         <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
         <v>221</v>
@@ -4699,7 +4702,7 @@
         <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
         <v>223</v>
@@ -4713,10 +4716,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
         <v>225</v>
@@ -4733,7 +4736,7 @@
         <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J8" t="s">
         <v>227</v>
@@ -4750,13 +4753,13 @@
         <v>125</v>
       </c>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
         <v>229</v>
       </c>
       <c r="K9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4767,10 +4770,10 @@
         <v>223</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K10" t="s">
         <v>230</v>
@@ -4781,10 +4784,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" t="s">
         <v>231</v>
@@ -4801,13 +4804,13 @@
         <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J12" t="s">
+        <v>531</v>
+      </c>
+      <c r="K12" t="s">
         <v>532</v>
-      </c>
-      <c r="K12" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,13 +4821,13 @@
         <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J13" t="s">
+        <v>763</v>
+      </c>
+      <c r="K13" t="s">
         <v>764</v>
-      </c>
-      <c r="K13" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4832,10 +4835,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4846,7 +4849,7 @@
         <v>229</v>
       </c>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4854,10 +4857,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4865,10 +4868,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,10 +4879,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4887,10 +4890,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4898,10 +4901,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4912,7 +4915,7 @@
         <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,7 +4963,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4968,10 +4971,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
         <v>268</v>
@@ -4988,10 +4991,10 @@
         <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I3" t="s">
         <v>270</v>
@@ -5005,13 +5008,13 @@
         <v>277</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5019,10 +5022,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H5" t="s">
         <v>272</v>
@@ -5039,7 +5042,7 @@
         <v>281</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
         <v>273</v>
@@ -5056,13 +5059,13 @@
         <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5070,16 +5073,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5091,13 +5094,13 @@
         <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" t="s">
+        <v>779</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>780</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5108,7 +5111,7 @@
         <v>279</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5119,7 +5122,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5130,7 +5133,7 @@
         <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5141,7 +5144,7 @@
         <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5150,10 +5153,10 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5161,10 +5164,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5173,10 +5176,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5184,10 +5187,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,7 +5201,7 @@
         <v>283</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5206,10 +5209,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5217,10 +5220,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5228,13 +5231,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5294,10 +5297,10 @@
         <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>302</v>
@@ -5317,13 +5320,13 @@
         <v>284</v>
       </c>
       <c r="H3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>284</v>
       </c>
       <c r="K3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5337,7 +5340,7 @@
         <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>285</v>
@@ -5357,13 +5360,13 @@
         <v>287</v>
       </c>
       <c r="H5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
         <v>287</v>
       </c>
       <c r="K5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5377,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="H6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
         <v>289</v>
@@ -5394,10 +5397,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -5418,16 +5421,16 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J8" t="s">
         <v>291</v>
       </c>
       <c r="K8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,7 +5444,7 @@
         <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
         <v>292</v>
@@ -5461,7 +5464,7 @@
         <v>291</v>
       </c>
       <c r="H10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
         <v>294</v>
@@ -5481,10 +5484,10 @@
         <v>305</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" t="s">
         <v>296</v>
@@ -5504,7 +5507,7 @@
         <v>292</v>
       </c>
       <c r="H12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J12" t="s">
         <v>298</v>
@@ -5524,13 +5527,13 @@
         <v>294</v>
       </c>
       <c r="H13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J13" t="s">
         <v>300</v>
       </c>
       <c r="K13" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5545,7 +5548,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="H14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J14" t="s">
         <v>301</v>
@@ -5562,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J15" t="s">
         <v>305</v>
@@ -5583,16 +5586,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5606,7 +5609,7 @@
         <v>296</v>
       </c>
       <c r="H17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5620,7 +5623,7 @@
         <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5634,7 +5637,7 @@
         <v>285</v>
       </c>
       <c r="H19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -5648,7 +5651,7 @@
         <v>300</v>
       </c>
       <c r="H20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5662,7 +5665,7 @@
         <v>304</v>
       </c>
       <c r="H21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -5727,7 +5730,7 @@
         <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>310</v>
@@ -5747,7 +5750,7 @@
         <v>445</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>312</v>
@@ -5767,7 +5770,7 @@
         <v>316</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>314</v>
@@ -5787,7 +5790,7 @@
         <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
         <v>317</v>
@@ -5807,10 +5810,10 @@
         <v>309</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K6" t="s">
         <v>319</v>
@@ -5827,7 +5830,7 @@
         <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
         <v>446</v>
@@ -5847,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J8" t="s">
         <v>452</v>
@@ -5867,7 +5870,7 @@
         <v>321</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
         <v>500</v>
@@ -5884,16 +5887,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5907,13 +5910,13 @@
         <v>320</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" t="s">
+        <v>792</v>
+      </c>
+      <c r="K11" t="s">
         <v>793</v>
-      </c>
-      <c r="K11" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5927,13 +5930,13 @@
         <v>449</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J12" t="s">
+        <v>794</v>
+      </c>
+      <c r="K12" t="s">
         <v>795</v>
-      </c>
-      <c r="K12" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5947,7 +5950,7 @@
         <v>322</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5961,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5972,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5990,7 +5993,7 @@
         <v>450</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6004,7 +6007,7 @@
         <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6015,10 +6018,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6029,10 +6032,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6046,7 +6049,7 @@
         <v>451</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6057,10 +6060,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6117,10 +6120,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
         <v>329</v>
@@ -6137,16 +6140,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H3" t="s">
         <v>573</v>
       </c>
-      <c r="E3" t="s">
-        <v>636</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>574</v>
-      </c>
-      <c r="I3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6160,13 +6163,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
+        <v>580</v>
+      </c>
+      <c r="I4" t="s">
         <v>581</v>
-      </c>
-      <c r="I4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6177,10 +6180,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H5" t="s">
         <v>331</v>
@@ -6200,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
         <v>334</v>
@@ -6217,16 +6220,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" t="s">
+        <v>526</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,16 +6240,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
+        <v>529</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6260,13 +6263,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" t="s">
         <v>241</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6280,13 +6283,13 @@
         <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6297,16 +6300,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H11" t="s">
+        <v>804</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6320,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -6332,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -6347,10 +6350,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -6365,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6379,7 +6382,7 @@
         <v>241</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6390,10 +6393,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6407,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6418,10 +6421,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6432,10 +6435,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6449,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6514,13 +6517,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6531,10 +6534,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
         <v>337</v>
@@ -6554,7 +6557,7 @@
         <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>340</v>
@@ -6574,7 +6577,7 @@
         <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H5" t="s">
         <v>67</v>
@@ -6594,7 +6597,7 @@
         <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
         <v>363</v>
@@ -6611,10 +6614,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H7" t="s">
         <v>360</v>
@@ -6635,16 +6638,16 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6658,13 +6661,13 @@
         <v>360</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6678,13 +6681,13 @@
         <v>335</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6695,16 +6698,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6715,16 +6718,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H12" t="s">
+        <v>817</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6738,13 +6741,13 @@
         <v>363</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H13" t="s">
+        <v>824</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6759,7 +6762,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6773,10 +6776,10 @@
         <v>335</v>
       </c>
       <c r="E15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6788,10 +6791,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6805,7 +6808,7 @@
         <v>340</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6816,10 +6819,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -6830,10 +6833,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -6847,7 +6850,7 @@
         <v>335</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6858,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,10 +6920,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6934,7 +6937,7 @@
         <v>454</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>345</v>
@@ -6951,13 +6954,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H4" t="s">
         <v>347</v>
@@ -6974,7 +6977,7 @@
         <v>500</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
         <v>349</v>
@@ -6994,13 +6997,13 @@
         <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
         <v>351</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7014,7 +7017,7 @@
         <v>455</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" t="s">
         <v>354</v>
@@ -7035,13 +7038,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7055,7 +7058,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
         <v>500</v>
@@ -7075,13 +7078,13 @@
         <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7095,13 +7098,13 @@
         <v>352</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7115,13 +7118,13 @@
         <v>456</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H12" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7132,16 +7135,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>831</v>
+      </c>
+      <c r="E13" t="s">
+        <v>635</v>
+      </c>
+      <c r="G13" t="s">
         <v>832</v>
       </c>
-      <c r="E13" t="s">
-        <v>636</v>
-      </c>
-      <c r="G13" t="s">
-        <v>833</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7156,7 +7159,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7170,7 +7173,7 @@
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7185,7 +7188,7 @@
         <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7199,7 +7202,7 @@
         <v>457</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7210,10 +7213,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7227,7 +7230,7 @@
         <v>365</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7252,7 +7255,7 @@
         <v>458</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7302,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7311,7 +7314,7 @@
         <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>369</v>
@@ -7328,10 +7331,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>372</v>
@@ -7348,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
         <v>459</v>
@@ -7368,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
         <v>490</v>
@@ -7388,16 +7391,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7408,16 +7411,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H7" t="s">
         <v>621</v>
-      </c>
-      <c r="H7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7425,20 +7428,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" t="s">
         <v>623</v>
-      </c>
-      <c r="H8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7449,16 +7452,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H9" t="s">
         <v>625</v>
-      </c>
-      <c r="H9" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7472,13 +7475,13 @@
         <v>336</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H10" t="s">
         <v>627</v>
-      </c>
-      <c r="H10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7489,16 +7492,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7509,16 +7512,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H12" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7529,16 +7532,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E13" t="s">
+        <v>635</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E13" t="s">
-        <v>636</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" t="s">
         <v>632</v>
-      </c>
-      <c r="H13" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7546,20 +7549,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7570,16 +7573,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7591,16 +7594,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="H16" t="s">
         <v>618</v>
-      </c>
-      <c r="H16" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7611,16 +7614,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="H17" t="s">
         <v>849</v>
-      </c>
-      <c r="H17" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7631,10 +7634,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7645,10 +7648,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7659,10 +7662,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7673,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7738,7 +7741,7 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -7758,7 +7761,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -7778,7 +7781,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -7798,7 +7801,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
@@ -7818,13 +7821,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7838,7 +7841,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" t="s">
         <v>50</v>
@@ -7858,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7872,7 +7875,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
         <v>62</v>
@@ -7892,7 +7895,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" t="s">
         <v>57</v>
@@ -7912,7 +7915,7 @@
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7926,13 +7929,13 @@
         <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7946,7 +7949,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7960,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7974,7 +7977,7 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7988,7 +7991,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8002,13 +8005,13 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G17" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,7 +8025,7 @@
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G18" t="s">
         <v>67</v>
@@ -8042,7 +8045,7 @@
         <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G19" t="s">
         <v>69</v>
@@ -8062,7 +8065,7 @@
         <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8076,13 +8079,13 @@
         <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G21" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8140,19 +8143,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>484</v>
@@ -8172,7 +8175,7 @@
         <v>374</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>486</v>
@@ -8189,10 +8192,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>249</v>
@@ -8209,16 +8212,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8232,13 +8235,13 @@
         <v>488</v>
       </c>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8249,16 +8252,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8266,19 +8269,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8289,20 +8292,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
         <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8313,19 +8316,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F10" t="s">
         <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
+        <v>855</v>
+      </c>
+      <c r="K10" t="s">
         <v>856</v>
-      </c>
-      <c r="K10" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8336,16 +8339,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" t="s">
+        <v>862</v>
+      </c>
+      <c r="K11" t="s">
         <v>863</v>
-      </c>
-      <c r="K11" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8356,16 +8359,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="G12" t="s">
+        <v>635</v>
+      </c>
+      <c r="J12" t="s">
+        <v>850</v>
+      </c>
+      <c r="K12" t="s">
         <v>851</v>
-      </c>
-      <c r="G12" t="s">
-        <v>636</v>
-      </c>
-      <c r="J12" t="s">
-        <v>851</v>
-      </c>
-      <c r="K12" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8376,10 +8379,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8387,13 +8390,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8407,7 +8410,7 @@
         <v>249</v>
       </c>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8422,10 +8425,10 @@
         <v>489</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8439,10 +8442,10 @@
         <v>121</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8453,10 +8456,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8467,10 +8470,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,10 +8484,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8495,10 +8498,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8553,19 +8556,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E2" t="s">
         <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
         <v>375</v>
@@ -8582,10 +8585,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
         <v>377</v>
@@ -8605,7 +8608,7 @@
         <v>377</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
         <v>379</v>
@@ -8622,10 +8625,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H5" t="s">
         <v>381</v>
@@ -8642,16 +8645,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8662,16 +8665,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="F7" t="s">
-        <v>636</v>
-      </c>
-      <c r="H7" t="s">
-        <v>566</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8679,20 +8682,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8703,16 +8706,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8727,13 +8730,13 @@
         <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8747,13 +8750,13 @@
         <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8764,16 +8767,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8784,16 +8787,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>879</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -8801,20 +8804,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -8825,16 +8828,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -8846,10 +8849,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -8862,16 +8865,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -8882,16 +8885,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -8902,16 +8905,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -8922,16 +8925,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F20" t="s">
+        <v>635</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="F20" t="s">
-        <v>636</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -8942,16 +8945,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -9002,22 +9005,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>383</v>
       </c>
       <c r="H2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9028,10 +9031,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>384</v>
@@ -9051,10 +9054,10 @@
         <v>384</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9065,16 +9068,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F5" t="s">
+        <v>635</v>
+      </c>
+      <c r="G5" t="s">
+        <v>554</v>
+      </c>
+      <c r="H5" t="s">
         <v>555</v>
-      </c>
-      <c r="F5" t="s">
-        <v>636</v>
-      </c>
-      <c r="G5" t="s">
-        <v>555</v>
-      </c>
-      <c r="H5" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9088,13 +9091,13 @@
         <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9105,16 +9108,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F7" t="s">
-        <v>636</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" t="s">
         <v>558</v>
-      </c>
-      <c r="H7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9122,20 +9125,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" t="s">
         <v>562</v>
-      </c>
-      <c r="H8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9146,16 +9149,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="H9" t="s">
         <v>894</v>
-      </c>
-      <c r="H9" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9169,10 +9172,10 @@
         <v>383</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>93</v>
@@ -9189,7 +9192,7 @@
         <v>283</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9200,10 +9203,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9214,10 +9217,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9225,14 +9228,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9243,10 +9246,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9258,10 +9261,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -9272,10 +9275,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9289,7 +9292,7 @@
         <v>276</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9300,10 +9303,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9317,7 +9320,7 @@
         <v>218</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -9328,10 +9331,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -9383,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -9392,7 +9395,7 @@
         <v>431</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>386</v>
@@ -9409,10 +9412,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>260</v>
@@ -9426,19 +9429,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>262</v>
       </c>
       <c r="K4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -9449,16 +9452,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
+        <v>540</v>
+      </c>
+      <c r="K5" t="s">
         <v>541</v>
-      </c>
-      <c r="K5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -9466,19 +9469,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="K6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -9489,13 +9492,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="K7" t="s">
         <v>432</v>
@@ -9509,16 +9512,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J8" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="K8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9526,19 +9529,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="K9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9549,10 +9552,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -9566,7 +9569,7 @@
         <v>260</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9574,13 +9577,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9591,10 +9594,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9605,10 +9608,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9616,13 +9619,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9633,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9647,10 +9650,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9658,13 +9661,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9675,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9686,10 +9689,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,16 +9700,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -9765,25 +9768,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E2" t="s">
         <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H2" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>525</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9794,10 +9797,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H3" t="s">
         <v>388</v>
@@ -9814,13 +9817,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H4" t="s">
         <v>249</v>
@@ -9837,16 +9840,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I5" t="s">
         <v>511</v>
-      </c>
-      <c r="G5" t="s">
-        <v>636</v>
-      </c>
-      <c r="H5" t="s">
-        <v>511</v>
-      </c>
-      <c r="I5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9857,16 +9860,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H6" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" t="s">
         <v>514</v>
-      </c>
-      <c r="I6" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9877,10 +9880,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9888,20 +9891,20 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="G8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9912,16 +9915,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9932,16 +9935,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H10" t="s">
+        <v>522</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9952,16 +9955,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9972,16 +9975,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H12" t="s">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9992,19 +9995,19 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -10012,20 +10015,20 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10036,16 +10039,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H15" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10057,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10071,10 +10074,10 @@
         <v>417</v>
       </c>
       <c r="F17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10085,10 +10088,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10110,10 +10113,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10124,13 +10127,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F21" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10179,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10188,7 +10191,7 @@
         <v>390</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>391</v>
@@ -10208,10 +10211,10 @@
         <v>391</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H3" t="s">
         <v>393</v>
@@ -10225,10 +10228,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
         <v>394</v>
@@ -10245,13 +10248,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H5" t="s">
         <v>396</v>
@@ -10265,10 +10268,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
         <v>397</v>
@@ -10288,7 +10291,7 @@
         <v>394</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" t="s">
         <v>399</v>
@@ -10302,14 +10305,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" t="s">
         <v>401</v>
@@ -10329,7 +10332,7 @@
         <v>397</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
         <v>410</v>
@@ -10349,7 +10352,7 @@
         <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" t="s">
         <v>404</v>
@@ -10369,7 +10372,7 @@
         <v>401</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G11" t="s">
         <v>406</v>
@@ -10389,7 +10392,7 @@
         <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
         <v>408</v>
@@ -10409,7 +10412,7 @@
         <v>404</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>411</v>
@@ -10423,17 +10426,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H14" t="s">
         <v>413</v>
@@ -10450,13 +10453,13 @@
         <v>406</v>
       </c>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H15" t="s">
         <v>509</v>
-      </c>
-      <c r="H15" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10471,13 +10474,13 @@
         <v>408</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10491,13 +10494,13 @@
         <v>411</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H17" t="s">
         <v>682</v>
-      </c>
-      <c r="H17" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -10508,10 +10511,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10522,10 +10525,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10536,10 +10539,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -10550,10 +10553,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -10575,7 +10578,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10603,13 +10606,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>503</v>
+      </c>
+      <c r="G2" t="s">
+        <v>635</v>
       </c>
       <c r="I2" t="s">
         <v>504</v>
@@ -10628,6 +10634,9 @@
       <c r="D3" t="s">
         <v>477</v>
       </c>
+      <c r="G3" t="s">
+        <v>635</v>
+      </c>
       <c r="I3" t="s">
         <v>415</v>
       </c>
@@ -10640,10 +10649,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>635</v>
       </c>
       <c r="I4" t="s">
         <v>477</v>
@@ -10662,6 +10674,9 @@
       <c r="D5" t="s">
         <v>502</v>
       </c>
+      <c r="G5" t="s">
+        <v>635</v>
+      </c>
       <c r="I5" t="s">
         <v>479</v>
       </c>
@@ -10674,10 +10689,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>635</v>
       </c>
       <c r="I6" t="s">
         <v>480</v>
@@ -10696,11 +10714,14 @@
       <c r="D7" t="s">
         <v>479</v>
       </c>
+      <c r="G7" t="s">
+        <v>635</v>
+      </c>
       <c r="I7" t="s">
+        <v>506</v>
+      </c>
+      <c r="J7" t="s">
         <v>507</v>
-      </c>
-      <c r="J7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10713,6 +10734,9 @@
       <c r="D8" t="s">
         <v>505</v>
       </c>
+      <c r="G8" t="s">
+        <v>635</v>
+      </c>
       <c r="I8" t="s">
         <v>502</v>
       </c>
@@ -10725,16 +10749,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>635</v>
+      </c>
       <c r="I9" t="s">
+        <v>916</v>
+      </c>
+      <c r="J9" t="s">
         <v>917</v>
-      </c>
-      <c r="J9" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10745,13 +10772,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>635</v>
       </c>
       <c r="I10" t="s">
+        <v>918</v>
+      </c>
+      <c r="J10" t="s">
         <v>919</v>
-      </c>
-      <c r="J10" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10762,13 +10792,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>917</v>
+        <v>916</v>
+      </c>
+      <c r="G11" t="s">
+        <v>635</v>
       </c>
       <c r="I11" t="s">
+        <v>920</v>
+      </c>
+      <c r="J11" t="s">
         <v>921</v>
-      </c>
-      <c r="J11" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10776,16 +10809,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="G12" t="s">
+        <v>635</v>
+      </c>
       <c r="I12" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10796,13 +10832,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>919</v>
+        <v>918</v>
+      </c>
+      <c r="G13" t="s">
+        <v>635</v>
       </c>
       <c r="I13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10813,7 +10852,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>506</v>
+        <v>996</v>
+      </c>
+      <c r="G14" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10821,10 +10863,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C15">
         <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10835,10 +10880,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="G16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10849,18 +10897,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10870,8 +10921,11 @@
       <c r="D19" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10879,24 +10933,24 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -11742,7 +11796,7 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>75</v>
@@ -11759,7 +11813,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>81</v>
@@ -11776,7 +11830,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -11793,7 +11847,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
@@ -11810,7 +11864,7 @@
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
         <v>89</v>
@@ -11827,7 +11881,7 @@
         <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" t="s">
         <v>95</v>
@@ -11844,13 +11898,13 @@
         <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11861,7 +11915,7 @@
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
         <v>100</v>
@@ -11878,13 +11932,13 @@
         <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" t="s">
+        <v>641</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11895,7 +11949,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11906,7 +11960,7 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11917,7 +11971,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11925,10 +11979,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11939,7 +11993,7 @@
         <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -11950,7 +12004,7 @@
         <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -11961,7 +12015,7 @@
         <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -11980,7 +12034,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11991,7 +12045,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12002,7 +12056,7 @@
         <v>438</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12766,13 +12820,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E2" t="s">
         <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12786,7 +12840,7 @@
         <v>492</v>
       </c>
       <c r="F3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>494</v>
@@ -12806,7 +12860,7 @@
         <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
@@ -12826,13 +12880,13 @@
         <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12846,7 +12900,7 @@
         <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
         <v>107</v>
@@ -12866,7 +12920,7 @@
         <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" t="s">
         <v>498</v>
@@ -12886,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -12906,7 +12960,7 @@
         <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
         <v>112</v>
@@ -12926,7 +12980,7 @@
         <v>496</v>
       </c>
       <c r="F10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" t="s">
         <v>114</v>
@@ -12943,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G11" t="s">
         <v>116</v>
@@ -12963,13 +13017,13 @@
         <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
         <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -12983,13 +13037,13 @@
         <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G13" t="s">
         <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -13003,10 +13057,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>120</v>
@@ -13023,7 +13077,7 @@
         <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G15" t="s">
         <v>121</v>
@@ -13043,7 +13097,7 @@
         <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G16" t="s">
         <v>492</v>
@@ -13063,13 +13117,13 @@
         <v>497</v>
       </c>
       <c r="F17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G17" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13094,7 +13148,7 @@
         <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -13108,7 +13162,7 @@
         <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -13119,10 +13173,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -13179,10 +13233,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -13193,7 +13247,7 @@
         <v>249</v>
       </c>
       <c r="G3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I3" t="s">
         <v>123</v>
@@ -13210,10 +13264,10 @@
         <v>256</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J4" t="s">
         <v>126</v>
@@ -13225,10 +13279,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I5" t="s">
         <v>128</v>
@@ -13245,7 +13299,7 @@
         <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I6" t="s">
         <v>131</v>
@@ -13262,7 +13316,7 @@
         <v>253</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I7" t="s">
         <v>249</v>
@@ -13276,10 +13330,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I8" t="s">
         <v>256</v>
@@ -13294,10 +13348,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I9" t="s">
         <v>253</v>
@@ -13311,16 +13365,16 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I10" t="s">
+        <v>544</v>
+      </c>
+      <c r="J10" t="s">
         <v>545</v>
-      </c>
-      <c r="J10" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -13328,16 +13382,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I11" t="s">
+        <v>546</v>
+      </c>
+      <c r="J11" t="s">
         <v>547</v>
-      </c>
-      <c r="J11" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13345,16 +13399,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G12" t="s">
+        <v>635</v>
+      </c>
+      <c r="I12" t="s">
         <v>549</v>
       </c>
-      <c r="G12" t="s">
-        <v>636</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>550</v>
-      </c>
-      <c r="J12" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -13362,16 +13416,16 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I13" t="s">
+        <v>657</v>
+      </c>
+      <c r="J13" t="s">
         <v>658</v>
-      </c>
-      <c r="J13" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -13382,16 +13436,16 @@
         <v>281</v>
       </c>
       <c r="E14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I14" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J14" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -13399,10 +13453,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -13410,10 +13464,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -13421,10 +13475,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -13432,10 +13486,10 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -13444,10 +13498,10 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13455,7 +13509,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13463,10 +13517,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13526,7 +13580,7 @@
         <v>424</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" t="s">
         <v>417</v>
@@ -13546,7 +13600,7 @@
         <v>422</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G3" t="s">
         <v>247</v>
@@ -13566,13 +13620,13 @@
         <v>428</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13583,10 +13637,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G5" t="s">
         <v>249</v>
@@ -13606,7 +13660,7 @@
         <v>418</v>
       </c>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G6" t="s">
         <v>433</v>
@@ -13623,16 +13677,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>418</v>
       </c>
       <c r="H7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -13647,13 +13701,13 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G8" t="s">
+        <v>667</v>
+      </c>
+      <c r="H8" t="s">
         <v>668</v>
-      </c>
-      <c r="H8" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -13667,13 +13721,13 @@
         <v>433</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G9" t="s">
         <v>420</v>
       </c>
       <c r="H9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -13684,10 +13738,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" t="s">
         <v>425</v>
@@ -13704,16 +13758,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G11" t="s">
         <v>426</v>
       </c>
       <c r="H11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -13724,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G12" t="s">
         <v>427</v>
@@ -13747,7 +13801,7 @@
         <v>426</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G13" t="s">
         <v>428</v>
@@ -13768,7 +13822,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G14" t="s">
         <v>429</v>
@@ -13785,16 +13839,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E15" t="s">
+        <v>635</v>
+      </c>
+      <c r="G15" t="s">
         <v>677</v>
       </c>
-      <c r="E15" t="s">
-        <v>636</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>678</v>
-      </c>
-      <c r="H15" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -13809,7 +13863,7 @@
         <v>429</v>
       </c>
       <c r="E16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G16" t="s">
         <v>433</v>
@@ -13829,7 +13883,7 @@
         <v>435</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G17" t="s">
         <v>435</v>
@@ -13849,13 +13903,13 @@
         <v>420</v>
       </c>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G18" t="s">
+        <v>660</v>
+      </c>
+      <c r="H18" t="s">
         <v>661</v>
-      </c>
-      <c r="H18" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -13869,13 +13923,13 @@
         <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -13886,16 +13940,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G20" t="s">
+        <v>664</v>
+      </c>
+      <c r="H20" t="s">
         <v>665</v>
-      </c>
-      <c r="H20" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -13906,16 +13960,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G21" t="s">
+        <v>683</v>
+      </c>
+      <c r="H21" t="s">
         <v>684</v>
-      </c>
-      <c r="H21" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -13975,7 +14029,7 @@
         <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>162</v>
@@ -13995,7 +14049,7 @@
         <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>167</v>
@@ -14015,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>169</v>
@@ -14032,16 +14086,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
+        <v>688</v>
+      </c>
+      <c r="K5" t="s">
         <v>689</v>
-      </c>
-      <c r="K5" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -14056,13 +14110,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
+        <v>690</v>
+      </c>
+      <c r="K6" t="s">
         <v>691</v>
-      </c>
-      <c r="K6" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14076,13 +14130,13 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
+        <v>692</v>
+      </c>
+      <c r="K7" t="s">
         <v>693</v>
-      </c>
-      <c r="K7" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -14093,16 +14147,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J8" t="s">
+        <v>694</v>
+      </c>
+      <c r="K8" t="s">
         <v>695</v>
-      </c>
-      <c r="K8" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -14117,13 +14171,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
+        <v>696</v>
+      </c>
+      <c r="K9" t="s">
         <v>697</v>
-      </c>
-      <c r="K9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -14137,13 +14191,13 @@
         <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K10" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14157,13 +14211,13 @@
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="K11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -14177,7 +14231,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -14191,7 +14245,7 @@
         <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -14202,7 +14256,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -14217,7 +14271,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -14228,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14239,10 +14293,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -14257,7 +14311,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -14268,10 +14322,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -14282,10 +14336,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14299,10 +14353,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -14362,7 +14416,7 @@
         <v>440</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>439</v>
@@ -14379,10 +14433,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>442</v>
@@ -14402,13 +14456,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
+        <v>536</v>
+      </c>
+      <c r="K4" t="s">
         <v>537</v>
-      </c>
-      <c r="K4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -14419,16 +14473,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -14443,13 +14497,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14460,16 +14514,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G7" t="s">
+        <v>635</v>
+      </c>
+      <c r="J7" t="s">
         <v>610</v>
       </c>
-      <c r="G7" t="s">
-        <v>636</v>
-      </c>
-      <c r="J7" t="s">
-        <v>611</v>
-      </c>
       <c r="K7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -14480,16 +14534,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G8" t="s">
+        <v>635</v>
+      </c>
+      <c r="J8" t="s">
         <v>611</v>
       </c>
-      <c r="G8" t="s">
-        <v>636</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>612</v>
-      </c>
-      <c r="K8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -14504,13 +14558,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -14521,16 +14575,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14544,13 +14598,13 @@
         <v>444</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="K11" t="s">
         <v>704</v>
-      </c>
-      <c r="K11" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -14564,13 +14618,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -14581,10 +14635,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -14595,16 +14649,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J14" t="s">
+        <v>534</v>
+      </c>
+      <c r="K14" t="s">
         <v>535</v>
-      </c>
-      <c r="K14" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -14619,7 +14673,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -14630,10 +14684,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -14644,10 +14698,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -14662,7 +14716,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -14673,10 +14727,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14687,10 +14741,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -14704,10 +14758,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -14767,7 +14821,7 @@
         <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" t="s">
         <v>188</v>
@@ -14787,7 +14841,7 @@
         <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J3" t="s">
         <v>190</v>
@@ -14807,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J4" t="s">
         <v>194</v>
@@ -14827,7 +14881,7 @@
         <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" t="s">
         <v>196</v>
@@ -14848,13 +14902,13 @@
       </c>
       <c r="D6" s="3"/>
       <c r="G6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14865,16 +14919,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K7" t="s">
         <v>539</v>
-      </c>
-      <c r="K7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -14885,16 +14939,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G8" t="s">
+        <v>635</v>
+      </c>
+      <c r="J8" t="s">
+        <v>601</v>
+      </c>
+      <c r="K8" t="s">
         <v>602</v>
-      </c>
-      <c r="G8" t="s">
-        <v>636</v>
-      </c>
-      <c r="J8" t="s">
-        <v>602</v>
-      </c>
-      <c r="K8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -14909,13 +14963,13 @@
       </c>
       <c r="D9" s="3"/>
       <c r="G9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J9" t="s">
+        <v>709</v>
+      </c>
+      <c r="K9" t="s">
         <v>710</v>
-      </c>
-      <c r="K9" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -14926,16 +14980,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J10" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14949,13 +15003,13 @@
         <v>196</v>
       </c>
       <c r="G11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J11" t="s">
+        <v>712</v>
+      </c>
+      <c r="K11" t="s">
         <v>713</v>
-      </c>
-      <c r="K11" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -14969,13 +15023,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J12" t="s">
+        <v>717</v>
+      </c>
+      <c r="K12" t="s">
         <v>718</v>
-      </c>
-      <c r="K12" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -14986,16 +15040,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G13" t="s">
+        <v>635</v>
+      </c>
+      <c r="J13" t="s">
         <v>720</v>
       </c>
-      <c r="G13" t="s">
-        <v>636</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>721</v>
-      </c>
-      <c r="K13" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -15009,13 +15063,13 @@
         <v>198</v>
       </c>
       <c r="G14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J14" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K14" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -15030,7 +15084,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="G15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -15041,16 +15095,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G16" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -15061,13 +15115,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J17" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -15082,7 +15136,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="G18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -15093,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -15104,10 +15158,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -15121,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/doc/classes.xlsx
+++ b/doc/classes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8655" firstSheet="16" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Acolyte" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1008">
   <si>
     <t>Black Magic 1</t>
   </si>
@@ -2850,15 +2850,9 @@
     <t>Restore health + fatigue when a party member dies</t>
   </si>
   <si>
-    <t>Vengeance</t>
-  </si>
-  <si>
     <t>Lurker</t>
   </si>
   <si>
-    <t>Obfuscation +2</t>
-  </si>
-  <si>
     <t>Attune with Nature</t>
   </si>
   <si>
@@ -2904,9 +2898,6 @@
     <t>Light of Faith</t>
   </si>
   <si>
-    <t>immune to fear, plyze, web</t>
-  </si>
-  <si>
     <t>Veil of Shadows</t>
   </si>
   <si>
@@ -3067,6 +3058,42 @@
   </si>
   <si>
     <t>Power of the Circle +10</t>
+  </si>
+  <si>
+    <t>While afflicted with Insane condition, Cultist gets MP regen, Power Cast bonus</t>
+  </si>
+  <si>
+    <t>While afflicted with Hex condition, Cultist gets AP regen, Power +4</t>
+  </si>
+  <si>
+    <t>Obfuscation +3</t>
+  </si>
+  <si>
+    <t>Bane of Undeath</t>
+  </si>
+  <si>
+    <t>Hero of Myth</t>
+  </si>
+  <si>
+    <t>immune to fear, plyze, web, stone</t>
+  </si>
+  <si>
+    <t>Melee Master +1</t>
+  </si>
+  <si>
+    <t>Wrath</t>
+  </si>
+  <si>
+    <t>Escape Artist</t>
+  </si>
+  <si>
+    <t>Immune to Web, Swallow</t>
+  </si>
+  <si>
+    <t>Eye of Truth</t>
+  </si>
+  <si>
+    <t>big bonus to artifacts, mythology, blind fighting</t>
   </si>
 </sst>
 </file>
@@ -3424,14 +3451,14 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="75.140625" customWidth="1"/>
@@ -3644,6 +3671,9 @@
       <c r="D11" t="s">
         <v>148</v>
       </c>
+      <c r="E11" t="s">
+        <v>635</v>
+      </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
@@ -3745,7 +3775,7 @@
         <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>996</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3765,7 +3795,7 @@
         <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>997</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3822,6 +3852,9 @@
       </c>
       <c r="D21" t="s">
         <v>462</v>
+      </c>
+      <c r="E21" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3902,7 +3935,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
+      </c>
+      <c r="G3" t="s">
+        <v>635</v>
       </c>
       <c r="I3" t="s">
         <v>205</v>
@@ -3941,6 +3977,9 @@
       <c r="D5" t="s">
         <v>732</v>
       </c>
+      <c r="G5" t="s">
+        <v>635</v>
+      </c>
       <c r="I5" t="s">
         <v>601</v>
       </c>
@@ -3956,7 +3995,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
+      </c>
+      <c r="G6" t="s">
+        <v>635</v>
       </c>
       <c r="I6" t="s">
         <v>603</v>
@@ -4056,8 +4098,11 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>941</v>
+      <c r="D11" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>635</v>
       </c>
       <c r="I11" t="s">
         <v>732</v>
@@ -4080,10 +4125,10 @@
         <v>635</v>
       </c>
       <c r="I12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4100,7 +4145,7 @@
         <v>635</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>276</v>
@@ -4121,10 +4166,10 @@
         <v>635</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>944</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4140,6 +4185,12 @@
       <c r="G15" t="s">
         <v>635</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4154,6 +4205,12 @@
       <c r="G16" t="s">
         <v>635</v>
       </c>
+      <c r="I16" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -4177,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>320</v>
+        <v>999</v>
       </c>
       <c r="G18" t="s">
         <v>635</v>
@@ -4219,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E21" t="s">
         <v>726</v>
@@ -4603,7 +4660,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8149,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>869</v>
@@ -8556,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8682,7 +8739,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -8804,7 +8861,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -8874,7 +8931,7 @@
         <v>884</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -8954,7 +9011,7 @@
         <v>887</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -9005,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -9020,7 +9077,7 @@
         <v>383</v>
       </c>
       <c r="H2" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9031,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F3" t="s">
         <v>635</v>
@@ -9094,7 +9151,7 @@
         <v>635</v>
       </c>
       <c r="G6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="H6" t="s">
         <v>553</v>
@@ -9125,7 +9182,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9175,7 +9232,7 @@
         <v>635</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>93</v>
@@ -9203,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F12" t="s">
         <v>635</v>
@@ -9228,7 +9285,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9246,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F15" t="s">
         <v>635</v>
@@ -9331,7 +9388,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="F21" t="s">
         <v>635</v>
@@ -9386,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -9412,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E3" t="s">
         <v>635</v>
@@ -9429,7 +9486,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -9452,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E5" t="s">
         <v>635</v>
@@ -9469,7 +9526,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -9478,7 +9535,7 @@
         <v>635</v>
       </c>
       <c r="J6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="K6" t="s">
         <v>899</v>
@@ -9492,13 +9549,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E7" t="s">
         <v>635</v>
       </c>
       <c r="J7" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="K7" t="s">
         <v>432</v>
@@ -9518,7 +9575,7 @@
         <v>635</v>
       </c>
       <c r="J8" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="K8" t="s">
         <v>895</v>
@@ -9529,7 +9586,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9538,10 +9595,10 @@
         <v>635</v>
       </c>
       <c r="J9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="K9" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9552,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E10" t="s">
         <v>635</v>
@@ -9577,7 +9634,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9619,7 +9676,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -9636,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E16" t="s">
         <v>635</v>
@@ -9661,7 +9718,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -9678,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9700,13 +9757,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E21" t="s">
         <v>635</v>
@@ -9729,8 +9786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9768,13 +9825,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E2" t="s">
         <v>309</v>
@@ -9797,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G3" t="s">
         <v>635</v>
@@ -9817,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F4" t="s">
         <v>869</v>
@@ -9860,7 +9917,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G6" t="s">
         <v>635</v>
@@ -9885,13 +9942,19 @@
       <c r="G7" t="s">
         <v>635</v>
       </c>
+      <c r="H7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1005</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10015,7 +10078,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -10025,7 +10088,7 @@
         <v>635</v>
       </c>
       <c r="H14" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I14" t="s">
         <v>905</v>
@@ -10045,7 +10108,7 @@
         <v>635</v>
       </c>
       <c r="H15" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I15" t="s">
         <v>906</v>
@@ -10102,7 +10165,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>1004</v>
+      </c>
+      <c r="G19" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10182,7 +10248,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10214,7 +10280,7 @@
         <v>635</v>
       </c>
       <c r="G3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H3" t="s">
         <v>393</v>
@@ -10228,7 +10294,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E4" t="s">
         <v>635</v>
@@ -10248,13 +10314,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E5" t="s">
         <v>635</v>
       </c>
       <c r="G5" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="H5" t="s">
         <v>396</v>
@@ -10268,7 +10334,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E6" t="s">
         <v>635</v>
@@ -10305,7 +10371,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -10426,7 +10492,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -10436,7 +10502,7 @@
         <v>635</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H14" t="s">
         <v>413</v>
@@ -10477,7 +10543,7 @@
         <v>635</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="H16" t="s">
         <v>551</v>
@@ -10511,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="E18" t="s">
         <v>635</v>
@@ -10525,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E19" t="s">
         <v>635</v>
@@ -10575,19 +10641,20 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10601,12 +10668,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -10614,17 +10681,17 @@
       <c r="D2" t="s">
         <v>503</v>
       </c>
+      <c r="E2" t="s">
+        <v>635</v>
+      </c>
       <c r="G2" t="s">
-        <v>635</v>
-      </c>
-      <c r="I2" t="s">
         <v>504</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10634,37 +10701,37 @@
       <c r="D3" t="s">
         <v>477</v>
       </c>
+      <c r="E3" t="s">
+        <v>635</v>
+      </c>
       <c r="G3" t="s">
-        <v>635</v>
-      </c>
-      <c r="I3" t="s">
         <v>415</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>635</v>
+      </c>
       <c r="G4" t="s">
-        <v>635</v>
-      </c>
-      <c r="I4" t="s">
         <v>477</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10674,37 +10741,37 @@
       <c r="D5" t="s">
         <v>502</v>
       </c>
+      <c r="E5" t="s">
+        <v>635</v>
+      </c>
       <c r="G5" t="s">
-        <v>635</v>
-      </c>
-      <c r="I5" t="s">
         <v>479</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
       <c r="G6" t="s">
-        <v>635</v>
-      </c>
-      <c r="I6" t="s">
         <v>480</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10714,17 +10781,17 @@
       <c r="D7" t="s">
         <v>479</v>
       </c>
+      <c r="E7" t="s">
+        <v>635</v>
+      </c>
       <c r="G7" t="s">
-        <v>635</v>
-      </c>
-      <c r="I7" t="s">
         <v>506</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10734,37 +10801,37 @@
       <c r="D8" t="s">
         <v>505</v>
       </c>
+      <c r="E8" t="s">
+        <v>635</v>
+      </c>
       <c r="G8" t="s">
-        <v>635</v>
-      </c>
-      <c r="I8" t="s">
         <v>502</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="E9" t="s">
+        <v>635</v>
+      </c>
       <c r="G9" t="s">
-        <v>635</v>
-      </c>
-      <c r="I9" t="s">
         <v>916</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10772,19 +10839,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>998</v>
+        <v>995</v>
+      </c>
+      <c r="E10" t="s">
+        <v>635</v>
       </c>
       <c r="G10" t="s">
-        <v>635</v>
-      </c>
-      <c r="I10" t="s">
         <v>918</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H10" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10794,37 +10861,37 @@
       <c r="D11" t="s">
         <v>916</v>
       </c>
+      <c r="E11" t="s">
+        <v>635</v>
+      </c>
       <c r="G11" t="s">
-        <v>635</v>
-      </c>
-      <c r="I11" t="s">
         <v>920</v>
       </c>
-      <c r="J11" t="s">
+      <c r="H11" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>635</v>
+      </c>
       <c r="G12" t="s">
-        <v>635</v>
-      </c>
-      <c r="I12" t="s">
         <v>922</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H12" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10834,17 +10901,17 @@
       <c r="D13" t="s">
         <v>918</v>
       </c>
+      <c r="E13" t="s">
+        <v>635</v>
+      </c>
       <c r="G13" t="s">
-        <v>635</v>
-      </c>
-      <c r="I13" t="s">
-        <v>945</v>
-      </c>
-      <c r="J13" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+      <c r="H13" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10852,27 +10919,33 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>996</v>
+        <v>993</v>
+      </c>
+      <c r="E14" t="s">
+        <v>635</v>
       </c>
       <c r="G14" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10882,11 +10955,11 @@
       <c r="D16" t="s">
         <v>920</v>
       </c>
-      <c r="G16" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10894,24 +10967,27 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+      <c r="E17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10921,11 +10997,11 @@
       <c r="D19" t="s">
         <v>480</v>
       </c>
-      <c r="G19" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10933,24 +11009,30 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+      <c r="E20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+      <c r="E21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -11758,7 +11840,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12024,6 +12106,9 @@
       </c>
       <c r="D18" s="2" t="s">
         <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12781,7 +12866,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12997,7 +13082,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>926</v>
+        <v>1003</v>
+      </c>
+      <c r="F11" t="s">
+        <v>635</v>
       </c>
       <c r="G11" t="s">
         <v>116</v>
@@ -13135,6 +13223,15 @@
       </c>
       <c r="D18" s="3" t="s">
         <v>218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>635</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -13197,14 +13294,14 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13442,10 +13539,10 @@
         <v>635</v>
       </c>
       <c r="I14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J14" t="s">
-        <v>928</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -13509,7 +13606,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
+      </c>
+      <c r="G20" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13991,7 +14091,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14194,10 +14294,10 @@
         <v>635</v>
       </c>
       <c r="J10" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="K10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -14214,10 +14314,10 @@
         <v>635</v>
       </c>
       <c r="J11" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="K11" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -14256,7 +14356,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
+      </c>
+      <c r="E14" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -14282,7 +14385,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>931</v>
+        <v>929</v>
+      </c>
+      <c r="E16" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -14780,20 +14886,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14807,7 +14914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14820,17 +14927,17 @@
       <c r="D2" t="s">
         <v>193</v>
       </c>
+      <c r="E2" t="s">
+        <v>635</v>
+      </c>
       <c r="G2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J2" t="s">
         <v>188</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14840,17 +14947,17 @@
       <c r="D3" s="3" t="s">
         <v>190</v>
       </c>
+      <c r="E3" t="s">
+        <v>635</v>
+      </c>
       <c r="G3" t="s">
-        <v>635</v>
-      </c>
-      <c r="J3" t="s">
         <v>190</v>
       </c>
-      <c r="K3" t="s">
+      <c r="H3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14860,17 +14967,17 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>635</v>
+      </c>
       <c r="G4" t="s">
-        <v>635</v>
-      </c>
-      <c r="J4" t="s">
         <v>194</v>
       </c>
-      <c r="K4" t="s">
+      <c r="H4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14880,17 +14987,17 @@
       <c r="D5" s="3" t="s">
         <v>195</v>
       </c>
+      <c r="E5" t="s">
+        <v>635</v>
+      </c>
       <c r="G5" t="s">
-        <v>635</v>
-      </c>
-      <c r="J5" t="s">
         <v>196</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14901,17 +15008,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="E6" t="s">
+        <v>635</v>
+      </c>
       <c r="G6" t="s">
-        <v>635</v>
-      </c>
-      <c r="J6" t="s">
         <v>719</v>
       </c>
-      <c r="K6" t="s">
+      <c r="H6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14921,17 +15028,17 @@
       <c r="D7" s="3" t="s">
         <v>716</v>
       </c>
+      <c r="E7" t="s">
+        <v>635</v>
+      </c>
       <c r="G7" t="s">
-        <v>635</v>
-      </c>
-      <c r="J7" t="s">
         <v>538</v>
       </c>
-      <c r="K7" t="s">
+      <c r="H7" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14941,17 +15048,17 @@
       <c r="D8" t="s">
         <v>601</v>
       </c>
+      <c r="E8" t="s">
+        <v>635</v>
+      </c>
       <c r="G8" t="s">
-        <v>635</v>
-      </c>
-      <c r="J8" t="s">
         <v>601</v>
       </c>
-      <c r="K8" t="s">
+      <c r="H8" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14962,17 +15069,17 @@
         <v>1</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" t="s">
+        <v>635</v>
+      </c>
       <c r="G9" t="s">
-        <v>635</v>
-      </c>
-      <c r="J9" t="s">
         <v>709</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14982,17 +15089,17 @@
       <c r="D10" s="3" t="s">
         <v>709</v>
       </c>
+      <c r="E10" t="s">
+        <v>635</v>
+      </c>
       <c r="G10" t="s">
-        <v>635</v>
-      </c>
-      <c r="J10" t="s">
         <v>716</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H10" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15002,17 +15109,17 @@
       <c r="D11" t="s">
         <v>196</v>
       </c>
+      <c r="E11" t="s">
+        <v>635</v>
+      </c>
       <c r="G11" t="s">
-        <v>635</v>
-      </c>
-      <c r="J11" t="s">
         <v>712</v>
       </c>
-      <c r="K11" t="s">
+      <c r="H11" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15022,17 +15129,17 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="E12" t="s">
+        <v>635</v>
+      </c>
       <c r="G12" t="s">
-        <v>635</v>
-      </c>
-      <c r="J12" t="s">
         <v>717</v>
       </c>
-      <c r="K12" t="s">
+      <c r="H12" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15042,17 +15149,17 @@
       <c r="D13" s="3" t="s">
         <v>719</v>
       </c>
+      <c r="E13" t="s">
+        <v>635</v>
+      </c>
       <c r="G13" t="s">
-        <v>635</v>
-      </c>
-      <c r="J13" t="s">
         <v>720</v>
       </c>
-      <c r="K13" t="s">
+      <c r="H13" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15062,17 +15169,17 @@
       <c r="D14" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="E14" t="s">
+        <v>635</v>
+      </c>
       <c r="G14" t="s">
-        <v>635</v>
-      </c>
-      <c r="J14" t="s">
-        <v>935</v>
-      </c>
-      <c r="K14" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+      <c r="H14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15083,11 +15190,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="G15" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15097,17 +15204,17 @@
       <c r="D16" s="3" t="s">
         <v>712</v>
       </c>
+      <c r="E16" t="s">
+        <v>635</v>
+      </c>
       <c r="G16" t="s">
-        <v>635</v>
-      </c>
-      <c r="J16" t="s">
         <v>715</v>
       </c>
-      <c r="K16" t="s">
+      <c r="H16" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15115,16 +15222,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="J17" t="s">
         <v>933</v>
       </c>
-      <c r="K17" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>635</v>
+      </c>
+      <c r="G17" t="s">
+        <v>931</v>
+      </c>
+      <c r="H17" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15135,11 +15245,11 @@
         <v>1</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="G18" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15147,10 +15257,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="E19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15160,11 +15273,11 @@
       <c r="D20" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="G20" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15175,10 +15288,13 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+      <c r="E21" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
